--- a/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{FE336248-29D0-4046-AA58-1D267DAF06C4}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="31540" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="31540" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="576">
   <si>
     <t>description</t>
   </si>
@@ -1806,7 +1806,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1984,8 +1984,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="62">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2181,8 +2282,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -2546,6 +2800,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2553,7 +3133,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="72">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2694,52 +3274,100 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="10" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="13" fontId="13" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="16" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="19" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="22" fontId="17" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="25" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="16" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="28" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="28" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="19" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="31" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="19" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="34" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="40" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="46" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="52" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="43" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="55" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="55" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3277,7 +3905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF135"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -10562,7 +11190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5C8069-A239-E04D-9D6B-FB227AC724DF}">
   <dimension ref="A1:P301"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -15851,7 +16479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0007F9-AF90-204C-9864-525A82996374}">
   <dimension ref="A1:P301"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -21140,7 +21768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C36D544-6757-9945-A4AE-6F4C13E61F83}">
   <dimension ref="A1:P301"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
@@ -23,7 +23,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3016" uniqueCount="578">
   <si>
     <t>description</t>
   </si>
@@ -1799,6 +1799,12 @@
   </si>
   <si>
     <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
   </si>
 </sst>
 </file>
@@ -1806,7 +1812,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2085,8 +2091,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="62">
+  <fills count="116">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2435,8 +2643,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="67">
+  <borders count="131">
     <border>
       <left/>
       <right/>
@@ -3126,6 +3640,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3133,7 +4299,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="104">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3322,52 +4488,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="34" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="37" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="40" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="43" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="46" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="46" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="33" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="52" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="52" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="43" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="43" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="55" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="55" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="55" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="55" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="64" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="67" fontId="45" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="70" fontId="46" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="73" fontId="47" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="76" fontId="49" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="79" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="70" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="82" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="82" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="73" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="85" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="73" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="88" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="91" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="94" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="97" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="100" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="103" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="106" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="97" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="109" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="109" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="100" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="100" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="115" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4862,7 +6124,7 @@
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>411</v>
+        <v>576</v>
       </c>
       <c r="H18" t="s">
         <v>87</v>
@@ -4885,7 +6147,7 @@
         <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>411</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -4905,7 +6167,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
@@ -4925,13 +6187,13 @@
         <v>392</v>
       </c>
       <c r="F21" t="s">
-        <v>253</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
         <v>294</v>
       </c>
       <c r="L21" t="s">
-        <v>376</v>
+        <v>577</v>
       </c>
       <c r="Z21" t="s">
         <v>105</v>
@@ -4945,7 +6207,7 @@
         <v>408</v>
       </c>
       <c r="F22" t="s">
-        <v>535</v>
+        <v>253</v>
       </c>
       <c r="H22" t="s">
         <v>295</v>
@@ -4965,7 +6227,7 @@
         <v>409</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>535</v>
       </c>
       <c r="H23" t="s">
         <v>296</v>
@@ -4985,7 +6247,7 @@
         <v>353</v>
       </c>
       <c r="F24" t="s">
-        <v>318</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
         <v>287</v>
@@ -5005,7 +6267,7 @@
         <v>393</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>318</v>
       </c>
       <c r="H25" t="s">
         <v>276</v>
@@ -5025,7 +6287,7 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>445</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
@@ -5045,7 +6307,7 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>222</v>
+        <v>445</v>
       </c>
       <c r="H27" t="s">
         <v>279</v>
@@ -5065,7 +6327,7 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H28" t="s">
         <v>263</v>
@@ -5082,7 +6344,7 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>465</v>
+        <v>223</v>
       </c>
       <c r="H29" t="s">
         <v>280</v>
@@ -5099,7 +6361,7 @@
         <v>410</v>
       </c>
       <c r="F30" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H30" t="s">
         <v>281</v>
@@ -5113,7 +6375,7 @@
         <v>224</v>
       </c>
       <c r="F31" t="s">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="H31" t="s">
         <v>213</v>
@@ -5124,7 +6386,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>62</v>
+        <v>412</v>
       </c>
       <c r="H32" t="s">
         <v>272</v>
@@ -5135,7 +6397,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33" t="s">
         <v>282</v>
@@ -5146,7 +6408,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H34" t="s">
         <v>506</v>
@@ -5157,7 +6419,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H35" t="s">
         <v>257</v>
@@ -5168,7 +6430,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H36" t="s">
         <v>327</v>
@@ -5179,7 +6441,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H37" t="s">
         <v>304</v>
@@ -5190,7 +6452,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H38" t="s">
         <v>258</v>
@@ -5201,7 +6463,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H39" t="s">
         <v>305</v>
@@ -5211,6 +6473,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
       <c r="H40" t="s">
         <v>264</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
@@ -23,15 +23,15 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
@@ -50,7 +50,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3016" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3581" uniqueCount="583">
   <si>
     <t>description</t>
   </si>
@@ -1805,6 +1805,21 @@
   </si>
   <si>
     <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1812,7 +1827,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="91" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2293,8 +2308,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="116">
+  <fills count="143">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2949,8 +3065,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="131">
+  <borders count="163">
     <border>
       <left/>
       <right/>
@@ -4292,6 +4561,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4299,7 +4894,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="120">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4584,52 +5179,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="88" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="91" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="91" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="94" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="94" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="97" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="97" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="100" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="100" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="103" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="103" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="106" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="106" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="97" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="97" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="109" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="109" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="109" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="109" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="100" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="100" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="112" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="100" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="100" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="115" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="115" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="118" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="121" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="124" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="127" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="130" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="133" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="124" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="136" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="136" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="127" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="139" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="127" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="142" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5165,7 +5808,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5481,7 +6124,7 @@
         <v>347</v>
       </c>
       <c r="L4" t="s">
-        <v>235</v>
+        <v>579</v>
       </c>
       <c r="M4" t="s">
         <v>332</v>
@@ -5517,7 +6160,7 @@
         <v>405</v>
       </c>
       <c r="Z4" t="s">
-        <v>350</v>
+        <v>580</v>
       </c>
       <c r="AA4" t="s">
         <v>169</v>
@@ -5564,7 +6207,7 @@
         <v>348</v>
       </c>
       <c r="L5" t="s">
-        <v>458</v>
+        <v>235</v>
       </c>
       <c r="N5" t="s">
         <v>85</v>
@@ -5631,11 +6274,14 @@
       <c r="I6" t="s">
         <v>444</v>
       </c>
+      <c r="J6" t="s">
+        <v>578</v>
+      </c>
       <c r="K6" t="s">
         <v>345</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>458</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -5697,7 +6343,7 @@
         <v>532</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="N7" t="s">
         <v>312</v>
@@ -5756,7 +6402,7 @@
         <v>325</v>
       </c>
       <c r="L8" t="s">
-        <v>482</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -5812,7 +6458,7 @@
         <v>326</v>
       </c>
       <c r="L9" t="s">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -5856,7 +6502,7 @@
         <v>448</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -5897,7 +6543,7 @@
         <v>319</v>
       </c>
       <c r="L11" t="s">
-        <v>483</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>468</v>
@@ -5935,7 +6581,7 @@
         <v>320</v>
       </c>
       <c r="L12" t="s">
-        <v>386</v>
+        <v>483</v>
       </c>
       <c r="N12" t="s">
         <v>534</v>
@@ -5973,7 +6619,7 @@
         <v>321</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>386</v>
       </c>
       <c r="N13" t="s">
         <v>432</v>
@@ -6008,7 +6654,7 @@
         <v>322</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>469</v>
@@ -6040,7 +6686,7 @@
         <v>261</v>
       </c>
       <c r="L15" t="s">
-        <v>484</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -6072,7 +6718,7 @@
         <v>262</v>
       </c>
       <c r="L16" t="s">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="N16" t="s">
         <v>538</v>
@@ -6104,7 +6750,7 @@
         <v>314</v>
       </c>
       <c r="L17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -6124,13 +6770,13 @@
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>576</v>
+        <v>411</v>
       </c>
       <c r="H18" t="s">
         <v>87</v>
       </c>
       <c r="L18" t="s">
-        <v>459</v>
+        <v>80</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -6147,13 +6793,13 @@
         <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>411</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
       </c>
       <c r="L19" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="Z19" t="s">
         <v>103</v>
@@ -6167,13 +6813,13 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s">
         <v>104</v>
@@ -6187,13 +6833,13 @@
         <v>392</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>253</v>
       </c>
       <c r="H21" t="s">
         <v>294</v>
       </c>
       <c r="L21" t="s">
-        <v>577</v>
+        <v>82</v>
       </c>
       <c r="Z21" t="s">
         <v>105</v>
@@ -6207,13 +6853,13 @@
         <v>408</v>
       </c>
       <c r="F22" t="s">
-        <v>253</v>
+        <v>535</v>
       </c>
       <c r="H22" t="s">
         <v>295</v>
       </c>
       <c r="L22" t="s">
-        <v>467</v>
+        <v>577</v>
       </c>
       <c r="Z22" t="s">
         <v>491</v>
@@ -6227,13 +6873,13 @@
         <v>409</v>
       </c>
       <c r="F23" t="s">
-        <v>535</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>296</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>467</v>
       </c>
       <c r="Z23" t="s">
         <v>106</v>
@@ -6247,13 +6893,13 @@
         <v>353</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>318</v>
       </c>
       <c r="H24" t="s">
         <v>287</v>
       </c>
       <c r="L24" t="s">
-        <v>388</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>539</v>
@@ -6267,13 +6913,13 @@
         <v>393</v>
       </c>
       <c r="F25" t="s">
-        <v>318</v>
+        <v>61</v>
       </c>
       <c r="H25" t="s">
         <v>276</v>
       </c>
       <c r="L25" t="s">
-        <v>521</v>
+        <v>388</v>
       </c>
       <c r="Z25" t="s">
         <v>107</v>
@@ -6287,13 +6933,13 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>445</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>83</v>
+        <v>521</v>
       </c>
       <c r="Z26" t="s">
         <v>108</v>
@@ -6307,13 +6953,13 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>445</v>
+        <v>222</v>
       </c>
       <c r="H27" t="s">
         <v>279</v>
       </c>
       <c r="L27" t="s">
-        <v>430</v>
+        <v>83</v>
       </c>
       <c r="Z27" t="s">
         <v>109</v>
@@ -6327,13 +6973,13 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H28" t="s">
         <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>430</v>
       </c>
       <c r="Z28" t="s">
         <v>110</v>
@@ -6344,13 +6990,13 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>223</v>
+        <v>465</v>
       </c>
       <c r="H29" t="s">
         <v>280</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
         <v>324</v>
@@ -6361,10 +7007,13 @@
         <v>410</v>
       </c>
       <c r="F30" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H30" t="s">
         <v>281</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>111</v>
@@ -6375,7 +7024,7 @@
         <v>224</v>
       </c>
       <c r="F31" t="s">
-        <v>466</v>
+        <v>412</v>
       </c>
       <c r="H31" t="s">
         <v>213</v>
@@ -6386,7 +7035,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>412</v>
+        <v>62</v>
       </c>
       <c r="H32" t="s">
         <v>272</v>
@@ -6397,7 +7046,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H33" t="s">
         <v>282</v>
@@ -6408,7 +7057,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
         <v>506</v>
@@ -6419,7 +7068,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
         <v>257</v>
@@ -6430,7 +7079,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
         <v>327</v>
@@ -6441,7 +7090,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
         <v>304</v>
@@ -6452,7 +7101,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
         <v>258</v>
@@ -6463,7 +7112,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H39" t="s">
         <v>305</v>
@@ -6473,9 +7122,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>69</v>
-      </c>
       <c r="H40" t="s">
         <v>264</v>
       </c>
@@ -6949,186 +7595,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>439</v>
+        <v>581</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>200</v>
+        <v>582</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>201</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>495</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>575</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>145</v>
+        <v>575</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>379</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>146</v>
+        <v>520</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>147</v>
+        <v>379</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>440</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>541</v>
+        <v>440</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>161</v>
+        <v>541</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3581" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4146" uniqueCount="583">
   <si>
     <t>description</t>
   </si>
@@ -1827,7 +1827,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="91" x14ac:knownFonts="1">
+  <fonts count="107" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2409,8 +2409,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="143">
+  <fills count="170">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3218,8 +3319,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="163">
+  <borders count="195">
     <border>
       <left/>
       <right/>
@@ -4887,6 +5141,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4894,7 +5474,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="136">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5227,52 +5807,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="115" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="118" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="118" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="121" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="121" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="124" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="124" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="127" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="127" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="130" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="130" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="133" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="133" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="124" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="124" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="136" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="136" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="136" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="136" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="127" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="127" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="139" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="139" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="127" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="127" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="142" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="142" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="145" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="148" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="151" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="154" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="157" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="160" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="151" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="163" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="163" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="154" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="154" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="169" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
@@ -50,7 +50,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4146" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5278" uniqueCount="584">
   <si>
     <t>description</t>
   </si>
@@ -1820,6 +1820,9 @@
   </si>
   <si>
     <t>saveSelectedValue(var,locator)</t>
+  </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
   </si>
 </sst>
 </file>
@@ -1827,7 +1830,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="107" x14ac:knownFonts="1">
+  <fonts count="139" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2510,8 +2513,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="170">
+  <fills count="224">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3472,8 +3677,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="195">
+  <borders count="259">
     <border>
       <left/>
       <right/>
@@ -5467,6 +5978,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5474,7 +6637,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="168">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5855,52 +7018,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="142" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="145" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="145" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="148" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="174" fillId="148" fontId="93" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="151" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="151" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="154" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="154" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="157" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="157" fontId="97" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="160" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="160" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="151" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="151" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="163" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="163" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="163" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="163" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="154" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="154" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="166" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="154" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="154" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="169" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="169" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="202" fillId="172" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="175" fontId="109" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="178" fontId="110" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="181" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="184" fontId="113" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="187" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="178" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="190" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="190" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="181" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="193" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="181" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="196" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="199" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="202" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="205" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="208" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="211" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="214" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="205" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="217" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="217" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="208" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="220" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="208" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="223" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6436,7 +7695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8146,7 +9405,7 @@
         <v>268</v>
       </c>
       <c r="Z89" t="s">
-        <v>196</v>
+        <v>583</v>
       </c>
     </row>
     <row r="90">
@@ -8154,7 +9413,7 @@
         <v>285</v>
       </c>
       <c r="Z90" t="s">
-        <v>450</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91">
@@ -8162,7 +9421,7 @@
         <v>269</v>
       </c>
       <c r="Z91" t="s">
-        <v>197</v>
+        <v>450</v>
       </c>
     </row>
     <row r="92">
@@ -8170,7 +9429,7 @@
         <v>270</v>
       </c>
       <c r="Z92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93">
@@ -8178,7 +9437,7 @@
         <v>302</v>
       </c>
       <c r="Z93" t="s">
-        <v>543</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94">
@@ -8186,7 +9445,7 @@
         <v>308</v>
       </c>
       <c r="Z94" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="95">
@@ -8194,7 +9453,7 @@
         <v>292</v>
       </c>
       <c r="Z95" t="s">
-        <v>211</v>
+        <v>544</v>
       </c>
     </row>
     <row r="96">
@@ -8202,7 +9461,7 @@
         <v>337</v>
       </c>
       <c r="Z96" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97">
@@ -8210,7 +9469,7 @@
         <v>274</v>
       </c>
       <c r="Z97" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98">
@@ -8218,201 +9477,206 @@
         <v>275</v>
       </c>
       <c r="Z98" t="s">
-        <v>438</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>581</v>
+        <v>438</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>439</v>
+        <v>582</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>200</v>
+        <v>439</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>495</v>
+        <v>204</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>575</v>
+        <v>495</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>519</v>
+        <v>575</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>145</v>
+        <v>519</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>520</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>379</v>
+        <v>520</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>146</v>
+        <v>379</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>440</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>159</v>
+        <v>440</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>541</v>
+        <v>159</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>160</v>
+        <v>541</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="Z138" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5278" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5844" uniqueCount="584">
   <si>
     <t>description</t>
   </si>
@@ -1830,7 +1830,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="139" x14ac:knownFonts="1">
+  <fonts count="155" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2715,8 +2715,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="224">
+  <fills count="251">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3983,8 +4084,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="259">
+  <borders count="291">
     <border>
       <left/>
       <right/>
@@ -6630,6 +6884,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6637,7 +7217,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="184">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7114,52 +7694,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="196" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="199" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="199" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="202" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="202" fontId="125" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="205" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="205" fontId="126" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="208" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="208" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="211" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="211" fontId="129" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="214" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="214" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="205" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="205" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="217" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="217" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="217" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="217" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="208" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="208" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="220" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="220" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="208" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="208" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="223" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="223" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="226" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="229" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="232" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="235" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="238" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="241" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="232" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="244" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="244" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="235" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="247" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="235" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="250" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
@@ -28,7 +28,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -41,7 +41,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -50,9 +50,9 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
     <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5844" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6420" uniqueCount="594">
   <si>
     <t>description</t>
   </si>
@@ -1823,6 +1823,36 @@
   </si>
   <si>
     <t>saveBrowserVersion(var)</t>
+  </si>
+  <si>
+    <t>saveTotalDataCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
+  </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
   </si>
 </sst>
 </file>
@@ -1830,7 +1860,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="155" x14ac:knownFonts="1">
+  <fonts count="171" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2816,8 +2846,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="251">
+  <fills count="278">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4237,8 +4368,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="291">
+  <borders count="323">
     <border>
       <left/>
       <right/>
@@ -7210,6 +7494,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7217,7 +7827,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="200">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7742,52 +8352,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="223" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="226" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="226" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="229" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="229" fontId="141" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="232" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="232" fontId="142" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="235" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="235" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="238" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="238" fontId="145" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="241" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="241" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="232" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="286" fillId="232" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="244" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="244" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="244" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="244" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="235" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="235" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="247" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="247" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="235" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="235" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="250" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="250" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="253" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="256" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="259" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="262" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="265" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="268" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="259" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="271" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="271" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="262" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="274" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="262" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="277" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8323,7 +8981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF138"/>
+  <dimension ref="A1:AF144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8755,7 +9413,7 @@
         <v>170</v>
       </c>
       <c r="AB5" t="s">
-        <v>175</v>
+        <v>592</v>
       </c>
       <c r="AC5" t="s">
         <v>181</v>
@@ -8826,7 +9484,7 @@
         <v>441</v>
       </c>
       <c r="AB6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC6" t="s">
         <v>182</v>
@@ -8888,7 +9546,7 @@
         <v>442</v>
       </c>
       <c r="AB7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC7" t="s">
         <v>183</v>
@@ -8944,7 +9602,7 @@
         <v>171</v>
       </c>
       <c r="AB8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC8" t="s">
         <v>184</v>
@@ -8996,6 +9654,9 @@
       <c r="Z9" t="s">
         <v>205</v>
       </c>
+      <c r="AB9" t="s">
+        <v>178</v>
+      </c>
       <c r="AC9" t="s">
         <v>185</v>
       </c>
@@ -9014,7 +9675,7 @@
         <v>303</v>
       </c>
       <c r="I10" t="s">
-        <v>448</v>
+        <v>584</v>
       </c>
       <c r="L10" t="s">
         <v>78</v>
@@ -9036,6 +9697,9 @@
       </c>
       <c r="Z10" t="s">
         <v>254</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>593</v>
       </c>
       <c r="AC10" t="s">
         <v>186</v>
@@ -9055,7 +9719,7 @@
         <v>349</v>
       </c>
       <c r="I11" t="s">
-        <v>319</v>
+        <v>448</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -9093,7 +9757,7 @@
         <v>271</v>
       </c>
       <c r="I12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L12" t="s">
         <v>483</v>
@@ -9131,7 +9795,7 @@
         <v>260</v>
       </c>
       <c r="I13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L13" t="s">
         <v>386</v>
@@ -9143,7 +9807,7 @@
         <v>92</v>
       </c>
       <c r="S13" t="s">
-        <v>251</v>
+        <v>585</v>
       </c>
       <c r="Z13" t="s">
         <v>323</v>
@@ -9166,7 +9830,7 @@
         <v>313</v>
       </c>
       <c r="I14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -9178,7 +9842,7 @@
         <v>93</v>
       </c>
       <c r="S14" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Z14" t="s">
         <v>100</v>
@@ -9200,6 +9864,9 @@
       <c r="H15" t="s">
         <v>261</v>
       </c>
+      <c r="I15" t="s">
+        <v>322</v>
+      </c>
       <c r="L15" t="s">
         <v>41</v>
       </c>
@@ -9210,10 +9877,10 @@
         <v>488</v>
       </c>
       <c r="S15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Z15" t="s">
-        <v>101</v>
+        <v>586</v>
       </c>
       <c r="AC15" t="s">
         <v>190</v>
@@ -9242,10 +9909,10 @@
         <v>489</v>
       </c>
       <c r="S16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Z16" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="AC16" t="s">
         <v>191</v>
@@ -9270,8 +9937,11 @@
       <c r="N17" t="s">
         <v>39</v>
       </c>
+      <c r="S17" t="s">
+        <v>249</v>
+      </c>
       <c r="Z17" t="s">
-        <v>490</v>
+        <v>73</v>
       </c>
       <c r="AC17" t="s">
         <v>463</v>
@@ -9297,7 +9967,7 @@
         <v>42</v>
       </c>
       <c r="Z18" t="s">
-        <v>102</v>
+        <v>490</v>
       </c>
       <c r="AE18" t="s">
         <v>472</v>
@@ -9317,7 +9987,7 @@
         <v>459</v>
       </c>
       <c r="Z19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AE19" t="s">
         <v>501</v>
@@ -9337,7 +10007,7 @@
         <v>81</v>
       </c>
       <c r="Z20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AE20" t="s">
         <v>502</v>
@@ -9357,7 +10027,7 @@
         <v>82</v>
       </c>
       <c r="Z21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AE21" t="s">
         <v>503</v>
@@ -9377,7 +10047,7 @@
         <v>577</v>
       </c>
       <c r="Z22" t="s">
-        <v>491</v>
+        <v>105</v>
       </c>
       <c r="AE22" t="s">
         <v>232</v>
@@ -9397,7 +10067,7 @@
         <v>467</v>
       </c>
       <c r="Z23" t="s">
-        <v>106</v>
+        <v>491</v>
       </c>
       <c r="AE23" t="s">
         <v>529</v>
@@ -9417,7 +10087,7 @@
         <v>43</v>
       </c>
       <c r="Z24" t="s">
-        <v>539</v>
+        <v>106</v>
       </c>
       <c r="AE24" t="s">
         <v>530</v>
@@ -9437,7 +10107,7 @@
         <v>388</v>
       </c>
       <c r="Z25" t="s">
-        <v>107</v>
+        <v>539</v>
       </c>
       <c r="AE25" t="s">
         <v>531</v>
@@ -9457,7 +10127,7 @@
         <v>521</v>
       </c>
       <c r="Z26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE26" t="s">
         <v>233</v>
@@ -9477,7 +10147,7 @@
         <v>83</v>
       </c>
       <c r="Z27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE27" t="s">
         <v>234</v>
@@ -9497,7 +10167,7 @@
         <v>430</v>
       </c>
       <c r="Z28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
@@ -9514,7 +10184,7 @@
         <v>44</v>
       </c>
       <c r="Z29" t="s">
-        <v>324</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -9531,7 +10201,7 @@
         <v>45</v>
       </c>
       <c r="Z30" t="s">
-        <v>111</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31">
@@ -9545,7 +10215,7 @@
         <v>213</v>
       </c>
       <c r="Z31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32">
@@ -9556,7 +10226,7 @@
         <v>272</v>
       </c>
       <c r="Z32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
@@ -9567,7 +10237,7 @@
         <v>282</v>
       </c>
       <c r="Z33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -9578,7 +10248,7 @@
         <v>506</v>
       </c>
       <c r="Z34" t="s">
-        <v>540</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
@@ -9589,7 +10259,7 @@
         <v>257</v>
       </c>
       <c r="Z35" t="s">
-        <v>115</v>
+        <v>540</v>
       </c>
     </row>
     <row r="36">
@@ -9600,7 +10270,7 @@
         <v>327</v>
       </c>
       <c r="Z36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37">
@@ -9611,7 +10281,7 @@
         <v>304</v>
       </c>
       <c r="Z37" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38">
@@ -9622,7 +10292,7 @@
         <v>258</v>
       </c>
       <c r="Z38" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39">
@@ -9633,7 +10303,7 @@
         <v>305</v>
       </c>
       <c r="Z39" t="s">
-        <v>335</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40">
@@ -9641,7 +10311,7 @@
         <v>264</v>
       </c>
       <c r="Z40" t="s">
-        <v>434</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41">
@@ -9649,7 +10319,7 @@
         <v>76</v>
       </c>
       <c r="Z41" t="s">
-        <v>574</v>
+        <v>434</v>
       </c>
     </row>
     <row r="42">
@@ -9657,7 +10327,7 @@
         <v>208</v>
       </c>
       <c r="Z42" t="s">
-        <v>389</v>
+        <v>574</v>
       </c>
     </row>
     <row r="43">
@@ -9665,7 +10335,7 @@
         <v>536</v>
       </c>
       <c r="Z43" t="s">
-        <v>118</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44">
@@ -9673,7 +10343,7 @@
         <v>286</v>
       </c>
       <c r="Z44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45">
@@ -9681,7 +10351,7 @@
         <v>297</v>
       </c>
       <c r="Z45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
@@ -9689,7 +10359,7 @@
         <v>298</v>
       </c>
       <c r="Z46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
@@ -9697,7 +10367,7 @@
         <v>340</v>
       </c>
       <c r="Z47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48">
@@ -9705,7 +10375,7 @@
         <v>339</v>
       </c>
       <c r="Z48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
@@ -9713,7 +10383,7 @@
         <v>207</v>
       </c>
       <c r="Z49" t="s">
-        <v>435</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50">
@@ -9721,7 +10391,7 @@
         <v>317</v>
       </c>
       <c r="Z50" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51">
@@ -9729,7 +10399,7 @@
         <v>336</v>
       </c>
       <c r="Z51" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52">
@@ -9737,7 +10407,7 @@
         <v>364</v>
       </c>
       <c r="Z52" t="s">
-        <v>533</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53">
@@ -9745,7 +10415,7 @@
         <v>299</v>
       </c>
       <c r="Z53" t="s">
-        <v>124</v>
+        <v>533</v>
       </c>
     </row>
     <row r="54">
@@ -9753,7 +10423,7 @@
         <v>352</v>
       </c>
       <c r="Z54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55">
@@ -9761,7 +10431,7 @@
         <v>328</v>
       </c>
       <c r="Z55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56">
@@ -9769,7 +10439,7 @@
         <v>265</v>
       </c>
       <c r="Z56" t="s">
-        <v>492</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
@@ -9777,7 +10447,7 @@
         <v>289</v>
       </c>
       <c r="Z57" t="s">
-        <v>460</v>
+        <v>492</v>
       </c>
     </row>
     <row r="58">
@@ -9785,7 +10455,7 @@
         <v>290</v>
       </c>
       <c r="Z58" t="s">
-        <v>127</v>
+        <v>460</v>
       </c>
     </row>
     <row r="59">
@@ -9793,7 +10463,7 @@
         <v>537</v>
       </c>
       <c r="Z59" t="s">
-        <v>343</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60">
@@ -9801,7 +10471,7 @@
         <v>291</v>
       </c>
       <c r="Z60" t="s">
-        <v>461</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61">
@@ -9809,7 +10479,7 @@
         <v>300</v>
       </c>
       <c r="Z61" t="s">
-        <v>128</v>
+        <v>461</v>
       </c>
     </row>
     <row r="62">
@@ -9817,7 +10487,7 @@
         <v>309</v>
       </c>
       <c r="Z62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63">
@@ -9825,7 +10495,7 @@
         <v>334</v>
       </c>
       <c r="Z63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64">
@@ -9833,7 +10503,7 @@
         <v>306</v>
       </c>
       <c r="Z64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
@@ -9841,7 +10511,7 @@
         <v>307</v>
       </c>
       <c r="Z65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66">
@@ -9849,7 +10519,7 @@
         <v>365</v>
       </c>
       <c r="Z66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67">
@@ -9857,7 +10527,7 @@
         <v>366</v>
       </c>
       <c r="Z67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68">
@@ -9865,7 +10535,7 @@
         <v>342</v>
       </c>
       <c r="Z68" t="s">
-        <v>436</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69">
@@ -9873,7 +10543,7 @@
         <v>310</v>
       </c>
       <c r="Z69" t="s">
-        <v>470</v>
+        <v>436</v>
       </c>
     </row>
     <row r="70">
@@ -9881,7 +10551,7 @@
         <v>266</v>
       </c>
       <c r="Z70" t="s">
-        <v>210</v>
+        <v>470</v>
       </c>
     </row>
     <row r="71">
@@ -9889,7 +10559,7 @@
         <v>522</v>
       </c>
       <c r="Z71" t="s">
-        <v>385</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72">
@@ -9897,7 +10567,7 @@
         <v>311</v>
       </c>
       <c r="Z72" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
     </row>
     <row r="73">
@@ -9905,7 +10575,7 @@
         <v>406</v>
       </c>
       <c r="Z73" t="s">
-        <v>135</v>
+        <v>437</v>
       </c>
     </row>
     <row r="74">
@@ -9913,7 +10583,7 @@
         <v>301</v>
       </c>
       <c r="Z74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75">
@@ -9921,7 +10591,7 @@
         <v>407</v>
       </c>
       <c r="Z75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76">
@@ -9929,7 +10599,7 @@
         <v>259</v>
       </c>
       <c r="Z76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77">
@@ -9937,7 +10607,7 @@
         <v>507</v>
       </c>
       <c r="Z77" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78">
@@ -9945,7 +10615,7 @@
         <v>341</v>
       </c>
       <c r="Z78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79">
@@ -9953,7 +10623,7 @@
         <v>277</v>
       </c>
       <c r="Z79" t="s">
-        <v>449</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80">
@@ -9961,7 +10631,7 @@
         <v>283</v>
       </c>
       <c r="Z80" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="81">
@@ -9969,7 +10639,7 @@
         <v>288</v>
       </c>
       <c r="Z81" t="s">
-        <v>139</v>
+        <v>462</v>
       </c>
     </row>
     <row r="82">
@@ -9977,7 +10647,7 @@
         <v>425</v>
       </c>
       <c r="Z82" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83">
@@ -9985,7 +10655,7 @@
         <v>329</v>
       </c>
       <c r="Z83" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84">
@@ -9993,7 +10663,7 @@
         <v>267</v>
       </c>
       <c r="Z84" t="s">
-        <v>493</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85">
@@ -10001,7 +10671,7 @@
         <v>278</v>
       </c>
       <c r="Z85" t="s">
-        <v>142</v>
+        <v>493</v>
       </c>
     </row>
     <row r="86">
@@ -10009,7 +10679,7 @@
         <v>284</v>
       </c>
       <c r="Z86" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87">
@@ -10017,7 +10687,7 @@
         <v>273</v>
       </c>
       <c r="Z87" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88">
@@ -10025,7 +10695,7 @@
         <v>525</v>
       </c>
       <c r="Z88" t="s">
-        <v>494</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89">
@@ -10033,7 +10703,7 @@
         <v>268</v>
       </c>
       <c r="Z89" t="s">
-        <v>583</v>
+        <v>494</v>
       </c>
     </row>
     <row r="90">
@@ -10041,7 +10711,7 @@
         <v>285</v>
       </c>
       <c r="Z90" t="s">
-        <v>196</v>
+        <v>583</v>
       </c>
     </row>
     <row r="91">
@@ -10049,7 +10719,7 @@
         <v>269</v>
       </c>
       <c r="Z91" t="s">
-        <v>450</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92">
@@ -10057,7 +10727,7 @@
         <v>270</v>
       </c>
       <c r="Z92" t="s">
-        <v>197</v>
+        <v>450</v>
       </c>
     </row>
     <row r="93">
@@ -10065,7 +10735,7 @@
         <v>302</v>
       </c>
       <c r="Z93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94">
@@ -10073,7 +10743,7 @@
         <v>308</v>
       </c>
       <c r="Z94" t="s">
-        <v>543</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95">
@@ -10081,7 +10751,7 @@
         <v>292</v>
       </c>
       <c r="Z95" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="96">
@@ -10089,7 +10759,7 @@
         <v>337</v>
       </c>
       <c r="Z96" t="s">
-        <v>211</v>
+        <v>544</v>
       </c>
     </row>
     <row r="97">
@@ -10097,7 +10767,7 @@
         <v>274</v>
       </c>
       <c r="Z97" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
     </row>
     <row r="98">
@@ -10105,206 +10775,236 @@
         <v>275</v>
       </c>
       <c r="Z98" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>438</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>581</v>
+        <v>438</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>439</v>
+        <v>582</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>200</v>
+        <v>439</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>495</v>
+        <v>587</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>575</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>145</v>
+        <v>575</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>379</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>146</v>
+        <v>520</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>147</v>
+        <v>379</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>150</v>
+        <v>588</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>153</v>
+        <v>589</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>440</v>
+        <v>155</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>159</v>
+        <v>590</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>541</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>162</v>
+        <v>440</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>163</v>
+        <v>541</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138">
       <c r="Z138" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="Z139" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="Z140" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="Z141" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="Z142" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="Z143" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="Z144" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
@@ -28,7 +28,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6420" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6997" uniqueCount="596">
   <si>
     <t>description</t>
   </si>
@@ -1853,6 +1853,12 @@
   </si>
   <si>
     <t>saveAllAsText(var,exclude)</t>
+  </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1860,7 +1866,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="171" x14ac:knownFonts="1">
+  <fonts count="187" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2947,8 +2953,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="278">
+  <fills count="305">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4521,8 +4628,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="323">
+  <borders count="355">
     <border>
       <left/>
       <right/>
@@ -7820,6 +8080,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7827,7 +8413,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="216">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8400,52 +8986,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="250" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="253" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="253" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="256" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="256" fontId="157" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="259" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="259" fontId="158" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="262" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="262" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="265" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="265" fontId="161" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="268" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="314" fillId="268" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="259" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="259" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="271" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="271" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="271" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="271" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="262" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="262" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="274" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="274" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="262" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="262" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="277" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="277" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="280" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="283" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="286" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="289" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="292" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="295" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="286" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="298" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="298" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="289" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="301" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="289" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="304" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9675,7 +10309,7 @@
         <v>303</v>
       </c>
       <c r="I10" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="L10" t="s">
         <v>78</v>
@@ -9719,7 +10353,7 @@
         <v>349</v>
       </c>
       <c r="I11" t="s">
-        <v>448</v>
+        <v>595</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -9757,7 +10391,7 @@
         <v>271</v>
       </c>
       <c r="I12" t="s">
-        <v>319</v>
+        <v>448</v>
       </c>
       <c r="L12" t="s">
         <v>483</v>
@@ -9795,7 +10429,7 @@
         <v>260</v>
       </c>
       <c r="I13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L13" t="s">
         <v>386</v>
@@ -9830,7 +10464,7 @@
         <v>313</v>
       </c>
       <c r="I14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -9865,7 +10499,7 @@
         <v>261</v>
       </c>
       <c r="I15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L15" t="s">
         <v>41</v>
@@ -9898,6 +10532,9 @@
       </c>
       <c r="H16" t="s">
         <v>262</v>
+      </c>
+      <c r="I16" t="s">
+        <v>322</v>
       </c>
       <c r="L16" t="s">
         <v>484</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
@@ -30,7 +30,7 @@
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -48,15 +48,16 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
+    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6997" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8167" uniqueCount="605">
   <si>
     <t>description</t>
   </si>
@@ -1859,6 +1860,33 @@
   </si>
   <si>
     <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>ocr(source,saveVar)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveText(profile,var)</t>
+  </si>
+  <si>
+    <t>typeKeys(profile,keystrokes)</t>
+  </si>
+  <si>
+    <t>updateScreenFields(profile)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1866,7 +1894,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="187" x14ac:knownFonts="1">
+  <fonts count="219" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3054,8 +3082,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="305">
+  <fills count="359">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4781,8 +5011,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="355">
+  <borders count="419">
     <border>
       <left/>
       <right/>
@@ -8406,6 +8942,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8413,7 +9601,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="248">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9034,52 +10222,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="277" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="280" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="280" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="283" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="283" fontId="173" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="286" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="286" fontId="174" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="289" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="342" fillId="289" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="292" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="292" fontId="177" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="295" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="295" fontId="179" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="286" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="286" fontId="180" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="298" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="298" fontId="181" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="298" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="298" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="289" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="289" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="301" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="301" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="289" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="289" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="304" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="304" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="307" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="310" fontId="189" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="370" fillId="313" fontId="190" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="316" fontId="191" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="319" fontId="193" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="322" fontId="195" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="313" fontId="196" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="325" fontId="197" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="325" fontId="198" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="316" fontId="199" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="328" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="316" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="331" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="334" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="337" borderId="398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="340" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="343" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="346" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="349" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="340" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="352" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="352" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="343" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="355" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="343" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="358" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9615,7 +10899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF144"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9703,21 +10987,24 @@
         <v>393</v>
       </c>
       <c r="Z1" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA1" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>410</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>224</v>
       </c>
     </row>
@@ -9753,7 +11040,7 @@
         <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>457</v>
+        <v>603</v>
       </c>
       <c r="L2" t="s">
         <v>312</v>
@@ -9798,21 +11085,24 @@
         <v>403</v>
       </c>
       <c r="Z2" t="s">
+        <v>598</v>
+      </c>
+      <c r="AA2" t="s">
         <v>94</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>167</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>172</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>179</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>428</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>496</v>
       </c>
     </row>
@@ -9884,21 +11174,24 @@
         <v>404</v>
       </c>
       <c r="Z3" t="s">
+        <v>599</v>
+      </c>
+      <c r="AA3" t="s">
         <v>95</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>168</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>173</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>360</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>180</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -9967,21 +11260,24 @@
         <v>405</v>
       </c>
       <c r="Z4" t="s">
+        <v>600</v>
+      </c>
+      <c r="AA4" t="s">
         <v>580</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>169</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>174</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>180</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>420</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>226</v>
       </c>
     </row>
@@ -10041,21 +11337,24 @@
         <v>355</v>
       </c>
       <c r="Z5" t="s">
+        <v>601</v>
+      </c>
+      <c r="AA5" t="s">
         <v>573</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>170</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>592</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>181</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>421</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>227</v>
       </c>
     </row>
@@ -10085,7 +11384,7 @@
         <v>578</v>
       </c>
       <c r="K6" t="s">
-        <v>345</v>
+        <v>604</v>
       </c>
       <c r="L6" t="s">
         <v>458</v>
@@ -10112,21 +11411,24 @@
         <v>357</v>
       </c>
       <c r="Z6" t="s">
+        <v>602</v>
+      </c>
+      <c r="AA6" t="s">
         <v>96</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>441</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>175</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>182</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>422</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>228</v>
       </c>
     </row>
@@ -10147,7 +11449,7 @@
         <v>443</v>
       </c>
       <c r="K7" t="s">
-        <v>532</v>
+        <v>345</v>
       </c>
       <c r="L7" t="s">
         <v>70</v>
@@ -10173,22 +11475,22 @@
       <c r="X7" t="s">
         <v>356</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>97</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>442</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>176</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>183</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>423</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10208,6 +11510,9 @@
       <c r="I8" t="s">
         <v>325</v>
       </c>
+      <c r="K8" t="s">
+        <v>532</v>
+      </c>
       <c r="L8" t="s">
         <v>16</v>
       </c>
@@ -10229,22 +11534,22 @@
       <c r="X8" t="s">
         <v>358</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>98</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>171</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>177</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>184</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>424</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>527</v>
       </c>
     </row>
@@ -10285,16 +11590,16 @@
       <c r="X9" t="s">
         <v>359</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>205</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>178</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>185</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>528</v>
       </c>
     </row>
@@ -10329,16 +11634,16 @@
       <c r="U10" t="s">
         <v>402</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>254</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>593</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>186</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>229</v>
       </c>
     </row>
@@ -10370,13 +11675,13 @@
       <c r="S11" t="s">
         <v>245</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>255</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>256</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>230</v>
       </c>
     </row>
@@ -10408,13 +11713,13 @@
       <c r="S12" t="s">
         <v>246</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>99</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>187</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>231</v>
       </c>
     </row>
@@ -10443,13 +11748,13 @@
       <c r="S13" t="s">
         <v>585</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>323</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>188</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>471</v>
       </c>
     </row>
@@ -10478,13 +11783,13 @@
       <c r="S14" t="s">
         <v>251</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>100</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>189</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>497</v>
       </c>
     </row>
@@ -10513,13 +11818,13 @@
       <c r="S15" t="s">
         <v>247</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>586</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>190</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>498</v>
       </c>
     </row>
@@ -10548,13 +11853,13 @@
       <c r="S16" t="s">
         <v>248</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>101</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>191</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>499</v>
       </c>
     </row>
@@ -10577,13 +11882,13 @@
       <c r="S17" t="s">
         <v>249</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>73</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>463</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>500</v>
       </c>
     </row>
@@ -10603,10 +11908,10 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>490</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>472</v>
       </c>
     </row>
@@ -10623,10 +11928,10 @@
       <c r="L19" t="s">
         <v>459</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>102</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>501</v>
       </c>
     </row>
@@ -10643,10 +11948,10 @@
       <c r="L20" t="s">
         <v>81</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>103</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>502</v>
       </c>
     </row>
@@ -10663,10 +11968,10 @@
       <c r="L21" t="s">
         <v>82</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>104</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>503</v>
       </c>
     </row>
@@ -10683,10 +11988,10 @@
       <c r="L22" t="s">
         <v>577</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>105</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>232</v>
       </c>
     </row>
@@ -10703,10 +12008,10 @@
       <c r="L23" t="s">
         <v>467</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>491</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10723,10 +12028,10 @@
       <c r="L24" t="s">
         <v>43</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>106</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10743,16 +12048,16 @@
       <c r="L25" t="s">
         <v>388</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>539</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>596</v>
       </c>
       <c r="F26" t="s">
         <v>445</v>
@@ -10763,16 +12068,16 @@
       <c r="L26" t="s">
         <v>521</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>107</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
         <v>222</v>
@@ -10783,16 +12088,16 @@
       <c r="L27" t="s">
         <v>83</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>108</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
         <v>223</v>
@@ -10803,13 +12108,13 @@
       <c r="L28" t="s">
         <v>430</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
         <v>465</v>
@@ -10820,13 +12125,13 @@
       <c r="L29" t="s">
         <v>44</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>410</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
         <v>466</v>
@@ -10837,13 +12142,13 @@
       <c r="L30" t="s">
         <v>45</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>224</v>
+        <v>410</v>
       </c>
       <c r="F31" t="s">
         <v>412</v>
@@ -10851,18 +12156,21 @@
       <c r="H31" t="s">
         <v>213</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="s">
+        <v>224</v>
+      </c>
       <c r="F32" t="s">
         <v>62</v>
       </c>
       <c r="H32" t="s">
         <v>272</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>112</v>
       </c>
     </row>
@@ -10873,7 +12181,7 @@
       <c r="H33" t="s">
         <v>282</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>113</v>
       </c>
     </row>
@@ -10884,7 +12192,7 @@
       <c r="H34" t="s">
         <v>506</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>114</v>
       </c>
     </row>
@@ -10895,7 +12203,7 @@
       <c r="H35" t="s">
         <v>257</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>540</v>
       </c>
     </row>
@@ -10906,7 +12214,7 @@
       <c r="H36" t="s">
         <v>327</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>115</v>
       </c>
     </row>
@@ -10917,7 +12225,7 @@
       <c r="H37" t="s">
         <v>304</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>116</v>
       </c>
     </row>
@@ -10928,7 +12236,7 @@
       <c r="H38" t="s">
         <v>258</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>206</v>
       </c>
     </row>
@@ -10939,7 +12247,7 @@
       <c r="H39" t="s">
         <v>305</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AA39" t="s">
         <v>117</v>
       </c>
     </row>
@@ -10947,7 +12255,7 @@
       <c r="H40" t="s">
         <v>264</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>335</v>
       </c>
     </row>
@@ -10955,7 +12263,7 @@
       <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>434</v>
       </c>
     </row>
@@ -10963,7 +12271,7 @@
       <c r="H42" t="s">
         <v>208</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AA42" t="s">
         <v>574</v>
       </c>
     </row>
@@ -10971,7 +12279,7 @@
       <c r="H43" t="s">
         <v>536</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AA43" t="s">
         <v>389</v>
       </c>
     </row>
@@ -10979,7 +12287,7 @@
       <c r="H44" t="s">
         <v>286</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AA44" t="s">
         <v>118</v>
       </c>
     </row>
@@ -10987,7 +12295,7 @@
       <c r="H45" t="s">
         <v>297</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AA45" t="s">
         <v>119</v>
       </c>
     </row>
@@ -10995,7 +12303,7 @@
       <c r="H46" t="s">
         <v>298</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AA46" t="s">
         <v>120</v>
       </c>
     </row>
@@ -11003,7 +12311,7 @@
       <c r="H47" t="s">
         <v>340</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>121</v>
       </c>
     </row>
@@ -11011,7 +12319,7 @@
       <c r="H48" t="s">
         <v>339</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AA48" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11019,7 +12327,7 @@
       <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AA49" t="s">
         <v>123</v>
       </c>
     </row>
@@ -11027,7 +12335,7 @@
       <c r="H50" t="s">
         <v>317</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AA50" t="s">
         <v>435</v>
       </c>
     </row>
@@ -11035,7 +12343,7 @@
       <c r="H51" t="s">
         <v>336</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AA51" t="s">
         <v>209</v>
       </c>
     </row>
@@ -11043,7 +12351,7 @@
       <c r="H52" t="s">
         <v>364</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="AA52" t="s">
         <v>75</v>
       </c>
     </row>
@@ -11051,7 +12359,7 @@
       <c r="H53" t="s">
         <v>299</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="AA53" t="s">
         <v>533</v>
       </c>
     </row>
@@ -11059,7 +12367,7 @@
       <c r="H54" t="s">
         <v>352</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AA54" t="s">
         <v>124</v>
       </c>
     </row>
@@ -11067,7 +12375,7 @@
       <c r="H55" t="s">
         <v>328</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="AA55" t="s">
         <v>125</v>
       </c>
     </row>
@@ -11075,7 +12383,7 @@
       <c r="H56" t="s">
         <v>265</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AA56" t="s">
         <v>126</v>
       </c>
     </row>
@@ -11083,7 +12391,7 @@
       <c r="H57" t="s">
         <v>289</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AA57" t="s">
         <v>492</v>
       </c>
     </row>
@@ -11091,7 +12399,7 @@
       <c r="H58" t="s">
         <v>290</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="AA58" t="s">
         <v>460</v>
       </c>
     </row>
@@ -11099,7 +12407,7 @@
       <c r="H59" t="s">
         <v>537</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="AA59" t="s">
         <v>127</v>
       </c>
     </row>
@@ -11107,7 +12415,7 @@
       <c r="H60" t="s">
         <v>291</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AA60" t="s">
         <v>343</v>
       </c>
     </row>
@@ -11115,7 +12423,7 @@
       <c r="H61" t="s">
         <v>300</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="AA61" t="s">
         <v>461</v>
       </c>
     </row>
@@ -11123,7 +12431,7 @@
       <c r="H62" t="s">
         <v>309</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="AA62" t="s">
         <v>128</v>
       </c>
     </row>
@@ -11131,7 +12439,7 @@
       <c r="H63" t="s">
         <v>334</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="AA63" t="s">
         <v>129</v>
       </c>
     </row>
@@ -11139,7 +12447,7 @@
       <c r="H64" t="s">
         <v>306</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="AA64" t="s">
         <v>130</v>
       </c>
     </row>
@@ -11147,7 +12455,7 @@
       <c r="H65" t="s">
         <v>307</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="AA65" t="s">
         <v>131</v>
       </c>
     </row>
@@ -11155,7 +12463,7 @@
       <c r="H66" t="s">
         <v>365</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="AA66" t="s">
         <v>132</v>
       </c>
     </row>
@@ -11163,7 +12471,7 @@
       <c r="H67" t="s">
         <v>366</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="AA67" t="s">
         <v>133</v>
       </c>
     </row>
@@ -11171,7 +12479,7 @@
       <c r="H68" t="s">
         <v>342</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AA68" t="s">
         <v>134</v>
       </c>
     </row>
@@ -11179,7 +12487,7 @@
       <c r="H69" t="s">
         <v>310</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="AA69" t="s">
         <v>436</v>
       </c>
     </row>
@@ -11187,7 +12495,7 @@
       <c r="H70" t="s">
         <v>266</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="AA70" t="s">
         <v>470</v>
       </c>
     </row>
@@ -11195,7 +12503,7 @@
       <c r="H71" t="s">
         <v>522</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="AA71" t="s">
         <v>210</v>
       </c>
     </row>
@@ -11203,7 +12511,7 @@
       <c r="H72" t="s">
         <v>311</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="AA72" t="s">
         <v>385</v>
       </c>
     </row>
@@ -11211,7 +12519,7 @@
       <c r="H73" t="s">
         <v>406</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="AA73" t="s">
         <v>437</v>
       </c>
     </row>
@@ -11219,7 +12527,7 @@
       <c r="H74" t="s">
         <v>301</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="AA74" t="s">
         <v>135</v>
       </c>
     </row>
@@ -11227,7 +12535,7 @@
       <c r="H75" t="s">
         <v>407</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="AA75" t="s">
         <v>136</v>
       </c>
     </row>
@@ -11235,7 +12543,7 @@
       <c r="H76" t="s">
         <v>259</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="AA76" t="s">
         <v>137</v>
       </c>
     </row>
@@ -11243,7 +12551,7 @@
       <c r="H77" t="s">
         <v>507</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="AA77" t="s">
         <v>138</v>
       </c>
     </row>
@@ -11251,7 +12559,7 @@
       <c r="H78" t="s">
         <v>341</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="AA78" t="s">
         <v>193</v>
       </c>
     </row>
@@ -11259,7 +12567,7 @@
       <c r="H79" t="s">
         <v>277</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="AA79" t="s">
         <v>194</v>
       </c>
     </row>
@@ -11267,7 +12575,7 @@
       <c r="H80" t="s">
         <v>283</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="AA80" t="s">
         <v>449</v>
       </c>
     </row>
@@ -11275,7 +12583,7 @@
       <c r="H81" t="s">
         <v>288</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="AA81" t="s">
         <v>462</v>
       </c>
     </row>
@@ -11283,7 +12591,7 @@
       <c r="H82" t="s">
         <v>425</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="AA82" t="s">
         <v>139</v>
       </c>
     </row>
@@ -11291,7 +12599,7 @@
       <c r="H83" t="s">
         <v>329</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="AA83" t="s">
         <v>140</v>
       </c>
     </row>
@@ -11299,7 +12607,7 @@
       <c r="H84" t="s">
         <v>267</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="AA84" t="s">
         <v>141</v>
       </c>
     </row>
@@ -11307,7 +12615,7 @@
       <c r="H85" t="s">
         <v>278</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="AA85" t="s">
         <v>493</v>
       </c>
     </row>
@@ -11315,7 +12623,7 @@
       <c r="H86" t="s">
         <v>284</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="AA86" t="s">
         <v>142</v>
       </c>
     </row>
@@ -11323,7 +12631,7 @@
       <c r="H87" t="s">
         <v>273</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="AA87" t="s">
         <v>143</v>
       </c>
     </row>
@@ -11331,7 +12639,7 @@
       <c r="H88" t="s">
         <v>525</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="AA88" t="s">
         <v>195</v>
       </c>
     </row>
@@ -11339,7 +12647,7 @@
       <c r="H89" t="s">
         <v>268</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="AA89" t="s">
         <v>494</v>
       </c>
     </row>
@@ -11347,7 +12655,7 @@
       <c r="H90" t="s">
         <v>285</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="AA90" t="s">
         <v>583</v>
       </c>
     </row>
@@ -11355,7 +12663,7 @@
       <c r="H91" t="s">
         <v>269</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="AA91" t="s">
         <v>196</v>
       </c>
     </row>
@@ -11363,7 +12671,7 @@
       <c r="H92" t="s">
         <v>270</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="AA92" t="s">
         <v>450</v>
       </c>
     </row>
@@ -11371,7 +12679,7 @@
       <c r="H93" t="s">
         <v>302</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="AA93" t="s">
         <v>197</v>
       </c>
     </row>
@@ -11379,7 +12687,7 @@
       <c r="H94" t="s">
         <v>308</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="AA94" t="s">
         <v>198</v>
       </c>
     </row>
@@ -11387,7 +12695,7 @@
       <c r="H95" t="s">
         <v>292</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="AA95" t="s">
         <v>543</v>
       </c>
     </row>
@@ -11395,7 +12703,7 @@
       <c r="H96" t="s">
         <v>337</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="AA96" t="s">
         <v>544</v>
       </c>
     </row>
@@ -11403,7 +12711,7 @@
       <c r="H97" t="s">
         <v>274</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="AA97" t="s">
         <v>211</v>
       </c>
     </row>
@@ -11411,237 +12719,237 @@
       <c r="H98" t="s">
         <v>275</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="AA98" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="AA99" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="AA100" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="AA101" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="AA102" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="AA103" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="AA104" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="AA105" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="AA106" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="AA107" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="AA108" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="AA109" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="AA110" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="AA111" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="AA112" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="AA113" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="AA114" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="AA115" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="AA116" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="AA117" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="AA118" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="AA119" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="AA120" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="AA121" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="AA122" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="AA123" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="AA124" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="AA125" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="AA126" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="AA127" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="AA128" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="AA129" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="130">
-      <c r="Z130" t="s">
+      <c r="AA130" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="131">
-      <c r="Z131" t="s">
+      <c r="AA131" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="132">
-      <c r="Z132" t="s">
+      <c r="AA132" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="133">
-      <c r="Z133" t="s">
+      <c r="AA133" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="134">
-      <c r="Z134" t="s">
+      <c r="AA134" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="135">
-      <c r="Z135" t="s">
+      <c r="AA135" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="136">
-      <c r="Z136" t="s">
+      <c r="AA136" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="137">
-      <c r="Z137" t="s">
+      <c r="AA137" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="138">
-      <c r="Z138" t="s">
+      <c r="AA138" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="139">
-      <c r="Z139" t="s">
+      <c r="AA139" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="140">
-      <c r="Z140" t="s">
+      <c r="AA140" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="141">
-      <c r="Z141" t="s">
+      <c r="AA141" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="142">
-      <c r="Z142" t="s">
+      <c r="AA142" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="143">
-      <c r="Z143" t="s">
+      <c r="AA143" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="144">
-      <c r="Z144" t="s">
+      <c r="AA144" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
@@ -34,7 +34,7 @@
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -42,7 +42,7 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
     <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
@@ -50,7 +50,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
     <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
@@ -58,6 +58,7 @@
     <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8167" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8754" uniqueCount="615">
   <si>
     <t>description</t>
   </si>
@@ -1887,6 +1888,36 @@
   </si>
   <si>
     <t>ocr(image,saveVar)</t>
+  </si>
+  <si>
+    <t>step.inTime</t>
+  </si>
+  <si>
+    <t>queryAsCSV(var,sql)</t>
+  </si>
+  <si>
+    <t>assertResultMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>assertResultNotMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>observe(prompt,waitMs)</t>
+  </si>
+  <si>
+    <t>perform(instructions,waitMs)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses,waitMs)</t>
+  </si>
+  <si>
+    <t>assertElementDisabled(locator)</t>
+  </si>
+  <si>
+    <t>checkAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator,waitMs)</t>
   </si>
 </sst>
 </file>
@@ -1894,7 +1925,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="219" x14ac:knownFonts="1">
+  <fonts count="235" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3284,8 +3315,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="359">
+  <fills count="386">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5317,8 +5449,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="419">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -9594,6 +9879,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9601,7 +10212,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="264">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10318,52 +10929,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="331" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="334" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="334" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="337" borderId="398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="398" fillId="337" fontId="205" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="340" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="340" fontId="206" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="343" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="343" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="346" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="346" fontId="209" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="349" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="349" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="340" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="340" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="352" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="352" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="352" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="352" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="343" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="343" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="355" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="355" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="343" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="343" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="358" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="358" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="361" borderId="426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="364" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="367" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="370" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="373" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="376" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="367" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="379" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="379" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="370" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="382" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="370" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="385" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10899,7 +11558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG144"/>
+  <dimension ref="A1:AG145"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10987,7 +11646,7 @@
         <v>393</v>
       </c>
       <c r="Z1" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="AA1" t="s">
         <v>52</v>
@@ -11067,7 +11726,7 @@
         <v>250</v>
       </c>
       <c r="T2" t="s">
-        <v>214</v>
+        <v>607</v>
       </c>
       <c r="U2" t="s">
         <v>394</v>
@@ -11085,7 +11744,7 @@
         <v>403</v>
       </c>
       <c r="Z2" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="AA2" t="s">
         <v>94</v>
@@ -11159,7 +11818,7 @@
         <v>237</v>
       </c>
       <c r="T3" t="s">
-        <v>215</v>
+        <v>608</v>
       </c>
       <c r="U3" t="s">
         <v>395</v>
@@ -11174,7 +11833,7 @@
         <v>404</v>
       </c>
       <c r="Z3" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="AA3" t="s">
         <v>95</v>
@@ -11245,7 +11904,7 @@
         <v>238</v>
       </c>
       <c r="T4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="U4" t="s">
         <v>396</v>
@@ -11260,7 +11919,7 @@
         <v>405</v>
       </c>
       <c r="Z4" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="AA4" t="s">
         <v>580</v>
@@ -11325,7 +11984,7 @@
         <v>239</v>
       </c>
       <c r="T5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="U5" t="s">
         <v>397</v>
@@ -11335,9 +11994,6 @@
       </c>
       <c r="X5" t="s">
         <v>355</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>601</v>
       </c>
       <c r="AA5" t="s">
         <v>573</v>
@@ -11402,16 +12058,13 @@
         <v>240</v>
       </c>
       <c r="T6" t="s">
-        <v>387</v>
+        <v>216</v>
       </c>
       <c r="U6" t="s">
         <v>398</v>
       </c>
       <c r="X6" t="s">
         <v>357</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>602</v>
       </c>
       <c r="AA6" t="s">
         <v>96</v>
@@ -11467,7 +12120,7 @@
         <v>241</v>
       </c>
       <c r="T7" t="s">
-        <v>414</v>
+        <v>217</v>
       </c>
       <c r="U7" t="s">
         <v>399</v>
@@ -11528,6 +12181,9 @@
       <c r="S8" t="s">
         <v>242</v>
       </c>
+      <c r="T8" t="s">
+        <v>387</v>
+      </c>
       <c r="U8" t="s">
         <v>400</v>
       </c>
@@ -11584,6 +12240,9 @@
       <c r="S9" t="s">
         <v>243</v>
       </c>
+      <c r="T9" t="s">
+        <v>414</v>
+      </c>
       <c r="U9" t="s">
         <v>401</v>
       </c>
@@ -11705,7 +12364,7 @@
         <v>534</v>
       </c>
       <c r="O12" t="s">
-        <v>518</v>
+        <v>606</v>
       </c>
       <c r="R12" t="s">
         <v>40</v>
@@ -11742,6 +12401,9 @@
       <c r="N13" t="s">
         <v>432</v>
       </c>
+      <c r="O13" t="s">
+        <v>518</v>
+      </c>
       <c r="R13" t="s">
         <v>92</v>
       </c>
@@ -11819,7 +12481,7 @@
         <v>247</v>
       </c>
       <c r="AA15" t="s">
-        <v>586</v>
+        <v>612</v>
       </c>
       <c r="AD15" t="s">
         <v>190</v>
@@ -11854,7 +12516,7 @@
         <v>248</v>
       </c>
       <c r="AA16" t="s">
-        <v>101</v>
+        <v>586</v>
       </c>
       <c r="AD16" t="s">
         <v>191</v>
@@ -11883,7 +12545,7 @@
         <v>249</v>
       </c>
       <c r="AA17" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="AD17" t="s">
         <v>463</v>
@@ -11909,7 +12571,7 @@
         <v>42</v>
       </c>
       <c r="AA18" t="s">
-        <v>490</v>
+        <v>73</v>
       </c>
       <c r="AF18" t="s">
         <v>472</v>
@@ -11929,7 +12591,7 @@
         <v>459</v>
       </c>
       <c r="AA19" t="s">
-        <v>102</v>
+        <v>490</v>
       </c>
       <c r="AF19" t="s">
         <v>501</v>
@@ -11949,7 +12611,7 @@
         <v>81</v>
       </c>
       <c r="AA20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF20" t="s">
         <v>502</v>
@@ -11969,7 +12631,7 @@
         <v>82</v>
       </c>
       <c r="AA21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF21" t="s">
         <v>503</v>
@@ -11989,7 +12651,7 @@
         <v>577</v>
       </c>
       <c r="AA22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF22" t="s">
         <v>232</v>
@@ -12009,7 +12671,7 @@
         <v>467</v>
       </c>
       <c r="AA23" t="s">
-        <v>491</v>
+        <v>105</v>
       </c>
       <c r="AF23" t="s">
         <v>529</v>
@@ -12029,7 +12691,7 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>106</v>
+        <v>491</v>
       </c>
       <c r="AF24" t="s">
         <v>530</v>
@@ -12049,7 +12711,7 @@
         <v>388</v>
       </c>
       <c r="AA25" t="s">
-        <v>539</v>
+        <v>106</v>
       </c>
       <c r="AF25" t="s">
         <v>531</v>
@@ -12057,7 +12719,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="F26" t="s">
         <v>445</v>
@@ -12069,7 +12731,7 @@
         <v>521</v>
       </c>
       <c r="AA26" t="s">
-        <v>107</v>
+        <v>539</v>
       </c>
       <c r="AF26" t="s">
         <v>233</v>
@@ -12089,7 +12751,7 @@
         <v>83</v>
       </c>
       <c r="AA27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF27" t="s">
         <v>234</v>
@@ -12109,7 +12771,7 @@
         <v>430</v>
       </c>
       <c r="AA28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
@@ -12126,7 +12788,7 @@
         <v>44</v>
       </c>
       <c r="AA29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30">
@@ -12143,7 +12805,7 @@
         <v>45</v>
       </c>
       <c r="AA30" t="s">
-        <v>324</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
@@ -12157,7 +12819,7 @@
         <v>213</v>
       </c>
       <c r="AA31" t="s">
-        <v>111</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32">
@@ -12171,7 +12833,7 @@
         <v>272</v>
       </c>
       <c r="AA32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -12182,7 +12844,7 @@
         <v>282</v>
       </c>
       <c r="AA33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
@@ -12193,7 +12855,7 @@
         <v>506</v>
       </c>
       <c r="AA34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
@@ -12204,7 +12866,7 @@
         <v>257</v>
       </c>
       <c r="AA35" t="s">
-        <v>540</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36">
@@ -12215,7 +12877,7 @@
         <v>327</v>
       </c>
       <c r="AA36" t="s">
-        <v>115</v>
+        <v>540</v>
       </c>
     </row>
     <row r="37">
@@ -12226,7 +12888,7 @@
         <v>304</v>
       </c>
       <c r="AA37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38">
@@ -12237,7 +12899,7 @@
         <v>258</v>
       </c>
       <c r="AA38" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39">
@@ -12248,7 +12910,7 @@
         <v>305</v>
       </c>
       <c r="AA39" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40">
@@ -12256,7 +12918,7 @@
         <v>264</v>
       </c>
       <c r="AA40" t="s">
-        <v>335</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41">
@@ -12264,7 +12926,7 @@
         <v>76</v>
       </c>
       <c r="AA41" t="s">
-        <v>434</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42">
@@ -12272,7 +12934,7 @@
         <v>208</v>
       </c>
       <c r="AA42" t="s">
-        <v>574</v>
+        <v>434</v>
       </c>
     </row>
     <row r="43">
@@ -12280,7 +12942,7 @@
         <v>536</v>
       </c>
       <c r="AA43" t="s">
-        <v>389</v>
+        <v>574</v>
       </c>
     </row>
     <row r="44">
@@ -12288,7 +12950,7 @@
         <v>286</v>
       </c>
       <c r="AA44" t="s">
-        <v>118</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45">
@@ -12296,7 +12958,7 @@
         <v>297</v>
       </c>
       <c r="AA45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46">
@@ -12304,7 +12966,7 @@
         <v>298</v>
       </c>
       <c r="AA46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47">
@@ -12312,7 +12974,7 @@
         <v>340</v>
       </c>
       <c r="AA47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
@@ -12320,7 +12982,7 @@
         <v>339</v>
       </c>
       <c r="AA48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49">
@@ -12328,7 +12990,7 @@
         <v>207</v>
       </c>
       <c r="AA49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50">
@@ -12336,7 +12998,7 @@
         <v>317</v>
       </c>
       <c r="AA50" t="s">
-        <v>435</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51">
@@ -12344,7 +13006,7 @@
         <v>336</v>
       </c>
       <c r="AA51" t="s">
-        <v>209</v>
+        <v>613</v>
       </c>
     </row>
     <row r="52">
@@ -12352,7 +13014,7 @@
         <v>364</v>
       </c>
       <c r="AA52" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53">
@@ -12360,7 +13022,7 @@
         <v>299</v>
       </c>
       <c r="AA53" t="s">
-        <v>533</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54">
@@ -12368,7 +13030,7 @@
         <v>352</v>
       </c>
       <c r="AA54" t="s">
-        <v>124</v>
+        <v>533</v>
       </c>
     </row>
     <row r="55">
@@ -12376,7 +13038,7 @@
         <v>328</v>
       </c>
       <c r="AA55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56">
@@ -12384,7 +13046,7 @@
         <v>265</v>
       </c>
       <c r="AA56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57">
@@ -12392,7 +13054,7 @@
         <v>289</v>
       </c>
       <c r="AA57" t="s">
-        <v>492</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58">
@@ -12400,7 +13062,7 @@
         <v>290</v>
       </c>
       <c r="AA58" t="s">
-        <v>460</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59">
@@ -12408,7 +13070,7 @@
         <v>537</v>
       </c>
       <c r="AA59" t="s">
-        <v>127</v>
+        <v>460</v>
       </c>
     </row>
     <row r="60">
@@ -12416,7 +13078,7 @@
         <v>291</v>
       </c>
       <c r="AA60" t="s">
-        <v>343</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61">
@@ -12424,7 +13086,7 @@
         <v>300</v>
       </c>
       <c r="AA61" t="s">
-        <v>461</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62">
@@ -12432,7 +13094,7 @@
         <v>309</v>
       </c>
       <c r="AA62" t="s">
-        <v>128</v>
+        <v>461</v>
       </c>
     </row>
     <row r="63">
@@ -12440,7 +13102,7 @@
         <v>334</v>
       </c>
       <c r="AA63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64">
@@ -12448,7 +13110,7 @@
         <v>306</v>
       </c>
       <c r="AA64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65">
@@ -12456,7 +13118,7 @@
         <v>307</v>
       </c>
       <c r="AA65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66">
@@ -12464,7 +13126,7 @@
         <v>365</v>
       </c>
       <c r="AA66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67">
@@ -12472,7 +13134,7 @@
         <v>366</v>
       </c>
       <c r="AA67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68">
@@ -12480,7 +13142,7 @@
         <v>342</v>
       </c>
       <c r="AA68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69">
@@ -12488,7 +13150,7 @@
         <v>310</v>
       </c>
       <c r="AA69" t="s">
-        <v>436</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70">
@@ -12496,7 +13158,7 @@
         <v>266</v>
       </c>
       <c r="AA70" t="s">
-        <v>470</v>
+        <v>436</v>
       </c>
     </row>
     <row r="71">
@@ -12504,7 +13166,7 @@
         <v>522</v>
       </c>
       <c r="AA71" t="s">
-        <v>210</v>
+        <v>470</v>
       </c>
     </row>
     <row r="72">
@@ -12512,7 +13174,7 @@
         <v>311</v>
       </c>
       <c r="AA72" t="s">
-        <v>385</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73">
@@ -12520,7 +13182,7 @@
         <v>406</v>
       </c>
       <c r="AA73" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
     </row>
     <row r="74">
@@ -12528,7 +13190,7 @@
         <v>301</v>
       </c>
       <c r="AA74" t="s">
-        <v>135</v>
+        <v>437</v>
       </c>
     </row>
     <row r="75">
@@ -12536,7 +13198,7 @@
         <v>407</v>
       </c>
       <c r="AA75" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76">
@@ -12544,7 +13206,7 @@
         <v>259</v>
       </c>
       <c r="AA76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77">
@@ -12552,7 +13214,7 @@
         <v>507</v>
       </c>
       <c r="AA77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78">
@@ -12560,7 +13222,7 @@
         <v>341</v>
       </c>
       <c r="AA78" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79">
@@ -12568,7 +13230,7 @@
         <v>277</v>
       </c>
       <c r="AA79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80">
@@ -12576,7 +13238,7 @@
         <v>283</v>
       </c>
       <c r="AA80" t="s">
-        <v>449</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81">
@@ -12584,7 +13246,7 @@
         <v>288</v>
       </c>
       <c r="AA81" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="82">
@@ -12592,7 +13254,7 @@
         <v>425</v>
       </c>
       <c r="AA82" t="s">
-        <v>139</v>
+        <v>462</v>
       </c>
     </row>
     <row r="83">
@@ -12600,7 +13262,7 @@
         <v>329</v>
       </c>
       <c r="AA83" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84">
@@ -12608,7 +13270,7 @@
         <v>267</v>
       </c>
       <c r="AA84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85">
@@ -12616,7 +13278,7 @@
         <v>278</v>
       </c>
       <c r="AA85" t="s">
-        <v>493</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86">
@@ -12624,7 +13286,7 @@
         <v>284</v>
       </c>
       <c r="AA86" t="s">
-        <v>142</v>
+        <v>493</v>
       </c>
     </row>
     <row r="87">
@@ -12632,7 +13294,7 @@
         <v>273</v>
       </c>
       <c r="AA87" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88">
@@ -12640,7 +13302,7 @@
         <v>525</v>
       </c>
       <c r="AA88" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89">
@@ -12648,7 +13310,7 @@
         <v>268</v>
       </c>
       <c r="AA89" t="s">
-        <v>494</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90">
@@ -12656,7 +13318,7 @@
         <v>285</v>
       </c>
       <c r="AA90" t="s">
-        <v>583</v>
+        <v>494</v>
       </c>
     </row>
     <row r="91">
@@ -12664,7 +13326,7 @@
         <v>269</v>
       </c>
       <c r="AA91" t="s">
-        <v>196</v>
+        <v>583</v>
       </c>
     </row>
     <row r="92">
@@ -12672,7 +13334,7 @@
         <v>270</v>
       </c>
       <c r="AA92" t="s">
-        <v>450</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93">
@@ -12680,7 +13342,7 @@
         <v>302</v>
       </c>
       <c r="AA93" t="s">
-        <v>197</v>
+        <v>450</v>
       </c>
     </row>
     <row r="94">
@@ -12688,7 +13350,7 @@
         <v>308</v>
       </c>
       <c r="AA94" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95">
@@ -12696,7 +13358,7 @@
         <v>292</v>
       </c>
       <c r="AA95" t="s">
-        <v>543</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96">
@@ -12704,7 +13366,7 @@
         <v>337</v>
       </c>
       <c r="AA96" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="97">
@@ -12712,7 +13374,7 @@
         <v>274</v>
       </c>
       <c r="AA97" t="s">
-        <v>211</v>
+        <v>544</v>
       </c>
     </row>
     <row r="98">
@@ -12720,236 +13382,241 @@
         <v>275</v>
       </c>
       <c r="AA98" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99">
       <c r="AA99" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100">
       <c r="AA100" t="s">
-        <v>438</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101">
       <c r="AA101" t="s">
-        <v>581</v>
+        <v>438</v>
       </c>
     </row>
     <row r="102">
       <c r="AA102" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="103">
       <c r="AA103" t="s">
-        <v>439</v>
+        <v>582</v>
       </c>
     </row>
     <row r="104">
       <c r="AA104" t="s">
-        <v>200</v>
+        <v>439</v>
       </c>
     </row>
     <row r="105">
       <c r="AA105" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106">
       <c r="AA106" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107">
       <c r="AA107" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108">
       <c r="AA108" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109">
       <c r="AA109" t="s">
-        <v>587</v>
+        <v>220</v>
       </c>
     </row>
     <row r="110">
       <c r="AA110" t="s">
-        <v>204</v>
+        <v>587</v>
       </c>
     </row>
     <row r="111">
       <c r="AA111" t="s">
-        <v>495</v>
+        <v>204</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>575</v>
+        <v>495</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>519</v>
+        <v>575</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>145</v>
+        <v>519</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>520</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>379</v>
+        <v>520</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>146</v>
+        <v>379</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>588</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>148</v>
+        <v>588</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>589</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>150</v>
+        <v>589</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>590</v>
+        <v>155</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>156</v>
+        <v>590</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>440</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>159</v>
+        <v>614</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>541</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>160</v>
+        <v>541</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>591</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>164</v>
+        <v>591</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="AA145" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nexial\nexial-core\src\test\resources\unittesting\artifact\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36764DD3-7F23-4819-AF93-3FD2E25287CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{36764DD3-7F23-4819-AF93-3FD2E25287CF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="15990" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Scenario-1" sheetId="5" r:id="rId2"/>
-    <sheet name="Scenario-2" sheetId="8" r:id="rId3"/>
-    <sheet name="Scenario-3" sheetId="9" r:id="rId4"/>
-    <sheet name="Scenario-4" sheetId="10" r:id="rId5"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Scenario-1" r:id="rId2" sheetId="5"/>
+    <sheet name="Scenario-2" r:id="rId3" sheetId="8"/>
+    <sheet name="Scenario-3" r:id="rId4" sheetId="9"/>
+    <sheet name="Scenario-4" r:id="rId5" sheetId="10"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$44</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -32,7 +32,7 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
@@ -42,7 +42,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -50,15 +50,15 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="650">
   <si>
     <t>description</t>
   </si>
@@ -1864,13 +1864,173 @@
   </si>
   <si>
     <t>uncheckAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>clearClipboard()</t>
+  </si>
+  <si>
+    <t>copyFromClipboard(var)</t>
+  </si>
+  <si>
+    <t>copyIntoClipboard(text)</t>
+  </si>
+  <si>
+    <t>macroFlex(macro,input,output)</t>
+  </si>
+  <si>
+    <t>waitForCondition(conditions,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForFile(file,minFileSize,waitMs,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>combine(path,fileFilter,saveTo)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator,removeFixed)</t>
+  </si>
+  <si>
+    <t>screenshotInFull(file,timeout,removeFixed)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,waitMs)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1947,8 +2107,222 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="56">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1989,6 +2363,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -2032,158 +2678,260 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="74">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="5" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="6" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="7" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="10" fontId="11" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="13" fontId="13" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="14" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="19" fontId="15" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="22" fontId="17" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="25" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="28" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="19" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="31" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="19" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="28" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="52" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="52" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -2427,7 +3175,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFFF40FF"/>
@@ -2453,10 +3201,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2491,7 +3239,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2526,7 +3274,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2620,21 +3368,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2651,7 +3399,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2703,26 +3451,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH151"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="18" width="8.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2802,25 +3550,28 @@
         <v>587</v>
       </c>
       <c r="AA1" t="s">
+        <v>597</v>
+      </c>
+      <c r="AB1" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>53</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>55</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>406</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>364</v>
       </c>
@@ -2900,25 +3651,28 @@
         <v>591</v>
       </c>
       <c r="AA2" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB2" t="s">
         <v>94</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>167</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>172</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>179</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>424</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>445</v>
       </c>
@@ -2989,25 +3743,28 @@
         <v>592</v>
       </c>
       <c r="AA3" t="s">
+        <v>606</v>
+      </c>
+      <c r="AB3" t="s">
         <v>95</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>168</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>173</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>357</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>180</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>466</v>
       </c>
@@ -3075,25 +3832,28 @@
         <v>593</v>
       </c>
       <c r="AA4" t="s">
+        <v>607</v>
+      </c>
+      <c r="AB4" t="s">
         <v>570</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>169</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>174</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>180</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>416</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>561</v>
       </c>
@@ -3149,25 +3909,28 @@
         <v>352</v>
       </c>
       <c r="AA5" t="s">
+        <v>608</v>
+      </c>
+      <c r="AB5" t="s">
         <v>564</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>170</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>581</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>181</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>417</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3220,25 +3983,28 @@
         <v>354</v>
       </c>
       <c r="AA6" t="s">
+        <v>609</v>
+      </c>
+      <c r="AB6" t="s">
         <v>96</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>435</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>175</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>182</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>418</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -3282,25 +4048,28 @@
         <v>353</v>
       </c>
       <c r="AA7" t="s">
+        <v>610</v>
+      </c>
+      <c r="AB7" t="s">
         <v>97</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>436</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>176</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>183</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>419</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3344,25 +4113,28 @@
         <v>355</v>
       </c>
       <c r="AA8" t="s">
+        <v>611</v>
+      </c>
+      <c r="AB8" t="s">
         <v>98</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>171</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>177</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>184</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>420</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3403,19 +4175,22 @@
         <v>356</v>
       </c>
       <c r="AA9" t="s">
+        <v>612</v>
+      </c>
+      <c r="AB9" t="s">
         <v>205</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>178</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>185</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3447,19 +4222,22 @@
         <v>398</v>
       </c>
       <c r="AA10" t="s">
+        <v>613</v>
+      </c>
+      <c r="AB10" t="s">
         <v>253</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>582</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>186</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>343</v>
       </c>
@@ -3485,19 +4263,22 @@
         <v>91</v>
       </c>
       <c r="S11" t="s">
-        <v>245</v>
+        <v>604</v>
       </c>
       <c r="AA11" t="s">
+        <v>614</v>
+      </c>
+      <c r="AB11" t="s">
         <v>254</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>255</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3523,19 +4304,22 @@
         <v>40</v>
       </c>
       <c r="S12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AA12" t="s">
+        <v>615</v>
+      </c>
+      <c r="AB12" t="s">
         <v>99</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>187</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>329</v>
       </c>
@@ -3561,19 +4345,22 @@
         <v>92</v>
       </c>
       <c r="S13" t="s">
-        <v>574</v>
+        <v>246</v>
       </c>
       <c r="AA13" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB13" t="s">
         <v>322</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>188</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3596,19 +4383,22 @@
         <v>93</v>
       </c>
       <c r="S14" t="s">
-        <v>251</v>
+        <v>574</v>
       </c>
       <c r="AA14" t="s">
+        <v>617</v>
+      </c>
+      <c r="AB14" t="s">
         <v>100</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>189</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>497</v>
       </c>
@@ -3631,19 +4421,22 @@
         <v>481</v>
       </c>
       <c r="S15" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AA15" t="s">
+        <v>618</v>
+      </c>
+      <c r="AB15" t="s">
         <v>594</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>190</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>467</v>
       </c>
@@ -3666,19 +4459,22 @@
         <v>482</v>
       </c>
       <c r="S16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA16" t="s">
+        <v>619</v>
+      </c>
+      <c r="AB16" t="s">
         <v>575</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>191</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>192</v>
       </c>
@@ -3695,19 +4491,22 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA17" t="s">
+        <v>620</v>
+      </c>
+      <c r="AB17" t="s">
         <v>101</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>456</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -3723,19 +4522,25 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
+      <c r="S18" t="s">
+        <v>249</v>
+      </c>
       <c r="AA18" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB18" t="s">
         <v>73</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>598</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -3744,18 +4549,21 @@
         <v>452</v>
       </c>
       <c r="AA19" t="s">
+        <v>622</v>
+      </c>
+      <c r="AB19" t="s">
         <v>483</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>599</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
@@ -3764,18 +4572,21 @@
         <v>81</v>
       </c>
       <c r="AA20" t="s">
+        <v>623</v>
+      </c>
+      <c r="AB20" t="s">
         <v>102</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>388</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>600</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
@@ -3784,18 +4595,21 @@
         <v>82</v>
       </c>
       <c r="AA21" t="s">
+        <v>624</v>
+      </c>
+      <c r="AB21" t="s">
         <v>103</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>404</v>
       </c>
       <c r="F22" t="s">
-        <v>527</v>
+        <v>58</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
@@ -3804,18 +4618,21 @@
         <v>567</v>
       </c>
       <c r="AA22" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB22" t="s">
         <v>104</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>405</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
@@ -3824,18 +4641,21 @@
         <v>460</v>
       </c>
       <c r="AA23" t="s">
+        <v>626</v>
+      </c>
+      <c r="AB23" t="s">
         <v>105</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>350</v>
       </c>
       <c r="F24" t="s">
-        <v>317</v>
+        <v>252</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
@@ -3844,18 +4664,21 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB24" t="s">
         <v>484</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>389</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>601</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
@@ -3864,947 +4687,1040 @@
         <v>384</v>
       </c>
       <c r="AA25" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB25" t="s">
         <v>106</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>587</v>
       </c>
       <c r="F26" t="s">
-        <v>439</v>
+        <v>527</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>514</v>
+        <v>603</v>
       </c>
       <c r="AA26" t="s">
+        <v>629</v>
+      </c>
+      <c r="AB26" t="s">
         <v>531</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>597</v>
       </c>
       <c r="F27" t="s">
-        <v>222</v>
+        <v>60</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
       </c>
       <c r="L27" t="s">
-        <v>83</v>
+        <v>514</v>
       </c>
       <c r="AA27" t="s">
+        <v>630</v>
+      </c>
+      <c r="AB27" t="s">
         <v>107</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>223</v>
+        <v>317</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>426</v>
+        <v>83</v>
       </c>
       <c r="AA28" t="s">
+        <v>631</v>
+      </c>
+      <c r="AB28" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>458</v>
+        <v>61</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
       </c>
       <c r="L29" t="s">
-        <v>44</v>
+        <v>426</v>
       </c>
       <c r="AA29" t="s">
+        <v>632</v>
+      </c>
+      <c r="AB29" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
       </c>
       <c r="L30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA30" t="s">
+        <v>633</v>
+      </c>
+      <c r="AB30" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
-        <v>406</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>408</v>
+        <v>222</v>
       </c>
       <c r="H31" t="s">
         <v>213</v>
       </c>
+      <c r="L31" t="s">
+        <v>45</v>
+      </c>
       <c r="AA31" t="s">
+        <v>634</v>
+      </c>
+      <c r="AB31" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
-        <v>224</v>
+        <v>406</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>223</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
       </c>
       <c r="AA32" t="s">
+        <v>635</v>
+      </c>
+      <c r="AB32" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="33">
+      <c r="A33" t="s">
+        <v>224</v>
+      </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>458</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
       </c>
       <c r="AA33" t="s">
+        <v>636</v>
+      </c>
+      <c r="AB33" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>459</v>
       </c>
       <c r="H34" t="s">
         <v>499</v>
       </c>
       <c r="AA34" t="s">
+        <v>637</v>
+      </c>
+      <c r="AB34" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>408</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
       </c>
       <c r="AA35" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB35" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
       </c>
       <c r="AA36" t="s">
+        <v>639</v>
+      </c>
+      <c r="AB36" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="37" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
       </c>
       <c r="AA37" t="s">
+        <v>640</v>
+      </c>
+      <c r="AB37" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
       </c>
       <c r="AA38" t="s">
+        <v>641</v>
+      </c>
+      <c r="AB38" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="40">
+      <c r="F40" t="s">
+        <v>66</v>
+      </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="41">
+      <c r="F41" t="s">
+        <v>67</v>
+      </c>
       <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="42" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="42">
+      <c r="F42" t="s">
+        <v>68</v>
+      </c>
       <c r="H42" t="s">
         <v>208</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="43" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="43">
+      <c r="F43" t="s">
+        <v>69</v>
+      </c>
       <c r="H43" t="s">
         <v>528</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="44" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="44">
+      <c r="F44" t="s">
+        <v>602</v>
+      </c>
       <c r="H44" t="s">
         <v>285</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="45" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="H45" t="s">
         <v>296</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="H46" t="s">
         <v>297</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="H47" t="s">
         <v>339</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="H48" t="s">
         <v>338</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="H50" t="s">
         <v>316</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="H51" t="s">
         <v>335</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="52" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="H52" t="s">
         <v>361</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="H53" t="s">
         <v>298</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="H54" t="s">
         <v>349</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="55" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="H55" t="s">
         <v>327</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="H56" t="s">
         <v>264</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="H57" t="s">
         <v>288</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="H58" t="s">
         <v>289</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="59" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="H59" t="s">
         <v>529</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="60" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="H60" t="s">
         <v>290</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="H61" t="s">
         <v>299</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="62" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="H62" t="s">
         <v>308</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="63" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="H63" t="s">
         <v>333</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="H64" t="s">
         <v>305</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="H65" t="s">
         <v>306</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="H66" t="s">
         <v>362</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="H67" t="s">
         <v>363</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="H68" t="s">
         <v>341</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="H69" t="s">
         <v>309</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="H70" t="s">
         <v>265</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="71" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="H71" t="s">
         <v>515</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="72" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="H72" t="s">
         <v>310</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="73" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="H73" t="s">
         <v>402</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="74" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="H74" t="s">
         <v>300</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="75" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="H75" t="s">
         <v>403</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="H76" t="s">
         <v>258</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="H77" t="s">
         <v>500</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="H78" t="s">
         <v>340</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="H79" t="s">
         <v>276</v>
       </c>
-      <c r="AA79" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="80" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB79" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="H80" t="s">
         <v>282</v>
       </c>
-      <c r="AA80" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="81" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB80" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="H81" t="s">
         <v>287</v>
       </c>
-      <c r="AA81" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="82" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB81" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="H82" t="s">
         <v>421</v>
       </c>
-      <c r="AA82" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="83" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB82" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="H83" t="s">
         <v>328</v>
       </c>
-      <c r="AA83" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="84" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB83" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="H84" t="s">
         <v>266</v>
       </c>
-      <c r="AA84" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="85" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB84" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="H85" t="s">
         <v>277</v>
       </c>
-      <c r="AA85" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="86" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB85" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="H86" t="s">
         <v>283</v>
       </c>
-      <c r="AA86" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="87" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB86" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="H87" t="s">
         <v>272</v>
       </c>
-      <c r="AA87" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="88" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB87" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="H88" t="s">
         <v>517</v>
       </c>
-      <c r="AA88" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="89" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB88" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="H89" t="s">
         <v>267</v>
       </c>
-      <c r="AA89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB89" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="H90" t="s">
         <v>284</v>
       </c>
-      <c r="AA90" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="91" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB90" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="H91" t="s">
         <v>268</v>
       </c>
-      <c r="AA91" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="92" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB91" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="H92" t="s">
         <v>269</v>
       </c>
-      <c r="AA92" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="93" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB92" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="H93" t="s">
         <v>301</v>
       </c>
-      <c r="AA93" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="94" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB93" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="H94" t="s">
         <v>307</v>
       </c>
-      <c r="AA94" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="95" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB94" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="H95" t="s">
         <v>291</v>
       </c>
-      <c r="AA95" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="96" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB95" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="H96" t="s">
         <v>336</v>
       </c>
-      <c r="AA96" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="97" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB96" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="H97" t="s">
         <v>273</v>
       </c>
-      <c r="AA97" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="98" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB97" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="H98" t="s">
         <v>274</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AB99" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="99" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA99" t="s">
+    <row r="100">
+      <c r="AB100" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="100" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA100" t="s">
+    <row r="101">
+      <c r="AB101" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA101" t="s">
+    <row r="102">
+      <c r="AB102" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="102" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA102" t="s">
+    <row r="103">
+      <c r="AB103" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="103" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA103" t="s">
+    <row r="104">
+      <c r="AB104" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="104" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA104" t="s">
+    <row r="105">
+      <c r="AB105" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="105" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA105" t="s">
+    <row r="106">
+      <c r="AB106" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="106" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA106" t="s">
+    <row r="107">
+      <c r="AB107" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA107" t="s">
+    <row r="108">
+      <c r="AB108" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="108" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA108" t="s">
+    <row r="109">
+      <c r="AB109" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="109" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA109" t="s">
+    <row r="110">
+      <c r="AB110" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="110" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA110" t="s">
+    <row r="111">
+      <c r="AB111" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="111" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA111" t="s">
+    <row r="112">
+      <c r="AB112" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="112" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA112" t="s">
+    <row r="113">
+      <c r="AB113" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="113" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA113" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="114" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA114" t="s">
+    <row r="114">
+      <c r="AB114" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="AB115" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="AB116" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="115" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AB117" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="116" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AB118" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="117" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AB119" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="118" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AB120" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="119" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AB121" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="120" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AB122" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="121" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AB123" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="122" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AB124" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="123" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AB125" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="124" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AB126" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="125" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AB127" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="126" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AB128" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="127" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AB129" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="128" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AB130" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="129" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AB131" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="130" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AB132" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="131" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AB133" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="132" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AB134" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="133" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AB135" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="134" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AB136" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="135" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AB137" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="136" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AB138" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="137" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AB139" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="138" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AB140" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="139" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AB141" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="140" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AB142" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="141" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA141" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="142" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA142" t="s">
+    <row r="143">
+      <c r="AB143" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="AB144" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="143" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AB145" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="144" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AB146" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="145" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AB147" t="s">
         <v>166</v>
       </c>
     </row>
+    <row r="148">
+      <c r="AB148" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AB149" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="AB150" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="AB151" t="s">
+        <v>649</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB67F4D6-2AE2-4F45-845F-085145D40F4C}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB67F4D6-2AE2-4F45-845F-085145D40F4C}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.75" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.25" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.125" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="20" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="10.125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="22.75" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="9.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="22.25" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="29.125" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="9" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="22" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -4835,7 +5751,7 @@
       <c r="N1" s="34"/>
       <c r="O1" s="35"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>537</v>
       </c>
@@ -4856,7 +5772,7 @@
       <c r="N2" s="39"/>
       <c r="O2" s="39"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11"/>
@@ -4873,7 +5789,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>218</v>
       </c>
@@ -4918,7 +5834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>457</v>
       </c>
@@ -4945,7 +5861,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12" t="s">
@@ -4970,7 +5886,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="28" t="s">
         <v>542</v>
@@ -4997,7 +5913,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="4" t="s">
         <v>551</v>
@@ -5024,7 +5940,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="4" t="s">
         <v>554</v>
@@ -5051,7 +5967,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="4"/>
       <c r="C10" s="12" t="s">
@@ -5076,7 +5992,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>548</v>
       </c>
@@ -5103,7 +6019,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12"/>
@@ -5120,7 +6036,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="4"/>
       <c r="C13" s="12"/>
@@ -5137,7 +6053,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="4"/>
       <c r="C14" s="12"/>
@@ -5154,7 +6070,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="4"/>
       <c r="C15" s="12"/>
@@ -5171,7 +6087,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12"/>
@@ -5188,7 +6104,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12"/>
@@ -5205,7 +6121,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12"/>
@@ -5222,7 +6138,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12"/>
@@ -5239,7 +6155,7 @@
       <c r="N19" s="14"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12"/>
@@ -5256,7 +6172,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12"/>
@@ -5273,7 +6189,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12"/>
@@ -5290,7 +6206,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12"/>
@@ -5307,7 +6223,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12"/>
@@ -5324,7 +6240,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12"/>
@@ -5341,7 +6257,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="4"/>
       <c r="C26" s="12"/>
@@ -5358,7 +6274,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="4"/>
       <c r="C27" s="12"/>
@@ -5375,7 +6291,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="4"/>
       <c r="C28" s="12"/>
@@ -5392,7 +6308,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="4"/>
       <c r="C29" s="12"/>
@@ -5409,7 +6325,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="7"/>
       <c r="C30" s="12"/>
@@ -5426,7 +6342,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="4"/>
       <c r="C31" s="12"/>
@@ -5443,7 +6359,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="4"/>
       <c r="C32" s="12"/>
@@ -5460,7 +6376,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12"/>
@@ -5477,7 +6393,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="4"/>
       <c r="C34" s="12"/>
@@ -5494,7 +6410,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
@@ -5511,7 +6427,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
@@ -5528,7 +6444,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="4"/>
       <c r="C37" s="12"/>
@@ -5545,7 +6461,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12"/>
@@ -5562,7 +6478,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
@@ -5579,7 +6495,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12"/>
@@ -5596,7 +6512,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="4"/>
       <c r="C41" s="12"/>
@@ -5613,7 +6529,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="4"/>
       <c r="C42" s="12"/>
@@ -5630,7 +6546,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="4"/>
       <c r="C43" s="12"/>
@@ -5647,7 +6563,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="4"/>
       <c r="C44" s="12"/>
@@ -5664,7 +6580,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="B45" s="4"/>
       <c r="C45" s="12"/>
@@ -5681,7 +6597,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
       <c r="B46" s="4"/>
       <c r="C46" s="12"/>
@@ -5698,7 +6614,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
       <c r="B47" s="4"/>
       <c r="C47" s="12"/>
@@ -5715,7 +6631,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
       <c r="B48" s="4"/>
       <c r="C48" s="12"/>
@@ -5732,7 +6648,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
       <c r="B49" s="4"/>
       <c r="C49" s="12"/>
@@ -5749,7 +6665,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="B50" s="4"/>
       <c r="C50" s="12"/>
@@ -5767,7 +6683,7 @@
       <c r="O50" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -5775,55 +6691,55 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N50">
-    <cfRule type="beginsWith" dxfId="23" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="23" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="22" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="22" operator="beginsWith" priority="5" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="21" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="21" operator="beginsWith" priority="6" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{8148EB93-F5CC-294A-AA69-E21A9405EFD6}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{8148EB93-F5CC-294A-AA69-E21A9405EFD6}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{1569FEC3-BA39-D246-8212-E1946AB505F4}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{1569FEC3-BA39-D246-8212-E1946AB505F4}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5C8069-A239-E04D-9D6B-FB227AC724DF}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5C8069-A239-E04D-9D6B-FB227AC724DF}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.75" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.25" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.125" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="20" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="10.125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="22.75" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="9.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="22.25" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="29.125" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="9" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="22" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -5854,7 +6770,7 @@
       <c r="N1" s="34"/>
       <c r="O1" s="35"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>537</v>
       </c>
@@ -5875,7 +6791,7 @@
       <c r="N2" s="39"/>
       <c r="O2" s="39"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11"/>
@@ -5892,7 +6808,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>218</v>
       </c>
@@ -5937,7 +6853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>457</v>
       </c>
@@ -5964,7 +6880,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="29" t="s">
         <v>542</v>
@@ -5991,7 +6907,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="4" t="s">
         <v>556</v>
@@ -6018,7 +6934,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="4" t="s">
         <v>554</v>
@@ -6045,7 +6961,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="4"/>
       <c r="C9" s="12" t="s">
@@ -6070,7 +6986,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>548</v>
       </c>
@@ -6097,7 +7013,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12"/>
@@ -6114,7 +7030,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12"/>
@@ -6131,7 +7047,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="4"/>
       <c r="C13" s="12"/>
@@ -6148,7 +7064,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="4"/>
       <c r="C14" s="12"/>
@@ -6165,7 +7081,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="4"/>
       <c r="C15" s="12"/>
@@ -6182,7 +7098,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12"/>
@@ -6199,7 +7115,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12"/>
@@ -6216,7 +7132,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12"/>
@@ -6233,7 +7149,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12"/>
@@ -6250,7 +7166,7 @@
       <c r="N19" s="14"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12"/>
@@ -6267,7 +7183,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12"/>
@@ -6284,7 +7200,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12"/>
@@ -6301,7 +7217,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12"/>
@@ -6318,7 +7234,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12"/>
@@ -6335,7 +7251,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12"/>
@@ -6352,7 +7268,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="4"/>
       <c r="C26" s="12"/>
@@ -6369,7 +7285,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="4"/>
       <c r="C27" s="12"/>
@@ -6386,7 +7302,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="4"/>
       <c r="C28" s="12"/>
@@ -6403,7 +7319,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="7"/>
       <c r="C29" s="12"/>
@@ -6420,7 +7336,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="4"/>
       <c r="C30" s="12"/>
@@ -6437,7 +7353,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="4"/>
       <c r="C31" s="12"/>
@@ -6454,7 +7370,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="4"/>
       <c r="C32" s="12"/>
@@ -6471,7 +7387,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12"/>
@@ -6488,7 +7404,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="4"/>
       <c r="C34" s="12"/>
@@ -6505,7 +7421,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
@@ -6522,7 +7438,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
@@ -6539,7 +7455,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="4"/>
       <c r="C37" s="12"/>
@@ -6556,7 +7472,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12"/>
@@ -6573,7 +7489,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
@@ -6590,7 +7506,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12"/>
@@ -6607,7 +7523,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="4"/>
       <c r="C41" s="12"/>
@@ -6624,7 +7540,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="4"/>
       <c r="C42" s="12"/>
@@ -6641,7 +7557,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="4"/>
       <c r="C43" s="12"/>
@@ -6658,7 +7574,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="4"/>
       <c r="C44" s="12"/>
@@ -6675,7 +7591,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="B45" s="4"/>
       <c r="C45" s="12"/>
@@ -6692,7 +7608,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
       <c r="B46" s="4"/>
       <c r="C46" s="12"/>
@@ -6709,7 +7625,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
       <c r="B47" s="4"/>
       <c r="C47" s="12"/>
@@ -6726,7 +7642,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
       <c r="B48" s="4"/>
       <c r="C48" s="12"/>
@@ -6743,7 +7659,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
       <c r="B49" s="4"/>
       <c r="C49" s="12"/>
@@ -6760,7 +7676,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="B50" s="4"/>
       <c r="C50" s="12"/>
@@ -6778,7 +7694,7 @@
       <c r="O50" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -6786,55 +7702,55 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N50">
-    <cfRule type="beginsWith" dxfId="17" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="17" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="16" operator="beginsWith" priority="5" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="15" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="15" operator="beginsWith" priority="6" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{D167395B-DC83-7540-8CF6-EEA16DBB9FFD}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{D167395B-DC83-7540-8CF6-EEA16DBB9FFD}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{3A1FD021-7EEF-944F-95A3-C0DE5D421095}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{3A1FD021-7EEF-944F-95A3-C0DE5D421095}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0007F9-AF90-204C-9864-525A82996374}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0007F9-AF90-204C-9864-525A82996374}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" style="26" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.625" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.875" style="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.875" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.125" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="20" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="26" width="20.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="41.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="13" width="10.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="9" width="30.875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="29.125" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="9" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="22" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -6865,7 +7781,7 @@
       <c r="N1" s="34"/>
       <c r="O1" s="35"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>537</v>
       </c>
@@ -6886,7 +7802,7 @@
       <c r="N2" s="39"/>
       <c r="O2" s="39"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11"/>
@@ -6903,7 +7819,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>218</v>
       </c>
@@ -6948,7 +7864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>457</v>
       </c>
@@ -6975,7 +7891,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="30" t="s">
         <v>542</v>
@@ -7002,7 +7918,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="4" t="s">
         <v>557</v>
@@ -7029,7 +7945,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="4" t="s">
         <v>554</v>
@@ -7056,7 +7972,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="4"/>
       <c r="C9" s="12" t="s">
@@ -7081,7 +7997,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>548</v>
       </c>
@@ -7108,7 +8024,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12"/>
@@ -7125,7 +8041,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12"/>
@@ -7142,7 +8058,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="4"/>
       <c r="C13" s="12"/>
@@ -7159,7 +8075,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="4"/>
       <c r="C14" s="12"/>
@@ -7176,7 +8092,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="4"/>
       <c r="C15" s="12"/>
@@ -7193,7 +8109,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12"/>
@@ -7210,7 +8126,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12"/>
@@ -7227,7 +8143,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12"/>
@@ -7244,7 +8160,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12"/>
@@ -7261,7 +8177,7 @@
       <c r="N19" s="14"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12"/>
@@ -7278,7 +8194,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12"/>
@@ -7295,7 +8211,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12"/>
@@ -7312,7 +8228,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12"/>
@@ -7329,7 +8245,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12"/>
@@ -7346,7 +8262,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12"/>
@@ -7363,7 +8279,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="4"/>
       <c r="C26" s="12"/>
@@ -7380,7 +8296,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="4"/>
       <c r="C27" s="12"/>
@@ -7397,7 +8313,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="4"/>
       <c r="C28" s="12"/>
@@ -7414,7 +8330,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="7"/>
       <c r="C29" s="12"/>
@@ -7431,7 +8347,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="4"/>
       <c r="C30" s="12"/>
@@ -7448,7 +8364,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="4"/>
       <c r="C31" s="12"/>
@@ -7465,7 +8381,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="4"/>
       <c r="C32" s="12"/>
@@ -7482,7 +8398,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12"/>
@@ -7499,7 +8415,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="4"/>
       <c r="C34" s="12"/>
@@ -7516,7 +8432,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
@@ -7533,7 +8449,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
@@ -7550,7 +8466,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="4"/>
       <c r="C37" s="12"/>
@@ -7567,7 +8483,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12"/>
@@ -7584,7 +8500,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
@@ -7601,7 +8517,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12"/>
@@ -7618,7 +8534,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="4"/>
       <c r="C41" s="12"/>
@@ -7635,7 +8551,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="4"/>
       <c r="C42" s="12"/>
@@ -7652,7 +8568,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="4"/>
       <c r="C43" s="12"/>
@@ -7669,7 +8585,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="4"/>
       <c r="C44" s="12"/>
@@ -7686,7 +8602,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="B45" s="4"/>
       <c r="C45" s="12"/>
@@ -7703,7 +8619,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
       <c r="B46" s="4"/>
       <c r="C46" s="12"/>
@@ -7720,7 +8636,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
       <c r="B47" s="4"/>
       <c r="C47" s="12"/>
@@ -7737,7 +8653,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
       <c r="B48" s="4"/>
       <c r="C48" s="12"/>
@@ -7754,7 +8670,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
       <c r="B49" s="4"/>
       <c r="C49" s="12"/>
@@ -7771,7 +8687,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="B50" s="4"/>
       <c r="C50" s="12"/>
@@ -7789,7 +8705,7 @@
       <c r="O50" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -7797,55 +8713,55 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N50">
-    <cfRule type="beginsWith" dxfId="11" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="11" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="10" operator="beginsWith" priority="5" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="9" operator="beginsWith" priority="6" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{00D72293-7441-6E46-AEE1-E9C93BEF2957}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{00D72293-7441-6E46-AEE1-E9C93BEF2957}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{CC72D515-C993-8745-A81C-F2BBD73F70FD}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{CC72D515-C993-8745-A81C-F2BBD73F70FD}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C36D544-6757-9945-A4AE-6F4C13E61F83}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C36D544-6757-9945-A4AE-6F4C13E61F83}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.75" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.25" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.125" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="20" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="10.125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="22.75" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="9.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="22.25" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="29.125" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="9" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="22" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -7876,7 +8792,7 @@
       <c r="N1" s="34"/>
       <c r="O1" s="35"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>537</v>
       </c>
@@ -7897,7 +8813,7 @@
       <c r="N2" s="39"/>
       <c r="O2" s="39"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11"/>
@@ -7914,7 +8830,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>218</v>
       </c>
@@ -7959,7 +8875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>457</v>
       </c>
@@ -7986,7 +8902,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="31" t="s">
         <v>542</v>
@@ -8013,7 +8929,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="4" t="s">
         <v>560</v>
@@ -8040,7 +8956,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="4" t="s">
         <v>554</v>
@@ -8067,7 +8983,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="4"/>
       <c r="C9" s="12" t="s">
@@ -8092,7 +9008,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>548</v>
       </c>
@@ -8119,7 +9035,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12"/>
@@ -8136,7 +9052,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12"/>
@@ -8153,7 +9069,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="4"/>
       <c r="C13" s="12"/>
@@ -8170,7 +9086,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="4"/>
       <c r="C14" s="12"/>
@@ -8187,7 +9103,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="4"/>
       <c r="C15" s="12"/>
@@ -8204,7 +9120,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12"/>
@@ -8221,7 +9137,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12"/>
@@ -8238,7 +9154,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12"/>
@@ -8255,7 +9171,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12"/>
@@ -8272,7 +9188,7 @@
       <c r="N19" s="14"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12"/>
@@ -8289,7 +9205,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12"/>
@@ -8306,7 +9222,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12"/>
@@ -8323,7 +9239,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12"/>
@@ -8340,7 +9256,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12"/>
@@ -8357,7 +9273,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12"/>
@@ -8374,7 +9290,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="4"/>
       <c r="C26" s="12"/>
@@ -8391,7 +9307,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="4"/>
       <c r="C27" s="12"/>
@@ -8408,7 +9324,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="4"/>
       <c r="C28" s="12"/>
@@ -8425,7 +9341,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="7"/>
       <c r="C29" s="12"/>
@@ -8442,7 +9358,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="4"/>
       <c r="C30" s="12"/>
@@ -8459,7 +9375,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="4"/>
       <c r="C31" s="12"/>
@@ -8476,7 +9392,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="4"/>
       <c r="C32" s="12"/>
@@ -8493,7 +9409,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12"/>
@@ -8510,7 +9426,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="4"/>
       <c r="C34" s="12"/>
@@ -8527,7 +9443,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
@@ -8544,7 +9460,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
@@ -8561,7 +9477,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="4"/>
       <c r="C37" s="12"/>
@@ -8578,7 +9494,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12"/>
@@ -8595,7 +9511,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
@@ -8612,7 +9528,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12"/>
@@ -8629,7 +9545,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="4"/>
       <c r="C41" s="12"/>
@@ -8646,7 +9562,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="4"/>
       <c r="C42" s="12"/>
@@ -8663,7 +9579,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="4"/>
       <c r="C43" s="12"/>
@@ -8680,7 +9596,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="4"/>
       <c r="C44" s="12"/>
@@ -8697,7 +9613,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="B45" s="4"/>
       <c r="C45" s="12"/>
@@ -8714,7 +9630,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
       <c r="B46" s="4"/>
       <c r="C46" s="12"/>
@@ -8731,7 +9647,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
       <c r="B47" s="4"/>
       <c r="C47" s="12"/>
@@ -8748,7 +9664,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
       <c r="B48" s="4"/>
       <c r="C48" s="12"/>
@@ -8765,7 +9681,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
       <c r="B49" s="4"/>
       <c r="C49" s="12"/>
@@ -8782,7 +9698,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="B50" s="4"/>
       <c r="C50" s="12"/>
@@ -8800,7 +9716,7 @@
       <c r="O50" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -8808,24 +9724,24 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N50">
-    <cfRule type="beginsWith" dxfId="5" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="5" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="5" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="3" operator="beginsWith" priority="6" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{B46759DC-1951-2C4F-AB52-8EB2ABD2B7F6}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{B46759DC-1951-2C4F-AB52-8EB2ABD2B7F6}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{71A40B87-A779-DF4F-83A4-9EC6A7C464DE}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{71A40B87-A779-DF4F-83A4-9EC6A7C464DE}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
@@ -24,13 +24,13 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$44</definedName>
+    <definedName name="base">'#system'!$F$2:$F$45</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
-    <definedName name="external">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -50,15 +50,15 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$33</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
-    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
-    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
-    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
-    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="652">
   <si>
     <t>description</t>
   </si>
@@ -2023,6 +2023,12 @@
   </si>
   <si>
     <t>waitUntilVisible(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>assertMatch(text,regex)</t>
+  </si>
+  <si>
+    <t>openFile(filePath)</t>
   </si>
 </sst>
 </file>
@@ -2030,7 +2036,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="62" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2321,8 +2327,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="56">
+  <fills count="80">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2363,6 +2476,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -2683,7 +2932,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="91">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2875,55 +3124,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="28" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="34" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="37" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="40" fontId="31" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="34" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="52" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="52" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="40" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="55" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="52" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="52" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="64" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="67" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="76" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="64" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="67" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="79" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="67" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="76" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3459,7 +3759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH151"/>
+  <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -3550,24 +3850,21 @@
         <v>587</v>
       </c>
       <c r="AA1" t="s">
-        <v>597</v>
+        <v>52</v>
       </c>
       <c r="AB1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE1" t="s">
-        <v>55</v>
+        <v>406</v>
       </c>
       <c r="AF1" t="s">
-        <v>406</v>
-      </c>
-      <c r="AG1" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3600,7 +3897,7 @@
         <v>440</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>651</v>
       </c>
       <c r="K2" t="s">
         <v>585</v>
@@ -3651,24 +3948,21 @@
         <v>591</v>
       </c>
       <c r="AA2" t="s">
-        <v>605</v>
+        <v>94</v>
       </c>
       <c r="AB2" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="AC2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AD2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AE2" t="s">
-        <v>179</v>
+        <v>424</v>
       </c>
       <c r="AF2" t="s">
-        <v>424</v>
-      </c>
-      <c r="AG2" t="s">
         <v>489</v>
       </c>
     </row>
@@ -3698,7 +3992,7 @@
         <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>473</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s">
         <v>345</v>
@@ -3743,24 +4037,21 @@
         <v>592</v>
       </c>
       <c r="AA3" t="s">
-        <v>606</v>
+        <v>95</v>
       </c>
       <c r="AB3" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="AC3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AD3" t="s">
-        <v>173</v>
+        <v>357</v>
       </c>
       <c r="AE3" t="s">
-        <v>357</v>
+        <v>180</v>
       </c>
       <c r="AF3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3787,7 +4078,7 @@
         <v>441</v>
       </c>
       <c r="J4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K4" t="s">
         <v>346</v>
@@ -3832,24 +4123,21 @@
         <v>593</v>
       </c>
       <c r="AA4" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="AB4" t="s">
-        <v>570</v>
+        <v>169</v>
       </c>
       <c r="AC4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AD4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AE4" t="s">
-        <v>180</v>
+        <v>416</v>
       </c>
       <c r="AF4" t="s">
-        <v>416</v>
-      </c>
-      <c r="AG4" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3876,7 +4164,7 @@
         <v>450</v>
       </c>
       <c r="J5" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
       <c r="K5" t="s">
         <v>347</v>
@@ -3909,24 +4197,21 @@
         <v>352</v>
       </c>
       <c r="AA5" t="s">
-        <v>608</v>
+        <v>564</v>
       </c>
       <c r="AB5" t="s">
-        <v>564</v>
+        <v>170</v>
       </c>
       <c r="AC5" t="s">
-        <v>170</v>
+        <v>581</v>
       </c>
       <c r="AD5" t="s">
-        <v>581</v>
+        <v>181</v>
       </c>
       <c r="AE5" t="s">
-        <v>181</v>
+        <v>417</v>
       </c>
       <c r="AF5" t="s">
-        <v>417</v>
-      </c>
-      <c r="AG5" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3953,7 +4238,7 @@
         <v>438</v>
       </c>
       <c r="J6" t="s">
-        <v>568</v>
+        <v>516</v>
       </c>
       <c r="K6" t="s">
         <v>586</v>
@@ -3983,24 +4268,21 @@
         <v>354</v>
       </c>
       <c r="AA6" t="s">
-        <v>609</v>
+        <v>96</v>
       </c>
       <c r="AB6" t="s">
-        <v>96</v>
+        <v>435</v>
       </c>
       <c r="AC6" t="s">
-        <v>435</v>
+        <v>175</v>
       </c>
       <c r="AD6" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AE6" t="s">
-        <v>182</v>
+        <v>418</v>
       </c>
       <c r="AF6" t="s">
-        <v>418</v>
-      </c>
-      <c r="AG6" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4020,6 +4302,9 @@
       <c r="I7" t="s">
         <v>437</v>
       </c>
+      <c r="J7" t="s">
+        <v>568</v>
+      </c>
       <c r="K7" t="s">
         <v>344</v>
       </c>
@@ -4048,24 +4333,21 @@
         <v>353</v>
       </c>
       <c r="AA7" t="s">
-        <v>610</v>
+        <v>97</v>
       </c>
       <c r="AB7" t="s">
-        <v>97</v>
+        <v>436</v>
       </c>
       <c r="AC7" t="s">
-        <v>436</v>
+        <v>176</v>
       </c>
       <c r="AD7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AE7" t="s">
-        <v>183</v>
+        <v>419</v>
       </c>
       <c r="AF7" t="s">
-        <v>419</v>
-      </c>
-      <c r="AG7" t="s">
         <v>518</v>
       </c>
     </row>
@@ -4113,24 +4395,21 @@
         <v>355</v>
       </c>
       <c r="AA8" t="s">
-        <v>611</v>
+        <v>98</v>
       </c>
       <c r="AB8" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="AC8" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AD8" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AE8" t="s">
-        <v>184</v>
+        <v>420</v>
       </c>
       <c r="AF8" t="s">
-        <v>420</v>
-      </c>
-      <c r="AG8" t="s">
         <v>519</v>
       </c>
     </row>
@@ -4175,18 +4454,15 @@
         <v>356</v>
       </c>
       <c r="AA9" t="s">
-        <v>612</v>
-      </c>
-      <c r="AB9" t="s">
         <v>205</v>
       </c>
+      <c r="AC9" t="s">
+        <v>178</v>
+      </c>
       <c r="AD9" t="s">
-        <v>178</v>
-      </c>
-      <c r="AE9" t="s">
         <v>185</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>520</v>
       </c>
     </row>
@@ -4222,18 +4498,15 @@
         <v>398</v>
       </c>
       <c r="AA10" t="s">
-        <v>613</v>
-      </c>
-      <c r="AB10" t="s">
         <v>253</v>
       </c>
+      <c r="AC10" t="s">
+        <v>582</v>
+      </c>
       <c r="AD10" t="s">
-        <v>582</v>
-      </c>
-      <c r="AE10" t="s">
         <v>186</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AF10" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4242,7 +4515,7 @@
         <v>343</v>
       </c>
       <c r="F11" t="s">
-        <v>563</v>
+        <v>650</v>
       </c>
       <c r="H11" t="s">
         <v>348</v>
@@ -4266,15 +4539,12 @@
         <v>604</v>
       </c>
       <c r="AA11" t="s">
-        <v>614</v>
-      </c>
-      <c r="AB11" t="s">
         <v>254</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>255</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4283,7 +4553,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>315</v>
+        <v>563</v>
       </c>
       <c r="H12" t="s">
         <v>270</v>
@@ -4307,15 +4577,12 @@
         <v>245</v>
       </c>
       <c r="AA12" t="s">
-        <v>615</v>
-      </c>
-      <c r="AB12" t="s">
         <v>99</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>187</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4324,7 +4591,7 @@
         <v>329</v>
       </c>
       <c r="F13" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="H13" t="s">
         <v>259</v>
@@ -4348,15 +4615,12 @@
         <v>246</v>
       </c>
       <c r="AA13" t="s">
-        <v>616</v>
-      </c>
-      <c r="AB13" t="s">
         <v>322</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>188</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>464</v>
       </c>
     </row>
@@ -4365,7 +4629,7 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>337</v>
       </c>
       <c r="H14" t="s">
         <v>312</v>
@@ -4386,15 +4650,12 @@
         <v>574</v>
       </c>
       <c r="AA14" t="s">
-        <v>617</v>
-      </c>
-      <c r="AB14" t="s">
         <v>100</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>189</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>490</v>
       </c>
     </row>
@@ -4403,7 +4664,7 @@
         <v>497</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
         <v>260</v>
@@ -4424,15 +4685,12 @@
         <v>251</v>
       </c>
       <c r="AA15" t="s">
-        <v>618</v>
-      </c>
-      <c r="AB15" t="s">
         <v>594</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>190</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>491</v>
       </c>
     </row>
@@ -4441,7 +4699,7 @@
         <v>467</v>
       </c>
       <c r="F16" t="s">
-        <v>377</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
         <v>261</v>
@@ -4462,15 +4720,12 @@
         <v>247</v>
       </c>
       <c r="AA16" t="s">
-        <v>619</v>
-      </c>
-      <c r="AB16" t="s">
         <v>575</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>191</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AF16" t="s">
         <v>492</v>
       </c>
     </row>
@@ -4479,7 +4734,7 @@
         <v>192</v>
       </c>
       <c r="F17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H17" t="s">
         <v>313</v>
@@ -4494,15 +4749,12 @@
         <v>248</v>
       </c>
       <c r="AA17" t="s">
-        <v>620</v>
-      </c>
-      <c r="AB17" t="s">
         <v>101</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>456</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AF17" t="s">
         <v>493</v>
       </c>
     </row>
@@ -4511,7 +4763,7 @@
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="H18" t="s">
         <v>87</v>
@@ -4526,12 +4778,9 @@
         <v>249</v>
       </c>
       <c r="AA18" t="s">
-        <v>621</v>
-      </c>
-      <c r="AB18" t="s">
         <v>73</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>465</v>
       </c>
     </row>
@@ -4540,7 +4789,7 @@
         <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>598</v>
+        <v>407</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -4549,12 +4798,9 @@
         <v>452</v>
       </c>
       <c r="AA19" t="s">
-        <v>622</v>
-      </c>
-      <c r="AB19" t="s">
         <v>483</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AF19" t="s">
         <v>494</v>
       </c>
     </row>
@@ -4563,7 +4809,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
@@ -4572,12 +4818,9 @@
         <v>81</v>
       </c>
       <c r="AA20" t="s">
-        <v>623</v>
-      </c>
-      <c r="AB20" t="s">
         <v>102</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AF20" t="s">
         <v>495</v>
       </c>
     </row>
@@ -4586,7 +4829,7 @@
         <v>388</v>
       </c>
       <c r="F21" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
@@ -4595,12 +4838,9 @@
         <v>82</v>
       </c>
       <c r="AA21" t="s">
-        <v>624</v>
-      </c>
-      <c r="AB21" t="s">
         <v>103</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" t="s">
         <v>496</v>
       </c>
     </row>
@@ -4609,7 +4849,7 @@
         <v>404</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>600</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
@@ -4618,12 +4858,9 @@
         <v>567</v>
       </c>
       <c r="AA22" t="s">
-        <v>625</v>
-      </c>
-      <c r="AB22" t="s">
         <v>104</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4632,7 +4869,7 @@
         <v>405</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
@@ -4641,12 +4878,9 @@
         <v>460</v>
       </c>
       <c r="AA23" t="s">
-        <v>626</v>
-      </c>
-      <c r="AB23" t="s">
         <v>105</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AF23" t="s">
         <v>521</v>
       </c>
     </row>
@@ -4655,7 +4889,7 @@
         <v>350</v>
       </c>
       <c r="F24" t="s">
-        <v>252</v>
+        <v>59</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
@@ -4664,12 +4898,9 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>627</v>
-      </c>
-      <c r="AB24" t="s">
         <v>484</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>522</v>
       </c>
     </row>
@@ -4678,7 +4909,7 @@
         <v>389</v>
       </c>
       <c r="F25" t="s">
-        <v>601</v>
+        <v>252</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
@@ -4687,12 +4918,9 @@
         <v>384</v>
       </c>
       <c r="AA25" t="s">
-        <v>628</v>
-      </c>
-      <c r="AB25" t="s">
         <v>106</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>523</v>
       </c>
     </row>
@@ -4701,7 +4929,7 @@
         <v>587</v>
       </c>
       <c r="F26" t="s">
-        <v>527</v>
+        <v>601</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
@@ -4710,21 +4938,18 @@
         <v>603</v>
       </c>
       <c r="AA26" t="s">
-        <v>629</v>
-      </c>
-      <c r="AB26" t="s">
         <v>531</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AF26" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>597</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>527</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
@@ -4733,21 +4958,18 @@
         <v>514</v>
       </c>
       <c r="AA27" t="s">
-        <v>630</v>
-      </c>
-      <c r="AB27" t="s">
         <v>107</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>317</v>
+        <v>60</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
@@ -4756,18 +4978,15 @@
         <v>83</v>
       </c>
       <c r="AA28" t="s">
-        <v>631</v>
-      </c>
-      <c r="AB28" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>317</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
@@ -4776,18 +4995,15 @@
         <v>426</v>
       </c>
       <c r="AA29" t="s">
-        <v>632</v>
-      </c>
-      <c r="AB29" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>439</v>
+        <v>61</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
@@ -4796,18 +5012,15 @@
         <v>44</v>
       </c>
       <c r="AA30" t="s">
-        <v>633</v>
-      </c>
-      <c r="AB30" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>406</v>
       </c>
       <c r="F31" t="s">
-        <v>222</v>
+        <v>439</v>
       </c>
       <c r="H31" t="s">
         <v>213</v>
@@ -4816,187 +5029,163 @@
         <v>45</v>
       </c>
       <c r="AA31" t="s">
-        <v>634</v>
-      </c>
-      <c r="AB31" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>406</v>
+        <v>224</v>
       </c>
       <c r="F32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
       </c>
       <c r="AA32" t="s">
-        <v>635</v>
-      </c>
-      <c r="AB32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>224</v>
-      </c>
       <c r="F33" t="s">
-        <v>458</v>
+        <v>223</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
       </c>
       <c r="AA33" t="s">
-        <v>636</v>
-      </c>
-      <c r="AB33" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H34" t="s">
         <v>499</v>
       </c>
       <c r="AA34" t="s">
-        <v>637</v>
-      </c>
-      <c r="AB34" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
       </c>
       <c r="AA35" t="s">
-        <v>638</v>
-      </c>
-      <c r="AB35" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>62</v>
+        <v>408</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
       </c>
       <c r="AA36" t="s">
-        <v>639</v>
-      </c>
-      <c r="AB36" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
       </c>
       <c r="AA37" t="s">
-        <v>640</v>
-      </c>
-      <c r="AB37" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
       </c>
       <c r="AA38" t="s">
-        <v>641</v>
-      </c>
-      <c r="AB38" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AA39" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AA40" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AA41" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H42" t="s">
         <v>208</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AA42" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H43" t="s">
         <v>528</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AA43" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>602</v>
+        <v>69</v>
       </c>
       <c r="H44" t="s">
         <v>285</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AA44" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="45">
+      <c r="F45" t="s">
+        <v>602</v>
+      </c>
       <c r="H45" t="s">
         <v>296</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AA45" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5004,7 +5193,7 @@
       <c r="H46" t="s">
         <v>297</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AA46" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5012,7 +5201,7 @@
       <c r="H47" t="s">
         <v>339</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AA47" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5020,7 +5209,7 @@
       <c r="H48" t="s">
         <v>338</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AA48" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5028,7 +5217,7 @@
       <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AA49" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5036,7 +5225,7 @@
       <c r="H50" t="s">
         <v>316</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AA50" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5044,7 +5233,7 @@
       <c r="H51" t="s">
         <v>335</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AA51" t="s">
         <v>595</v>
       </c>
     </row>
@@ -5052,7 +5241,7 @@
       <c r="H52" t="s">
         <v>361</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AA52" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5060,7 +5249,7 @@
       <c r="H53" t="s">
         <v>298</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AA53" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5068,7 +5257,7 @@
       <c r="H54" t="s">
         <v>349</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AA54" t="s">
         <v>525</v>
       </c>
     </row>
@@ -5076,7 +5265,7 @@
       <c r="H55" t="s">
         <v>327</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AA55" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5084,7 +5273,7 @@
       <c r="H56" t="s">
         <v>264</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AA56" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5092,7 +5281,7 @@
       <c r="H57" t="s">
         <v>288</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AA57" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5100,7 +5289,7 @@
       <c r="H58" t="s">
         <v>289</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AA58" t="s">
         <v>485</v>
       </c>
     </row>
@@ -5108,7 +5297,7 @@
       <c r="H59" t="s">
         <v>529</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AA59" t="s">
         <v>453</v>
       </c>
     </row>
@@ -5116,7 +5305,7 @@
       <c r="H60" t="s">
         <v>290</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AA60" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5124,7 +5313,7 @@
       <c r="H61" t="s">
         <v>299</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AA61" t="s">
         <v>342</v>
       </c>
     </row>
@@ -5132,7 +5321,7 @@
       <c r="H62" t="s">
         <v>308</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AA62" t="s">
         <v>454</v>
       </c>
     </row>
@@ -5140,7 +5329,7 @@
       <c r="H63" t="s">
         <v>333</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AA63" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5148,7 +5337,7 @@
       <c r="H64" t="s">
         <v>305</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AA64" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5156,7 +5345,7 @@
       <c r="H65" t="s">
         <v>306</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AA65" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5164,7 +5353,7 @@
       <c r="H66" t="s">
         <v>362</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AA66" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5172,7 +5361,7 @@
       <c r="H67" t="s">
         <v>363</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AA67" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5180,7 +5369,7 @@
       <c r="H68" t="s">
         <v>341</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AA68" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5188,7 +5377,7 @@
       <c r="H69" t="s">
         <v>309</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AA69" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5196,7 +5385,7 @@
       <c r="H70" t="s">
         <v>265</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AA70" t="s">
         <v>431</v>
       </c>
     </row>
@@ -5204,7 +5393,7 @@
       <c r="H71" t="s">
         <v>515</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AA71" t="s">
         <v>463</v>
       </c>
     </row>
@@ -5212,7 +5401,7 @@
       <c r="H72" t="s">
         <v>310</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AA72" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5220,7 +5409,7 @@
       <c r="H73" t="s">
         <v>402</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AA73" t="s">
         <v>381</v>
       </c>
     </row>
@@ -5228,7 +5417,7 @@
       <c r="H74" t="s">
         <v>300</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AA74" t="s">
         <v>432</v>
       </c>
     </row>
@@ -5236,7 +5425,7 @@
       <c r="H75" t="s">
         <v>403</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AA75" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5244,7 +5433,7 @@
       <c r="H76" t="s">
         <v>258</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AA76" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5252,7 +5441,7 @@
       <c r="H77" t="s">
         <v>500</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AA77" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5260,7 +5449,7 @@
       <c r="H78" t="s">
         <v>340</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AA78" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5268,7 +5457,7 @@
       <c r="H79" t="s">
         <v>276</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AA79" t="s">
         <v>642</v>
       </c>
     </row>
@@ -5276,7 +5465,7 @@
       <c r="H80" t="s">
         <v>282</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AA80" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5284,7 +5473,7 @@
       <c r="H81" t="s">
         <v>287</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AA81" t="s">
         <v>194</v>
       </c>
     </row>
@@ -5292,7 +5481,7 @@
       <c r="H82" t="s">
         <v>421</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AA82" t="s">
         <v>443</v>
       </c>
     </row>
@@ -5300,7 +5489,7 @@
       <c r="H83" t="s">
         <v>328</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AA83" t="s">
         <v>455</v>
       </c>
     </row>
@@ -5308,7 +5497,7 @@
       <c r="H84" t="s">
         <v>266</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AA84" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5316,7 +5505,7 @@
       <c r="H85" t="s">
         <v>277</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AA85" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5324,7 +5513,7 @@
       <c r="H86" t="s">
         <v>283</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AA86" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5332,7 +5521,7 @@
       <c r="H87" t="s">
         <v>272</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AA87" t="s">
         <v>486</v>
       </c>
     </row>
@@ -5340,7 +5529,7 @@
       <c r="H88" t="s">
         <v>517</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AA88" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5348,7 +5537,7 @@
       <c r="H89" t="s">
         <v>267</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AA89" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5356,7 +5545,7 @@
       <c r="H90" t="s">
         <v>284</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AA90" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5364,7 +5553,7 @@
       <c r="H91" t="s">
         <v>268</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AA91" t="s">
         <v>487</v>
       </c>
     </row>
@@ -5372,7 +5561,7 @@
       <c r="H92" t="s">
         <v>269</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AA92" t="s">
         <v>573</v>
       </c>
     </row>
@@ -5380,7 +5569,7 @@
       <c r="H93" t="s">
         <v>301</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AA93" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5388,7 +5577,7 @@
       <c r="H94" t="s">
         <v>307</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AA94" t="s">
         <v>444</v>
       </c>
     </row>
@@ -5396,7 +5585,7 @@
       <c r="H95" t="s">
         <v>291</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AA95" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5404,7 +5593,7 @@
       <c r="H96" t="s">
         <v>336</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AA96" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5412,7 +5601,7 @@
       <c r="H97" t="s">
         <v>273</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AA97" t="s">
         <v>535</v>
       </c>
     </row>
@@ -5420,272 +5609,272 @@
       <c r="H98" t="s">
         <v>274</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AA98" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="99">
-      <c r="AB99" t="s">
+      <c r="AA99" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="100">
-      <c r="AB100" t="s">
+      <c r="AA100" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="101">
-      <c r="AB101" t="s">
+      <c r="AA101" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="102">
-      <c r="AB102" t="s">
+      <c r="AA102" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="103">
-      <c r="AB103" t="s">
+      <c r="AA103" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="104">
-      <c r="AB104" t="s">
+      <c r="AA104" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="105">
-      <c r="AB105" t="s">
+      <c r="AA105" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="106">
-      <c r="AB106" t="s">
+      <c r="AA106" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="107">
-      <c r="AB107" t="s">
+      <c r="AA107" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="108">
-      <c r="AB108" t="s">
+      <c r="AA108" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="109">
-      <c r="AB109" t="s">
+      <c r="AA109" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="110">
-      <c r="AB110" t="s">
+      <c r="AA110" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="111">
-      <c r="AB111" t="s">
+      <c r="AA111" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="112">
-      <c r="AB112" t="s">
+      <c r="AA112" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="113">
-      <c r="AB113" t="s">
+      <c r="AA113" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="114">
-      <c r="AB114" t="s">
+      <c r="AA114" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="115">
-      <c r="AB115" t="s">
+      <c r="AA115" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="116">
-      <c r="AB116" t="s">
+      <c r="AA116" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="117">
-      <c r="AB117" t="s">
+      <c r="AA117" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="118">
-      <c r="AB118" t="s">
+      <c r="AA118" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="119">
-      <c r="AB119" t="s">
+      <c r="AA119" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="120">
-      <c r="AB120" t="s">
+      <c r="AA120" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="121">
-      <c r="AB121" t="s">
+      <c r="AA121" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="122">
-      <c r="AB122" t="s">
+      <c r="AA122" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="123">
-      <c r="AB123" t="s">
+      <c r="AA123" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="124">
-      <c r="AB124" t="s">
+      <c r="AA124" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="125">
-      <c r="AB125" t="s">
+      <c r="AA125" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="126">
-      <c r="AB126" t="s">
+      <c r="AA126" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="127">
-      <c r="AB127" t="s">
+      <c r="AA127" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="128">
-      <c r="AB128" t="s">
+      <c r="AA128" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="129">
-      <c r="AB129" t="s">
+      <c r="AA129" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="130">
-      <c r="AB130" t="s">
+      <c r="AA130" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="131">
-      <c r="AB131" t="s">
+      <c r="AA131" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="132">
-      <c r="AB132" t="s">
+      <c r="AA132" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="133">
-      <c r="AB133" t="s">
+      <c r="AA133" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="134">
-      <c r="AB134" t="s">
+      <c r="AA134" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="135">
-      <c r="AB135" t="s">
+      <c r="AA135" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="136">
-      <c r="AB136" t="s">
+      <c r="AA136" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="137">
-      <c r="AB137" t="s">
+      <c r="AA137" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="138">
-      <c r="AB138" t="s">
+      <c r="AA138" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="139">
-      <c r="AB139" t="s">
+      <c r="AA139" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="140">
-      <c r="AB140" t="s">
+      <c r="AA140" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="141">
-      <c r="AB141" t="s">
+      <c r="AA141" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="142">
-      <c r="AB142" t="s">
+      <c r="AA142" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="143">
-      <c r="AB143" t="s">
+      <c r="AA143" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="144">
-      <c r="AB144" t="s">
+      <c r="AA144" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="145">
-      <c r="AB145" t="s">
+      <c r="AA145" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="146">
-      <c r="AB146" t="s">
+      <c r="AA146" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="147">
-      <c r="AB147" t="s">
+      <c r="AA147" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="148">
-      <c r="AB148" t="s">
+      <c r="AA148" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="149">
-      <c r="AB149" t="s">
+      <c r="AA149" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="150">
-      <c r="AB150" t="s">
+      <c r="AA150" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="151">
-      <c r="AB151" t="s">
+      <c r="AA151" t="s">
         <v>649</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3883" uniqueCount="652">
   <si>
     <t>description</t>
   </si>
@@ -2036,7 +2036,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="62" x14ac:knownFonts="1">
+  <fonts count="96" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2434,8 +2434,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="80">
+  <fills count="128">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2476,6 +2690,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -2932,7 +3418,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="125">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3175,55 +3661,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="52" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="47" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="64" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="64" fontId="48" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="67" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="67" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="70" fontId="51" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="73" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="76" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="76" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="64" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="64" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="67" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="67" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="79" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="79" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="67" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="67" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="76" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="76" fontId="61" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="82" fontId="62" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="85" fontId="64" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="88" fontId="65" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="91" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="94" fontId="68" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="97" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="100" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="88" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="91" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="103" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="91" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="100" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="106" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="115" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="118" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="121" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="115" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="127" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="115" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
@@ -32,12 +32,12 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$31</definedName>
+    <definedName name="io">'#system'!$L$2:$L$32</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3883" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5093" uniqueCount="656">
   <si>
     <t>description</t>
   </si>
@@ -2029,6 +2029,18 @@
   </si>
   <si>
     <t>openFile(filePath)</t>
+  </si>
+  <si>
+    <t>checksum(var,file)</t>
+  </si>
+  <si>
+    <t>clearMail(var)</t>
+  </si>
+  <si>
+    <t>composeMail(var,action,value)</t>
+  </si>
+  <si>
+    <t>send(profile,var)</t>
   </si>
 </sst>
 </file>
@@ -2036,7 +2048,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="96" x14ac:knownFonts="1">
+  <fonts count="130" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2648,8 +2660,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="128">
+  <fills count="176">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2690,6 +2916,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3418,7 +3916,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="159">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3763,55 +4261,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="100" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="106" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="106" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="109" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="112" fontId="82" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="115" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="115" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="118" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="118" fontId="85" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="121" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="121" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="124" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="112" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="115" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="115" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="127" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="127" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="115" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="115" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="124" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="130" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="133" fontId="98" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="136" fontId="99" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="139" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="142" fontId="102" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="145" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="148" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="136" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="139" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="151" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="139" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="148" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="154" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="157" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="160" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="169" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="172" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="160" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="175" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="172" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4506,7 +5106,7 @@
         <v>478</v>
       </c>
       <c r="Q2" t="s">
-        <v>409</v>
+        <v>653</v>
       </c>
       <c r="R2" t="s">
         <v>422</v>
@@ -4600,6 +5200,9 @@
       <c r="P3" t="s">
         <v>479</v>
       </c>
+      <c r="Q3" t="s">
+        <v>654</v>
+      </c>
       <c r="R3" t="s">
         <v>423</v>
       </c>
@@ -4686,6 +5289,9 @@
       <c r="P4" t="s">
         <v>480</v>
       </c>
+      <c r="Q4" t="s">
+        <v>655</v>
+      </c>
       <c r="R4" t="s">
         <v>26</v>
       </c>
@@ -4897,7 +5503,7 @@
         <v>344</v>
       </c>
       <c r="L7" t="s">
-        <v>70</v>
+        <v>652</v>
       </c>
       <c r="N7" t="s">
         <v>311</v>
@@ -4959,7 +5565,7 @@
         <v>524</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -5018,7 +5624,7 @@
         <v>325</v>
       </c>
       <c r="L9" t="s">
-        <v>475</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -5068,7 +5674,7 @@
         <v>583</v>
       </c>
       <c r="L10" t="s">
-        <v>78</v>
+        <v>475</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -5112,7 +5718,7 @@
         <v>584</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="N11" t="s">
         <v>461</v>
@@ -5150,7 +5756,7 @@
         <v>442</v>
       </c>
       <c r="L12" t="s">
-        <v>476</v>
+        <v>37</v>
       </c>
       <c r="N12" t="s">
         <v>526</v>
@@ -5188,7 +5794,7 @@
         <v>318</v>
       </c>
       <c r="L13" t="s">
-        <v>382</v>
+        <v>476</v>
       </c>
       <c r="N13" t="s">
         <v>428</v>
@@ -5226,7 +5832,7 @@
         <v>319</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>382</v>
       </c>
       <c r="N14" t="s">
         <v>462</v>
@@ -5261,7 +5867,7 @@
         <v>320</v>
       </c>
       <c r="L15" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -5296,7 +5902,7 @@
         <v>321</v>
       </c>
       <c r="L16" t="s">
-        <v>477</v>
+        <v>41</v>
       </c>
       <c r="N16" t="s">
         <v>530</v>
@@ -5328,7 +5934,7 @@
         <v>313</v>
       </c>
       <c r="L17" t="s">
-        <v>79</v>
+        <v>477</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -5357,7 +5963,7 @@
         <v>87</v>
       </c>
       <c r="L18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -5383,7 +5989,7 @@
         <v>88</v>
       </c>
       <c r="L19" t="s">
-        <v>452</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s">
         <v>483</v>
@@ -5403,7 +6009,7 @@
         <v>292</v>
       </c>
       <c r="L20" t="s">
-        <v>81</v>
+        <v>452</v>
       </c>
       <c r="AA20" t="s">
         <v>102</v>
@@ -5423,7 +6029,7 @@
         <v>293</v>
       </c>
       <c r="L21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s">
         <v>103</v>
@@ -5443,7 +6049,7 @@
         <v>294</v>
       </c>
       <c r="L22" t="s">
-        <v>567</v>
+        <v>82</v>
       </c>
       <c r="AA22" t="s">
         <v>104</v>
@@ -5463,7 +6069,7 @@
         <v>295</v>
       </c>
       <c r="L23" t="s">
-        <v>460</v>
+        <v>567</v>
       </c>
       <c r="AA23" t="s">
         <v>105</v>
@@ -5483,7 +6089,7 @@
         <v>286</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
+        <v>460</v>
       </c>
       <c r="AA24" t="s">
         <v>484</v>
@@ -5503,7 +6109,7 @@
         <v>275</v>
       </c>
       <c r="L25" t="s">
-        <v>384</v>
+        <v>43</v>
       </c>
       <c r="AA25" t="s">
         <v>106</v>
@@ -5523,7 +6129,7 @@
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>603</v>
+        <v>384</v>
       </c>
       <c r="AA26" t="s">
         <v>531</v>
@@ -5543,7 +6149,7 @@
         <v>278</v>
       </c>
       <c r="L27" t="s">
-        <v>514</v>
+        <v>603</v>
       </c>
       <c r="AA27" t="s">
         <v>107</v>
@@ -5563,7 +6169,7 @@
         <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>83</v>
+        <v>514</v>
       </c>
       <c r="AA28" t="s">
         <v>108</v>
@@ -5580,7 +6186,7 @@
         <v>279</v>
       </c>
       <c r="L29" t="s">
-        <v>426</v>
+        <v>83</v>
       </c>
       <c r="AA29" t="s">
         <v>109</v>
@@ -5597,7 +6203,7 @@
         <v>280</v>
       </c>
       <c r="L30" t="s">
-        <v>44</v>
+        <v>426</v>
       </c>
       <c r="AA30" t="s">
         <v>110</v>
@@ -5614,7 +6220,7 @@
         <v>213</v>
       </c>
       <c r="L31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA31" t="s">
         <v>323</v>
@@ -5629,6 +6235,9 @@
       </c>
       <c r="H32" t="s">
         <v>271</v>
+      </c>
+      <c r="L32" t="s">
+        <v>45</v>
       </c>
       <c r="AA32" t="s">
         <v>111</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
@@ -37,12 +37,12 @@
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5093" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5702" uniqueCount="662">
   <si>
     <t>description</t>
   </si>
@@ -2041,6 +2041,24 @@
   </si>
   <si>
     <t>send(profile,var)</t>
+  </si>
+  <si>
+    <t>clearComposed(var)</t>
+  </si>
+  <si>
+    <t>compose(var,config,value)</t>
+  </si>
+  <si>
+    <t>sendComposed(profile,var)</t>
+  </si>
+  <si>
+    <t>ocr(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>savePageCount(pdf,var)</t>
+  </si>
+  <si>
+    <t>split(pdf,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -2048,7 +2066,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="130" x14ac:knownFonts="1">
+  <fonts count="147" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2874,8 +2892,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="176">
+  <fills count="200">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2916,6 +3041,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3916,7 +4177,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="176">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4363,55 +4624,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="148" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="154" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="154" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="157" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="157" fontId="115" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="160" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="160" fontId="116" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="163" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="118" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="166" fontId="119" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="169" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="169" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="172" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="172" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="160" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="160" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="163" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="175" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="175" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="163" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="172" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="172" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="181" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="184" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="187" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="190" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="193" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="196" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="184" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="187" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="199" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="187" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="196" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5106,7 +5418,7 @@
         <v>478</v>
       </c>
       <c r="Q2" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="R2" t="s">
         <v>422</v>
@@ -5201,7 +5513,7 @@
         <v>479</v>
       </c>
       <c r="Q3" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="R3" t="s">
         <v>423</v>
@@ -5290,7 +5602,7 @@
         <v>480</v>
       </c>
       <c r="Q4" t="s">
-        <v>655</v>
+        <v>409</v>
       </c>
       <c r="R4" t="s">
         <v>26</v>
@@ -5372,6 +5684,9 @@
       <c r="O5" t="s">
         <v>504</v>
       </c>
+      <c r="Q5" t="s">
+        <v>658</v>
+      </c>
       <c r="R5" t="s">
         <v>29</v>
       </c>
@@ -5806,7 +6121,7 @@
         <v>92</v>
       </c>
       <c r="S13" t="s">
-        <v>246</v>
+        <v>659</v>
       </c>
       <c r="AA13" t="s">
         <v>322</v>
@@ -5841,7 +6156,7 @@
         <v>93</v>
       </c>
       <c r="S14" t="s">
-        <v>574</v>
+        <v>246</v>
       </c>
       <c r="AA14" t="s">
         <v>100</v>
@@ -5876,7 +6191,7 @@
         <v>481</v>
       </c>
       <c r="S15" t="s">
-        <v>251</v>
+        <v>574</v>
       </c>
       <c r="AA15" t="s">
         <v>594</v>
@@ -5911,7 +6226,7 @@
         <v>482</v>
       </c>
       <c r="S16" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AA16" t="s">
         <v>575</v>
@@ -5940,7 +6255,7 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA17" t="s">
         <v>101</v>
@@ -5969,7 +6284,7 @@
         <v>42</v>
       </c>
       <c r="S18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA18" t="s">
         <v>73</v>
@@ -5991,6 +6306,9 @@
       <c r="L19" t="s">
         <v>80</v>
       </c>
+      <c r="S19" t="s">
+        <v>660</v>
+      </c>
       <c r="AA19" t="s">
         <v>483</v>
       </c>
@@ -6011,6 +6329,9 @@
       <c r="L20" t="s">
         <v>452</v>
       </c>
+      <c r="S20" t="s">
+        <v>249</v>
+      </c>
       <c r="AA20" t="s">
         <v>102</v>
       </c>
@@ -6030,6 +6351,9 @@
       </c>
       <c r="L21" t="s">
         <v>81</v>
+      </c>
+      <c r="S21" t="s">
+        <v>661</v>
       </c>
       <c r="AA21" t="s">
         <v>103</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
@@ -24,12 +24,12 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$45</definedName>
+    <definedName name="base">'#system'!$F$2:$F$47</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$32</definedName>
@@ -50,15 +50,17 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$34</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
+    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
+    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
+    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
+    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -73,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5702" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6345" uniqueCount="699">
   <si>
     <t>description</t>
   </si>
@@ -2059,6 +2061,117 @@
   </si>
   <si>
     <t>split(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>webmail</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>assertVarsNotPresent(vars)</t>
+  </si>
+  <si>
+    <t>assertVarsPresent(vars)</t>
+  </si>
+  <si>
+    <t>check(name)</t>
+  </si>
+  <si>
+    <t>checkByLocator(locator)</t>
+  </si>
+  <si>
+    <t>clickMenuByLocator(locator,menu)</t>
+  </si>
+  <si>
+    <t>contextMenu(name,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>contextMenuByLocator(locator,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>doubleClick(name)</t>
+  </si>
+  <si>
+    <t>doubleClickByLocator(locator)</t>
+  </si>
+  <si>
+    <t>rightClickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>rightClickOffset(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAllTableRows(var,csv)</t>
+  </si>
+  <si>
+    <t>saveComboOptions(var,name)</t>
+  </si>
+  <si>
+    <t>saveComboOptionsByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>saveTableRows(var,contains,csv)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow,csv)</t>
+  </si>
+  <si>
+    <t>screenshot(name,file)</t>
+  </si>
+  <si>
+    <t>screenshotByLocator(locator,file)</t>
+  </si>
+  <si>
+    <t>uncheck(name)</t>
+  </si>
+  <si>
+    <t>uncheckByLocator(locator)</t>
+  </si>
+  <si>
+    <t>renameSheet(file,worksheet,newName)</t>
+  </si>
+  <si>
+    <t>xls2xlsx(xlsFile,xlsxFile)</t>
+  </si>
+  <si>
+    <t>assertLocation(search)</t>
+  </si>
+  <si>
+    <t>openInTab(name,url)</t>
+  </si>
+  <si>
+    <t>delete(profile,id)</t>
+  </si>
+  <si>
+    <t>read(var,profile,id)</t>
+  </si>
+  <si>
+    <t>search(var,profile,searchCriteria,duration)</t>
+  </si>
+  <si>
+    <t>assertContains(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotContain(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotReadOnly(file)</t>
+  </si>
+  <si>
+    <t>assertPassword(file,password)</t>
+  </si>
+  <si>
+    <t>assertReadOnly(file)</t>
+  </si>
+  <si>
+    <t>extractText(var,file)</t>
+  </si>
+  <si>
+    <t>readOnly(file,password)</t>
+  </si>
+  <si>
+    <t>removeProtection(file)</t>
   </si>
 </sst>
 </file>
@@ -2066,7 +2179,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="147" x14ac:knownFonts="1">
+  <fonts count="164" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2999,8 +3112,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="200">
+  <fills count="224">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3041,6 +3261,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -4177,7 +4533,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="193">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4724,6 +5080,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="146" fillId="196" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="202" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="205" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="208" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="211" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="214" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="217" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="220" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="208" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="211" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="223" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="211" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="220" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5259,7 +5666,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG151"/>
+  <dimension ref="A1:AI153"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5359,12 +5766,18 @@
         <v>54</v>
       </c>
       <c r="AD1" t="s">
+        <v>662</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF1" t="s">
         <v>55</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>406</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5457,12 +5870,18 @@
         <v>172</v>
       </c>
       <c r="AD2" t="s">
+        <v>688</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>691</v>
+      </c>
+      <c r="AF2" t="s">
         <v>179</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>424</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5549,12 +5968,18 @@
         <v>173</v>
       </c>
       <c r="AD3" t="s">
+        <v>689</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>692</v>
+      </c>
+      <c r="AF3" t="s">
         <v>357</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>180</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5638,12 +6063,18 @@
         <v>174</v>
       </c>
       <c r="AD4" t="s">
+        <v>690</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF4" t="s">
         <v>180</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>416</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5714,13 +6145,16 @@
       <c r="AC5" t="s">
         <v>581</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
+        <v>694</v>
+      </c>
+      <c r="AF5" t="s">
         <v>181</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>417</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5785,13 +6219,16 @@
       <c r="AC6" t="s">
         <v>175</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
+        <v>695</v>
+      </c>
+      <c r="AF6" t="s">
         <v>182</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>418</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5850,13 +6287,16 @@
       <c r="AC7" t="s">
         <v>176</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
+        <v>696</v>
+      </c>
+      <c r="AF7" t="s">
         <v>183</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>419</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>518</v>
       </c>
     </row>
@@ -5874,7 +6314,7 @@
         <v>359</v>
       </c>
       <c r="I8" t="s">
-        <v>324</v>
+        <v>684</v>
       </c>
       <c r="K8" t="s">
         <v>524</v>
@@ -5912,13 +6352,16 @@
       <c r="AC8" t="s">
         <v>177</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
+        <v>697</v>
+      </c>
+      <c r="AF8" t="s">
         <v>184</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>420</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AH8" t="s">
         <v>519</v>
       </c>
     </row>
@@ -5936,7 +6379,7 @@
         <v>360</v>
       </c>
       <c r="I9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -5968,10 +6411,13 @@
       <c r="AC9" t="s">
         <v>178</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
+        <v>698</v>
+      </c>
+      <c r="AF9" t="s">
         <v>185</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AH9" t="s">
         <v>520</v>
       </c>
     </row>
@@ -5986,7 +6432,7 @@
         <v>302</v>
       </c>
       <c r="I10" t="s">
-        <v>583</v>
+        <v>325</v>
       </c>
       <c r="L10" t="s">
         <v>475</v>
@@ -6012,10 +6458,10 @@
       <c r="AC10" t="s">
         <v>582</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>186</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AH10" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6030,7 +6476,7 @@
         <v>348</v>
       </c>
       <c r="I11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L11" t="s">
         <v>78</v>
@@ -6050,10 +6496,10 @@
       <c r="AA11" t="s">
         <v>254</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
         <v>255</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AH11" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6068,7 +6514,7 @@
         <v>270</v>
       </c>
       <c r="I12" t="s">
-        <v>442</v>
+        <v>584</v>
       </c>
       <c r="L12" t="s">
         <v>37</v>
@@ -6088,10 +6534,10 @@
       <c r="AA12" t="s">
         <v>99</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>187</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AH12" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6106,7 +6552,7 @@
         <v>259</v>
       </c>
       <c r="I13" t="s">
-        <v>318</v>
+        <v>442</v>
       </c>
       <c r="L13" t="s">
         <v>476</v>
@@ -6126,10 +6572,10 @@
       <c r="AA13" t="s">
         <v>322</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>188</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AH13" t="s">
         <v>464</v>
       </c>
     </row>
@@ -6144,7 +6590,7 @@
         <v>312</v>
       </c>
       <c r="I14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L14" t="s">
         <v>382</v>
@@ -6161,10 +6607,10 @@
       <c r="AA14" t="s">
         <v>100</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
         <v>189</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AH14" t="s">
         <v>490</v>
       </c>
     </row>
@@ -6179,7 +6625,7 @@
         <v>260</v>
       </c>
       <c r="I15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -6196,10 +6642,10 @@
       <c r="AA15" t="s">
         <v>594</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
         <v>190</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AH15" t="s">
         <v>491</v>
       </c>
     </row>
@@ -6214,7 +6660,7 @@
         <v>261</v>
       </c>
       <c r="I16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L16" t="s">
         <v>41</v>
@@ -6231,10 +6677,10 @@
       <c r="AA16" t="s">
         <v>575</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AF16" t="s">
         <v>191</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AH16" t="s">
         <v>492</v>
       </c>
     </row>
@@ -6248,6 +6694,9 @@
       <c r="H17" t="s">
         <v>313</v>
       </c>
+      <c r="I17" t="s">
+        <v>321</v>
+      </c>
       <c r="L17" t="s">
         <v>477</v>
       </c>
@@ -6260,10 +6709,10 @@
       <c r="AA17" t="s">
         <v>101</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AF17" t="s">
         <v>456</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AH17" t="s">
         <v>493</v>
       </c>
     </row>
@@ -6277,6 +6726,9 @@
       <c r="H18" t="s">
         <v>87</v>
       </c>
+      <c r="I18" t="s">
+        <v>685</v>
+      </c>
       <c r="L18" t="s">
         <v>79</v>
       </c>
@@ -6289,7 +6741,7 @@
       <c r="AA18" t="s">
         <v>73</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AH18" t="s">
         <v>465</v>
       </c>
     </row>
@@ -6298,7 +6750,7 @@
         <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>407</v>
+        <v>664</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -6312,7 +6764,7 @@
       <c r="AA19" t="s">
         <v>483</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AH19" t="s">
         <v>494</v>
       </c>
     </row>
@@ -6321,7 +6773,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>598</v>
+        <v>665</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
@@ -6335,7 +6787,7 @@
       <c r="AA20" t="s">
         <v>102</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AH20" t="s">
         <v>495</v>
       </c>
     </row>
@@ -6344,7 +6796,7 @@
         <v>388</v>
       </c>
       <c r="F21" t="s">
-        <v>599</v>
+        <v>407</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
@@ -6358,7 +6810,7 @@
       <c r="AA21" t="s">
         <v>103</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AH21" t="s">
         <v>496</v>
       </c>
     </row>
@@ -6367,7 +6819,7 @@
         <v>404</v>
       </c>
       <c r="F22" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
@@ -6378,7 +6830,7 @@
       <c r="AA22" t="s">
         <v>104</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AH22" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6387,7 +6839,7 @@
         <v>405</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>599</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
@@ -6398,7 +6850,7 @@
       <c r="AA23" t="s">
         <v>105</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AH23" t="s">
         <v>521</v>
       </c>
     </row>
@@ -6407,7 +6859,7 @@
         <v>350</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>600</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
@@ -6418,7 +6870,7 @@
       <c r="AA24" t="s">
         <v>484</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AH24" t="s">
         <v>522</v>
       </c>
     </row>
@@ -6427,7 +6879,7 @@
         <v>389</v>
       </c>
       <c r="F25" t="s">
-        <v>252</v>
+        <v>58</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
@@ -6438,7 +6890,7 @@
       <c r="AA25" t="s">
         <v>106</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AH25" t="s">
         <v>523</v>
       </c>
     </row>
@@ -6447,18 +6899,18 @@
         <v>587</v>
       </c>
       <c r="F26" t="s">
-        <v>601</v>
+        <v>59</v>
       </c>
       <c r="H26" t="s">
-        <v>74</v>
+        <v>666</v>
       </c>
       <c r="L26" t="s">
         <v>384</v>
       </c>
       <c r="AA26" t="s">
-        <v>531</v>
-      </c>
-      <c r="AF26" t="s">
+        <v>686</v>
+      </c>
+      <c r="AH26" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6467,18 +6919,18 @@
         <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>527</v>
+        <v>252</v>
       </c>
       <c r="H27" t="s">
-        <v>278</v>
+        <v>667</v>
       </c>
       <c r="L27" t="s">
         <v>603</v>
       </c>
       <c r="AA27" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF27" t="s">
+        <v>531</v>
+      </c>
+      <c r="AH27" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6487,16 +6939,16 @@
         <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>601</v>
       </c>
       <c r="H28" t="s">
-        <v>262</v>
+        <v>74</v>
       </c>
       <c r="L28" t="s">
         <v>514</v>
       </c>
       <c r="AA28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -6504,898 +6956,959 @@
         <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>317</v>
+        <v>527</v>
       </c>
       <c r="H29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s">
         <v>83</v>
       </c>
       <c r="AA29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>662</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H30" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s">
         <v>426</v>
       </c>
       <c r="AA30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>406</v>
+        <v>663</v>
       </c>
       <c r="F31" t="s">
-        <v>439</v>
+        <v>317</v>
       </c>
       <c r="H31" t="s">
-        <v>213</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s">
         <v>44</v>
       </c>
       <c r="AA31" t="s">
-        <v>323</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>224</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="H32" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="L32" t="s">
         <v>45</v>
       </c>
       <c r="AA32" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>406</v>
+      </c>
+      <c r="F33" t="s">
+        <v>439</v>
+      </c>
+      <c r="H33" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA33" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33">
-      <c r="F33" t="s">
-        <v>223</v>
-      </c>
-      <c r="H33" t="s">
-        <v>281</v>
-      </c>
-      <c r="AA33" t="s">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>224</v>
+      </c>
+      <c r="F34" t="s">
+        <v>222</v>
+      </c>
+      <c r="H34" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA34" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="F34" t="s">
-        <v>458</v>
-      </c>
-      <c r="H34" t="s">
-        <v>499</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>459</v>
+        <v>223</v>
       </c>
       <c r="H35" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="AA35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="H36" t="s">
-        <v>326</v>
+        <v>499</v>
       </c>
       <c r="AA36" t="s">
-        <v>532</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>62</v>
+        <v>459</v>
       </c>
       <c r="H37" t="s">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="AA37" t="s">
-        <v>115</v>
+        <v>532</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>63</v>
+        <v>408</v>
       </c>
       <c r="H38" t="s">
-        <v>257</v>
+        <v>326</v>
       </c>
       <c r="AA38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H39" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA39" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H40" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AA40" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H41" t="s">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="AA41" t="s">
-        <v>334</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H42" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="AA42" t="s">
-        <v>430</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H43" t="s">
-        <v>528</v>
+        <v>668</v>
       </c>
       <c r="AA43" t="s">
-        <v>565</v>
+        <v>430</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H44" t="s">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="AA44" t="s">
-        <v>385</v>
+        <v>565</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" t="s">
+        <v>69</v>
+      </c>
+      <c r="H46" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" t="s">
         <v>602</v>
       </c>
-      <c r="H45" t="s">
-        <v>296</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="H46" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA46" t="s">
+      <c r="H47" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA47" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="H47" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="48">
       <c r="H48" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="AA48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
       <c r="H49" t="s">
-        <v>207</v>
+        <v>297</v>
       </c>
       <c r="AA49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50">
       <c r="H50" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="AA50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51">
       <c r="H51" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AA51" t="s">
-        <v>595</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52">
       <c r="H52" t="s">
-        <v>361</v>
+        <v>207</v>
       </c>
       <c r="AA52" t="s">
-        <v>209</v>
+        <v>595</v>
       </c>
     </row>
     <row r="53">
       <c r="H53" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="AA53" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54">
       <c r="H54" t="s">
-        <v>349</v>
+        <v>669</v>
       </c>
       <c r="AA54" t="s">
-        <v>525</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55">
       <c r="H55" t="s">
-        <v>327</v>
+        <v>670</v>
       </c>
       <c r="AA55" t="s">
-        <v>124</v>
+        <v>525</v>
       </c>
     </row>
     <row r="56">
       <c r="H56" t="s">
-        <v>264</v>
+        <v>671</v>
       </c>
       <c r="AA56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57">
       <c r="H57" t="s">
-        <v>288</v>
+        <v>672</v>
       </c>
       <c r="AA57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58">
       <c r="H58" t="s">
-        <v>289</v>
+        <v>335</v>
       </c>
       <c r="AA58" t="s">
-        <v>485</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59">
       <c r="H59" t="s">
-        <v>529</v>
+        <v>361</v>
       </c>
       <c r="AA59" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
     </row>
     <row r="60">
       <c r="H60" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AA60" t="s">
-        <v>127</v>
+        <v>453</v>
       </c>
     </row>
     <row r="61">
       <c r="H61" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="AA61" t="s">
-        <v>342</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62">
       <c r="H62" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="AA62" t="s">
-        <v>454</v>
+        <v>342</v>
       </c>
     </row>
     <row r="63">
       <c r="H63" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="AA63" t="s">
-        <v>128</v>
+        <v>454</v>
       </c>
     </row>
     <row r="64">
       <c r="H64" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="AA64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65">
       <c r="H65" t="s">
-        <v>306</v>
+        <v>529</v>
       </c>
       <c r="AA65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66">
       <c r="H66" t="s">
-        <v>362</v>
+        <v>290</v>
       </c>
       <c r="AA66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67">
       <c r="H67" t="s">
-        <v>363</v>
+        <v>673</v>
       </c>
       <c r="AA67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68">
       <c r="H68" t="s">
-        <v>341</v>
+        <v>674</v>
       </c>
       <c r="AA68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69">
       <c r="H69" t="s">
-        <v>309</v>
+        <v>675</v>
       </c>
       <c r="AA69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70">
       <c r="H70" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="AA70" t="s">
-        <v>431</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71">
       <c r="H71" t="s">
-        <v>515</v>
+        <v>676</v>
       </c>
       <c r="AA71" t="s">
-        <v>463</v>
+        <v>431</v>
       </c>
     </row>
     <row r="72">
       <c r="H72" t="s">
-        <v>310</v>
+        <v>677</v>
       </c>
       <c r="AA72" t="s">
-        <v>210</v>
+        <v>463</v>
       </c>
     </row>
     <row r="73">
       <c r="H73" t="s">
-        <v>402</v>
+        <v>333</v>
       </c>
       <c r="AA73" t="s">
-        <v>381</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74">
       <c r="H74" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="AA74" t="s">
-        <v>432</v>
+        <v>381</v>
       </c>
     </row>
     <row r="75">
       <c r="H75" t="s">
-        <v>403</v>
+        <v>306</v>
       </c>
       <c r="AA75" t="s">
-        <v>135</v>
+        <v>432</v>
       </c>
     </row>
     <row r="76">
       <c r="H76" t="s">
-        <v>258</v>
+        <v>362</v>
       </c>
       <c r="AA76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77">
       <c r="H77" t="s">
-        <v>500</v>
+        <v>363</v>
       </c>
       <c r="AA77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78">
       <c r="H78" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AA78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79">
       <c r="H79" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="AA79" t="s">
-        <v>642</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="AA80" t="s">
-        <v>193</v>
+        <v>642</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
-        <v>287</v>
+        <v>515</v>
       </c>
       <c r="AA81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
-        <v>421</v>
+        <v>310</v>
       </c>
       <c r="AA82" t="s">
-        <v>443</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
-        <v>328</v>
+        <v>402</v>
       </c>
       <c r="AA83" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
-        <v>266</v>
+        <v>678</v>
       </c>
       <c r="AA84" t="s">
-        <v>139</v>
+        <v>455</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
-        <v>277</v>
+        <v>679</v>
       </c>
       <c r="AA85" t="s">
-        <v>140</v>
+        <v>687</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="AA86" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
-        <v>272</v>
+        <v>500</v>
       </c>
       <c r="AA87" t="s">
-        <v>486</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
-        <v>517</v>
+        <v>340</v>
       </c>
       <c r="AA88" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="AA89" t="s">
-        <v>143</v>
+        <v>486</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
-        <v>284</v>
+        <v>680</v>
       </c>
       <c r="AA90" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
-        <v>268</v>
+        <v>681</v>
       </c>
       <c r="AA91" t="s">
-        <v>487</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="AA92" t="s">
-        <v>573</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
-        <v>301</v>
+        <v>421</v>
       </c>
       <c r="AA93" t="s">
-        <v>196</v>
+        <v>487</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AA94" t="s">
-        <v>444</v>
+        <v>573</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="AA95" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="AA96" t="s">
-        <v>198</v>
+        <v>444</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="AA97" t="s">
-        <v>535</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="H99" t="s">
+        <v>517</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="H100" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="H101" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="H102" t="s">
+        <v>682</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="H103" t="s">
+        <v>683</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="H104" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="H105" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="H106" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="H107" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="H108" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="H109" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="H110" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="H111" t="s">
         <v>274</v>
       </c>
-      <c r="AA98" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="AA99" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="AA100" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="AA101" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="AA102" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="AA103" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="AA104" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="AA105" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="AA106" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="AA107" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="AA108" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="AA109" t="s">
+      <c r="AA111" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="AA110" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="AA111" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>488</v>
+        <v>576</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>643</v>
+        <v>204</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>644</v>
+        <v>488</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>512</v>
+        <v>643</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>145</v>
+        <v>644</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>375</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>146</v>
+        <v>513</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>147</v>
+        <v>375</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>577</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>149</v>
+        <v>577</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>578</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>151</v>
+        <v>578</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>579</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>157</v>
+        <v>579</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>596</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>533</v>
+        <v>596</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>161</v>
+        <v>533</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>645</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
-        <v>580</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145">
       <c r="AA145" t="s">
-        <v>164</v>
+        <v>645</v>
       </c>
     </row>
     <row r="146">
       <c r="AA146" t="s">
-        <v>165</v>
+        <v>580</v>
       </c>
     </row>
     <row r="147">
       <c r="AA147" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148">
       <c r="AA148" t="s">
-        <v>646</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149">
       <c r="AA149" t="s">
-        <v>647</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150">
       <c r="AA150" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="151">
       <c r="AA151" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AA152" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="AA153" t="s">
         <v>649</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ScenarioRef.xlsx
@@ -25,42 +25,45 @@
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="base">'#system'!$F$2:$F$47</definedName>
-    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
+    <definedName name="csv">'#system'!$H$2:$H$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
-    <definedName name="external">'#system'!$J$2:$J$7</definedName>
-    <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$32</definedName>
-    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
-    <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
-    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="desktop">'#system'!$I$2:$I$113</definedName>
+    <definedName name="excel">'#system'!$J$2:$J$18</definedName>
+    <definedName name="external">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$L$2:$L$8</definedName>
+    <definedName name="io">'#system'!$M$2:$M$33</definedName>
+    <definedName name="jms">'#system'!$O$2:$O$4</definedName>
+    <definedName name="json">'#system'!$P$2:$P$19</definedName>
+    <definedName name="localdb">'#system'!$Q$2:$Q$13</definedName>
+    <definedName name="macro">'#system'!$R$2:$R$4</definedName>
+    <definedName name="mail">'#system'!$S$2:$S$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
-    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
-    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
-    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
-    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
-    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$34</definedName>
+    <definedName name="number">'#system'!$U$2:$U$16</definedName>
+    <definedName name="pdf">'#system'!$V$2:$V$21</definedName>
+    <definedName name="rdbms">'#system'!$W$2:$W$9</definedName>
+    <definedName name="redis">'#system'!$X$2:$X$10</definedName>
+    <definedName name="sms">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="sound">'#system'!$Z$2:$Z$5</definedName>
+    <definedName name="ssh">'#system'!$AA$2:$AA$9</definedName>
+    <definedName name="step">'#system'!$AB$2:$AB$4</definedName>
+    <definedName name="step.inTime">'#system'!$AC$2:$AC$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$38</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
-    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
-    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
-    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
-    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
+    <definedName name="tn.5250">'#system'!$AD$2:$AD$44</definedName>
+    <definedName name="web">'#system'!$AE$2:$AE$160</definedName>
+    <definedName name="webalert">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="webcookie">'#system'!$AG$2:$AG$10</definedName>
+    <definedName name="ws">'#system'!$AJ$2:$AJ$20</definedName>
+    <definedName name="ws.async">'#system'!$AK$2:$AK$8</definedName>
+    <definedName name="xml">'#system'!$AL$2:$AL$27</definedName>
+    <definedName name="webmail">'#system'!$AH$2:$AH$6</definedName>
+    <definedName name="word">'#system'!$AI$2:$AI$9</definedName>
+    <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
+    <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
+    <definedName name="mobile">'#system'!$T$2:$T$51</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -75,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6345" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7126" uniqueCount="785">
   <si>
     <t>description</t>
   </si>
@@ -2172,6 +2175,264 @@
   </si>
   <si>
     <t>removeProtection(file)</t>
+  </si>
+  <si>
+    <t>browserstack</t>
+  </si>
+  <si>
+    <t>javaui</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>deleteApp(profile,appId,resultVar)</t>
+  </si>
+  <si>
+    <t>listBrowsers(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>listDevices(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>saveUploadApps(profile,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>updateSessionStatus(profile,status,reason,resultVar)</t>
+  </si>
+  <si>
+    <t>uploadApp(profile,app,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>focusFirstTableRow()</t>
+  </si>
+  <si>
+    <t>focusLastTableRow()</t>
+  </si>
+  <si>
+    <t>assertFileContent(file,match,asLines)</t>
+  </si>
+  <si>
+    <t>assertEditable(name)</t>
+  </si>
+  <si>
+    <t>assertPresence(name)</t>
+  </si>
+  <si>
+    <t>assertText(name,text)</t>
+  </si>
+  <si>
+    <t>clickMenu(menus)</t>
+  </si>
+  <si>
+    <t>startApp(profile)</t>
+  </si>
+  <si>
+    <t>startLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>startLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>stopApp(profile)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>typeText(name,text)</t>
+  </si>
+  <si>
+    <t>waitForWindowTitle(title)</t>
+  </si>
+  <si>
+    <t>sanitize(var,json)</t>
+  </si>
+  <si>
+    <t>assertAlertPresent(text)</t>
+  </si>
+  <si>
+    <t>assertAttribute(locator,attribute,text)</t>
+  </si>
+  <si>
+    <t>assertCount(locator,count)</t>
+  </si>
+  <si>
+    <t>assertElementNotVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertElementVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertLocked()</t>
+  </si>
+  <si>
+    <t>assertTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>back()</t>
+  </si>
+  <si>
+    <t>clearAlert(option)</t>
+  </si>
+  <si>
+    <t>clearNotification()</t>
+  </si>
+  <si>
+    <t>clickByDisplayText(text)</t>
+  </si>
+  <si>
+    <t>clickUntilNotFound(locator,waitMs,max)</t>
+  </si>
+  <si>
+    <t>closeApp()</t>
+  </si>
+  <si>
+    <t>copyToLocal(file,folder)</t>
+  </si>
+  <si>
+    <t>doubleClick(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>forward()</t>
+  </si>
+  <si>
+    <t>hideKeyboard()</t>
+  </si>
+  <si>
+    <t>home()</t>
+  </si>
+  <si>
+    <t>launchApp(app)</t>
+  </si>
+  <si>
+    <t>lock()</t>
+  </si>
+  <si>
+    <t>longClick(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>orientation(mode)</t>
+  </si>
+  <si>
+    <t>postScreenshot$nexial_core(target,locator)</t>
+  </si>
+  <si>
+    <t>recentApps()</t>
+  </si>
+  <si>
+    <t>saveAlertText(var)</t>
+  </si>
+  <si>
+    <t>saveAttributes(var,locator,attribute)</t>
+  </si>
+  <si>
+    <t>saveLockStatus(var)</t>
+  </si>
+  <si>
+    <t>scroll(locator,direction)</t>
+  </si>
+  <si>
+    <t>scrollUntilFound(scrollTarget,direction,searchFor,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>select(locator,item)</t>
+  </si>
+  <si>
+    <t>selectLocalFile(device,folder,filename)</t>
+  </si>
+  <si>
+    <t>sendSms(phone,message)</t>
+  </si>
+  <si>
+    <t>shake()</t>
+  </si>
+  <si>
+    <t>shutdown(profile)</t>
+  </si>
+  <si>
+    <t>slide(start,end)</t>
+  </si>
+  <si>
+    <t>type(locator,text)</t>
+  </si>
+  <si>
+    <t>unlock()</t>
+  </si>
+  <si>
+    <t>use(profile)</t>
+  </si>
+  <si>
+    <t>zoom(start1,end1,start2,end2)</t>
+  </si>
+  <si>
+    <t>compare$nexial_core(expects,actual,expectMatch,messagePrefix)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedColumns(matches,keystrokes)</t>
+  </si>
+  <si>
+    <t>waitUntilMessagePresent(message,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilProcessed(maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTextPresent(text,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTitlePresent(title,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementsEnabled(prefix)</t>
+  </si>
+  <si>
+    <t>assertElementsVisible(prefix)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsAbsent(locator,options)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsPresent(locator,options)</t>
+  </si>
+  <si>
+    <t>clickIfPresent(locator)</t>
+  </si>
+  <si>
+    <t>saveCssValue(var,locator,property)</t>
+  </si>
+  <si>
+    <t>selectDropdown(locator,optLocator,optText)</t>
+  </si>
+  <si>
+    <t>toast(message,duration,darkMode)</t>
+  </si>
+  <si>
+    <t>waitForElementTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>waitWhileElementNotPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>attachment(profile,id,attachment,saveTo)</t>
+  </si>
+  <si>
+    <t>attachments(profile,id,saveDir)</t>
+  </si>
+  <si>
+    <t>clearHeaders(headers)</t>
+  </si>
+  <si>
+    <t>graphql(url,body,var)</t>
+  </si>
+  <si>
+    <t>oauthProfile(var,profile)</t>
   </si>
 </sst>
 </file>
@@ -2179,7 +2440,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="164" x14ac:knownFonts="1">
+  <fonts count="181" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3219,8 +3480,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="224">
+  <fills count="248">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3261,6 +3629,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -4533,7 +5037,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="210">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5031,106 +5535,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="172" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="178" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="181" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="181" fontId="132" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="184" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="184" fontId="133" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="187" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="187" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="190" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="190" fontId="136" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="193" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="193" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="196" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="196" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="184" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="184" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="187" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="187" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="199" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="199" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="187" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="187" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="196" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="196" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="202" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="202" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="205" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="205" fontId="149" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="208" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="208" fontId="150" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="211" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="211" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="214" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="214" fontId="153" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="217" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="217" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="220" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="220" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="208" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="208" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="211" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="211" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="223" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="223" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="211" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="211" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="220" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="220" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="226" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="229" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="235" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="238" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="241" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="244" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="235" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="247" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="235" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="244" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5666,7 +6221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI153"/>
+  <dimension ref="A1:AM160"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5697,87 +6252,99 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
+        <v>699</v>
+      </c>
+      <c r="H1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>343</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>700</v>
+      </c>
+      <c r="O1" t="s">
         <v>329</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>497</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>467</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>192</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>701</v>
+      </c>
+      <c r="U1" t="s">
         <v>50</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>236</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>51</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>388</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>404</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>405</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>350</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>389</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>587</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
+        <v>597</v>
+      </c>
+      <c r="AE1" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>53</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>662</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>663</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>55</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>406</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5801,87 +6368,99 @@
         <v>56</v>
       </c>
       <c r="G2" t="s">
+        <v>702</v>
+      </c>
+      <c r="H2" t="s">
         <v>70</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>72</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>440</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>651</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>585</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>311</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>379</v>
+      </c>
+      <c r="O2" t="s">
         <v>376</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>427</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>501</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>478</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>656</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>724</v>
+      </c>
+      <c r="U2" t="s">
         <v>422</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>250</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>589</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>390</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>411</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>412</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>373</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>399</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>591</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
+        <v>605</v>
+      </c>
+      <c r="AE2" t="s">
         <v>94</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
         <v>167</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>172</v>
       </c>
-      <c r="AD2" t="s">
-        <v>688</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
+        <v>780</v>
+      </c>
+      <c r="AI2" t="s">
         <v>691</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AJ2" t="s">
         <v>179</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>424</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5902,84 +6481,96 @@
         <v>448</v>
       </c>
       <c r="G3" t="s">
+        <v>703</v>
+      </c>
+      <c r="H3" t="s">
         <v>358</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>86</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>47</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>77</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>345</v>
       </c>
-      <c r="L3" t="s">
-        <v>337</v>
-      </c>
       <c r="M3" t="s">
+        <v>710</v>
+      </c>
+      <c r="N3" t="s">
+        <v>711</v>
+      </c>
+      <c r="O3" t="s">
         <v>330</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>84</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>502</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>479</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>657</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
+        <v>725</v>
+      </c>
+      <c r="U3" t="s">
         <v>423</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>237</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>590</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>391</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>413</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>374</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>400</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AC3" t="s">
         <v>592</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
+        <v>606</v>
+      </c>
+      <c r="AE3" t="s">
         <v>95</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AF3" t="s">
         <v>168</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AG3" t="s">
         <v>173</v>
       </c>
-      <c r="AD3" t="s">
-        <v>689</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
+        <v>781</v>
+      </c>
+      <c r="AI3" t="s">
         <v>692</v>
       </c>
-      <c r="AF3" t="s">
-        <v>357</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="AJ3" t="s">
+        <v>782</v>
+      </c>
+      <c r="AK3" t="s">
         <v>180</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AL3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5997,84 +6588,96 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
+        <v>704</v>
+      </c>
+      <c r="H4" t="s">
         <v>71</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>379</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>441</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>473</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>346</v>
       </c>
-      <c r="L4" t="s">
-        <v>569</v>
-      </c>
       <c r="M4" t="s">
+        <v>337</v>
+      </c>
+      <c r="N4" t="s">
+        <v>380</v>
+      </c>
+      <c r="O4" t="s">
         <v>331</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>25</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>503</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>480</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>409</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
+        <v>726</v>
+      </c>
+      <c r="U4" t="s">
         <v>26</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>238</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>214</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>392</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
         <v>414</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>351</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" t="s">
         <v>401</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
         <v>593</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
+        <v>607</v>
+      </c>
+      <c r="AE4" t="s">
         <v>570</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AF4" t="s">
         <v>169</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AG4" t="s">
         <v>174</v>
       </c>
-      <c r="AD4" t="s">
-        <v>690</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
+        <v>688</v>
+      </c>
+      <c r="AI4" t="s">
         <v>693</v>
       </c>
-      <c r="AF4" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AJ4" t="s">
+        <v>357</v>
+      </c>
+      <c r="AK4" t="s">
         <v>416</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AL4" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6092,69 +6695,84 @@
         <v>449</v>
       </c>
       <c r="G5" t="s">
+        <v>705</v>
+      </c>
+      <c r="H5" t="s">
         <v>425</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>534</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>450</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>474</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>347</v>
       </c>
-      <c r="L5" t="s">
-        <v>235</v>
+      <c r="M5" t="s">
+        <v>569</v>
       </c>
       <c r="N5" t="s">
+        <v>712</v>
+      </c>
+      <c r="P5" t="s">
         <v>85</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>504</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>658</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
+        <v>594</v>
+      </c>
+      <c r="U5" t="s">
         <v>29</v>
       </c>
-      <c r="S5" t="s">
+      <c r="V5" t="s">
         <v>239</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" t="s">
         <v>215</v>
       </c>
-      <c r="U5" t="s">
+      <c r="X5" t="s">
         <v>393</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Z5" t="s">
         <v>415</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>352</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
+        <v>608</v>
+      </c>
+      <c r="AE5" t="s">
         <v>564</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AF5" t="s">
         <v>170</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AG5" t="s">
         <v>581</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
+        <v>689</v>
+      </c>
+      <c r="AI5" t="s">
         <v>694</v>
       </c>
-      <c r="AF5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG5" t="s">
+      <c r="AJ5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK5" t="s">
         <v>417</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AL5" t="s">
         <v>227</v>
       </c>
     </row>
@@ -6172,69 +6790,84 @@
         <v>27</v>
       </c>
       <c r="G6" t="s">
+        <v>706</v>
+      </c>
+      <c r="H6" t="s">
         <v>472</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>332</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>438</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>516</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>586</v>
       </c>
-      <c r="L6" t="s">
-        <v>451</v>
+      <c r="M6" t="s">
+        <v>235</v>
       </c>
       <c r="N6" t="s">
+        <v>713</v>
+      </c>
+      <c r="P6" t="s">
         <v>28</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>505</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
+        <v>575</v>
+      </c>
+      <c r="U6" t="s">
         <v>30</v>
       </c>
-      <c r="S6" t="s">
+      <c r="V6" t="s">
         <v>240</v>
       </c>
-      <c r="T6" t="s">
+      <c r="W6" t="s">
         <v>216</v>
       </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>394</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AA6" t="s">
         <v>354</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
+        <v>609</v>
+      </c>
+      <c r="AE6" t="s">
         <v>96</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AF6" t="s">
         <v>435</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AG6" t="s">
         <v>175</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
+        <v>690</v>
+      </c>
+      <c r="AI6" t="s">
         <v>695</v>
       </c>
-      <c r="AF6" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG6" t="s">
+      <c r="AJ6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK6" t="s">
         <v>418</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AL6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>699</v>
       </c>
       <c r="B7" t="s">
         <v>370</v>
@@ -6242,67 +6875,79 @@
       <c r="F7" t="s">
         <v>221</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
+        <v>707</v>
+      </c>
+      <c r="I7" t="s">
         <v>380</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>437</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>568</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>344</v>
       </c>
-      <c r="L7" t="s">
-        <v>652</v>
+      <c r="M7" t="s">
+        <v>451</v>
       </c>
       <c r="N7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P7" t="s">
         <v>311</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>506</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
+        <v>101</v>
+      </c>
+      <c r="U7" t="s">
         <v>32</v>
       </c>
-      <c r="S7" t="s">
+      <c r="V7" t="s">
         <v>241</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>217</v>
       </c>
-      <c r="U7" t="s">
+      <c r="X7" t="s">
         <v>395</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AA7" t="s">
         <v>353</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
+        <v>610</v>
+      </c>
+      <c r="AE7" t="s">
         <v>97</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AF7" t="s">
         <v>436</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AG7" t="s">
         <v>176</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AI7" t="s">
         <v>696</v>
       </c>
-      <c r="AF7" t="s">
-        <v>183</v>
-      </c>
-      <c r="AG7" t="s">
+      <c r="AJ7" t="s">
+        <v>783</v>
+      </c>
+      <c r="AK7" t="s">
         <v>419</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AL7" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>371</v>
@@ -6310,64 +6955,73 @@
       <c r="F8" t="s">
         <v>314</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>359</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>684</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>524</v>
       </c>
-      <c r="L8" t="s">
-        <v>70</v>
+      <c r="M8" t="s">
+        <v>652</v>
       </c>
       <c r="N8" t="s">
+        <v>714</v>
+      </c>
+      <c r="P8" t="s">
         <v>33</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>507</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
+        <v>727</v>
+      </c>
+      <c r="U8" t="s">
         <v>89</v>
       </c>
-      <c r="S8" t="s">
+      <c r="V8" t="s">
         <v>242</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
         <v>383</v>
       </c>
-      <c r="U8" t="s">
+      <c r="X8" t="s">
         <v>396</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AA8" t="s">
         <v>355</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
+        <v>611</v>
+      </c>
+      <c r="AE8" t="s">
         <v>98</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AF8" t="s">
         <v>171</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AG8" t="s">
         <v>177</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AI8" t="s">
         <v>697</v>
       </c>
-      <c r="AF8" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AJ8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK8" t="s">
         <v>420</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AL8" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>372</v>
@@ -6375,1541 +7029,1870 @@
       <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>360</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>324</v>
       </c>
-      <c r="L9" t="s">
-        <v>16</v>
+      <c r="M9" t="s">
+        <v>70</v>
       </c>
       <c r="N9" t="s">
+        <v>715</v>
+      </c>
+      <c r="P9" t="s">
         <v>34</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>508</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
+        <v>73</v>
+      </c>
+      <c r="U9" t="s">
         <v>90</v>
       </c>
-      <c r="S9" t="s">
+      <c r="V9" t="s">
         <v>243</v>
       </c>
-      <c r="T9" t="s">
+      <c r="W9" t="s">
         <v>410</v>
       </c>
-      <c r="U9" t="s">
+      <c r="X9" t="s">
         <v>397</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AA9" t="s">
         <v>356</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
+        <v>612</v>
+      </c>
+      <c r="AE9" t="s">
         <v>205</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AG9" t="s">
         <v>178</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AI9" t="s">
         <v>698</v>
       </c>
-      <c r="AF9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH9" t="s">
+      <c r="AJ9" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL9" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
         <v>311</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>302</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>325</v>
       </c>
-      <c r="L10" t="s">
-        <v>475</v>
+      <c r="M10" t="s">
+        <v>16</v>
       </c>
       <c r="N10" t="s">
+        <v>716</v>
+      </c>
+      <c r="P10" t="s">
         <v>35</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>509</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
+        <v>728</v>
+      </c>
+      <c r="U10" t="s">
         <v>429</v>
       </c>
-      <c r="S10" t="s">
+      <c r="V10" t="s">
         <v>244</v>
       </c>
-      <c r="U10" t="s">
+      <c r="X10" t="s">
         <v>398</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AD10" t="s">
+        <v>613</v>
+      </c>
+      <c r="AE10" t="s">
         <v>253</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AG10" t="s">
         <v>582</v>
       </c>
-      <c r="AF10" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH10" t="s">
+      <c r="AJ10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL10" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>650</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>348</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>583</v>
       </c>
-      <c r="L11" t="s">
-        <v>78</v>
+      <c r="M11" t="s">
+        <v>475</v>
       </c>
       <c r="N11" t="s">
+        <v>717</v>
+      </c>
+      <c r="P11" t="s">
         <v>461</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>510</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
+        <v>483</v>
+      </c>
+      <c r="U11" t="s">
         <v>91</v>
       </c>
-      <c r="S11" t="s">
+      <c r="V11" t="s">
         <v>604</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
+        <v>614</v>
+      </c>
+      <c r="AE11" t="s">
         <v>254</v>
       </c>
-      <c r="AF11" t="s">
-        <v>255</v>
-      </c>
-      <c r="AH11" t="s">
+      <c r="AJ11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL11" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="F12" t="s">
         <v>563</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>270</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>584</v>
       </c>
-      <c r="L12" t="s">
-        <v>37</v>
+      <c r="M12" t="s">
+        <v>78</v>
       </c>
       <c r="N12" t="s">
+        <v>718</v>
+      </c>
+      <c r="P12" t="s">
         <v>526</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>588</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
+        <v>729</v>
+      </c>
+      <c r="U12" t="s">
         <v>40</v>
       </c>
-      <c r="S12" t="s">
+      <c r="V12" t="s">
         <v>245</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AD12" t="s">
+        <v>615</v>
+      </c>
+      <c r="AE12" t="s">
         <v>99</v>
       </c>
-      <c r="AF12" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH12" t="s">
+      <c r="AJ12" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL12" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>329</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
         <v>315</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>259</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>442</v>
       </c>
-      <c r="L13" t="s">
-        <v>476</v>
+      <c r="M13" t="s">
+        <v>37</v>
       </c>
       <c r="N13" t="s">
+        <v>719</v>
+      </c>
+      <c r="P13" t="s">
         <v>428</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>511</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
+        <v>730</v>
+      </c>
+      <c r="U13" t="s">
         <v>92</v>
       </c>
-      <c r="S13" t="s">
+      <c r="V13" t="s">
         <v>659</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AD13" t="s">
+        <v>616</v>
+      </c>
+      <c r="AE13" t="s">
         <v>322</v>
       </c>
-      <c r="AF13" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH13" t="s">
+      <c r="AJ13" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL13" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>700</v>
       </c>
       <c r="F14" t="s">
         <v>337</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>312</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>318</v>
       </c>
-      <c r="L14" t="s">
-        <v>382</v>
+      <c r="M14" t="s">
+        <v>476</v>
       </c>
       <c r="N14" t="s">
+        <v>720</v>
+      </c>
+      <c r="P14" t="s">
         <v>462</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
+        <v>731</v>
+      </c>
+      <c r="U14" t="s">
         <v>93</v>
       </c>
-      <c r="S14" t="s">
+      <c r="V14" t="s">
         <v>246</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AD14" t="s">
+        <v>617</v>
+      </c>
+      <c r="AE14" t="s">
         <v>100</v>
       </c>
-      <c r="AF14" t="s">
-        <v>189</v>
-      </c>
-      <c r="AH14" t="s">
+      <c r="AJ14" t="s">
+        <v>784</v>
+      </c>
+      <c r="AL14" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>497</v>
+        <v>329</v>
       </c>
       <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>260</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>319</v>
       </c>
-      <c r="L15" t="s">
-        <v>17</v>
+      <c r="M15" t="s">
+        <v>382</v>
       </c>
       <c r="N15" t="s">
-        <v>38</v>
-      </c>
-      <c r="R15" t="s">
+        <v>721</v>
+      </c>
+      <c r="P15" t="s">
+        <v>723</v>
+      </c>
+      <c r="T15" t="s">
+        <v>732</v>
+      </c>
+      <c r="U15" t="s">
         <v>481</v>
       </c>
-      <c r="S15" t="s">
+      <c r="V15" t="s">
         <v>574</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AD15" t="s">
+        <v>618</v>
+      </c>
+      <c r="AE15" t="s">
         <v>594</v>
       </c>
-      <c r="AF15" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH15" t="s">
+      <c r="AJ15" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL15" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>467</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
         <v>57</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>261</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>320</v>
       </c>
-      <c r="L16" t="s">
-        <v>41</v>
+      <c r="M16" t="s">
+        <v>17</v>
       </c>
       <c r="N16" t="s">
-        <v>530</v>
-      </c>
-      <c r="R16" t="s">
+        <v>722</v>
+      </c>
+      <c r="P16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T16" t="s">
+        <v>733</v>
+      </c>
+      <c r="U16" t="s">
         <v>482</v>
       </c>
-      <c r="S16" t="s">
+      <c r="V16" t="s">
         <v>251</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AD16" t="s">
+        <v>619</v>
+      </c>
+      <c r="AE16" t="s">
         <v>575</v>
       </c>
-      <c r="AF16" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH16" t="s">
+      <c r="AJ16" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL16" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>497</v>
       </c>
       <c r="F17" t="s">
         <v>377</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>313</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>321</v>
       </c>
-      <c r="L17" t="s">
-        <v>477</v>
-      </c>
-      <c r="N17" t="s">
-        <v>39</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="M17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" t="s">
+        <v>530</v>
+      </c>
+      <c r="T17" t="s">
+        <v>75</v>
+      </c>
+      <c r="V17" t="s">
         <v>247</v>
       </c>
-      <c r="AA17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>456</v>
-      </c>
-      <c r="AH17" t="s">
+      <c r="AD17" t="s">
+        <v>620</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>769</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL17" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>467</v>
       </c>
       <c r="F18" t="s">
         <v>378</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>87</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>685</v>
       </c>
-      <c r="L18" t="s">
-        <v>79</v>
-      </c>
-      <c r="N18" t="s">
-        <v>42</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="M18" t="s">
+        <v>477</v>
+      </c>
+      <c r="P18" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" t="s">
+        <v>734</v>
+      </c>
+      <c r="V18" t="s">
         <v>248</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AD18" t="s">
+        <v>621</v>
+      </c>
+      <c r="AE18" t="s">
         <v>73</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AJ18" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL18" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="F19" t="s">
         <v>664</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>88</v>
       </c>
-      <c r="L19" t="s">
-        <v>80</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="M19" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" t="s">
+        <v>42</v>
+      </c>
+      <c r="T19" t="s">
+        <v>735</v>
+      </c>
+      <c r="V19" t="s">
         <v>660</v>
       </c>
-      <c r="AA19" t="s">
-        <v>483</v>
-      </c>
-      <c r="AH19" t="s">
+      <c r="AD19" t="s">
+        <v>622</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>770</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL19" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>701</v>
       </c>
       <c r="F20" t="s">
         <v>665</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>292</v>
       </c>
-      <c r="L20" t="s">
-        <v>452</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="M20" t="s">
+        <v>80</v>
+      </c>
+      <c r="T20" t="s">
+        <v>736</v>
+      </c>
+      <c r="V20" t="s">
         <v>249</v>
       </c>
-      <c r="AA20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH20" t="s">
+      <c r="AD20" t="s">
+        <v>623</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>483</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>456</v>
+      </c>
+      <c r="AL20" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>388</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
         <v>407</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>293</v>
       </c>
-      <c r="L21" t="s">
-        <v>81</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="M21" t="s">
+        <v>452</v>
+      </c>
+      <c r="T21" t="s">
+        <v>737</v>
+      </c>
+      <c r="V21" t="s">
         <v>661</v>
       </c>
-      <c r="AA21" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH21" t="s">
+      <c r="AD21" t="s">
+        <v>624</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>771</v>
+      </c>
+      <c r="AL21" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>404</v>
+        <v>236</v>
       </c>
       <c r="F22" t="s">
         <v>598</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>294</v>
       </c>
-      <c r="L22" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH22" t="s">
+      <c r="M22" t="s">
+        <v>81</v>
+      </c>
+      <c r="T22" t="s">
+        <v>738</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>625</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL22" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>405</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
         <v>599</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>295</v>
       </c>
-      <c r="L23" t="s">
-        <v>567</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH23" t="s">
+      <c r="M23" t="s">
+        <v>82</v>
+      </c>
+      <c r="T23" t="s">
+        <v>739</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>763</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL23" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="F24" t="s">
         <v>600</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>286</v>
       </c>
-      <c r="L24" t="s">
-        <v>460</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>484</v>
-      </c>
-      <c r="AH24" t="s">
+      <c r="M24" t="s">
+        <v>567</v>
+      </c>
+      <c r="T24" t="s">
+        <v>740</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>626</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL24" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>275</v>
       </c>
-      <c r="L25" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH25" t="s">
+      <c r="M25" t="s">
+        <v>460</v>
+      </c>
+      <c r="T25" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>627</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL25" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>587</v>
+        <v>405</v>
       </c>
       <c r="F26" t="s">
         <v>59</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>666</v>
       </c>
-      <c r="L26" t="s">
-        <v>384</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>686</v>
-      </c>
-      <c r="AH26" t="s">
+      <c r="M26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>628</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>484</v>
+      </c>
+      <c r="AL26" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>350</v>
       </c>
       <c r="F27" t="s">
         <v>252</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>667</v>
       </c>
-      <c r="L27" t="s">
-        <v>603</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>531</v>
-      </c>
-      <c r="AH27" t="s">
+      <c r="M27" t="s">
+        <v>384</v>
+      </c>
+      <c r="T27" t="s">
+        <v>743</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>629</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL27" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>389</v>
       </c>
       <c r="F28" t="s">
         <v>601</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>74</v>
       </c>
-      <c r="L28" t="s">
-        <v>514</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>107</v>
+      <c r="M28" t="s">
+        <v>603</v>
+      </c>
+      <c r="T28" t="s">
+        <v>744</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>630</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>587</v>
       </c>
       <c r="F29" t="s">
         <v>527</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>278</v>
       </c>
-      <c r="L29" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>108</v>
+      <c r="M29" t="s">
+        <v>514</v>
+      </c>
+      <c r="T29" t="s">
+        <v>745</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>631</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>662</v>
+        <v>597</v>
       </c>
       <c r="F30" t="s">
         <v>60</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>262</v>
       </c>
-      <c r="L30" t="s">
-        <v>426</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>109</v>
+      <c r="M30" t="s">
+        <v>83</v>
+      </c>
+      <c r="T30" t="s">
+        <v>746</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>632</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>663</v>
+        <v>52</v>
       </c>
       <c r="F31" t="s">
         <v>317</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>279</v>
       </c>
-      <c r="L31" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>110</v>
+      <c r="M31" t="s">
+        <v>426</v>
+      </c>
+      <c r="T31" t="s">
+        <v>747</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>633</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s">
         <v>61</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>280</v>
       </c>
-      <c r="L32" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>323</v>
+      <c r="M32" t="s">
+        <v>44</v>
+      </c>
+      <c r="T32" t="s">
+        <v>748</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>634</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>406</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
         <v>439</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>213</v>
       </c>
-      <c r="AA33" t="s">
-        <v>111</v>
+      <c r="M33" t="s">
+        <v>45</v>
+      </c>
+      <c r="T33" t="s">
+        <v>749</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>635</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>662</v>
       </c>
       <c r="F34" t="s">
         <v>222</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>271</v>
       </c>
-      <c r="AA34" t="s">
-        <v>112</v>
+      <c r="T34" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>636</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="s">
+        <v>663</v>
+      </c>
       <c r="F35" t="s">
         <v>223</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>281</v>
       </c>
-      <c r="AA35" t="s">
-        <v>113</v>
+      <c r="T35" t="s">
+        <v>750</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>637</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
       <c r="F36" t="s">
         <v>458</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>499</v>
       </c>
-      <c r="AA36" t="s">
-        <v>114</v>
+      <c r="T36" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>638</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="s">
+        <v>406</v>
+      </c>
       <c r="F37" t="s">
         <v>459</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>256</v>
       </c>
-      <c r="AA37" t="s">
-        <v>532</v>
+      <c r="T37" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>639</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="s">
+        <v>224</v>
+      </c>
       <c r="F38" t="s">
         <v>408</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>326</v>
       </c>
-      <c r="AA38" t="s">
-        <v>115</v>
+      <c r="T38" t="s">
+        <v>566</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>764</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
         <v>62</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>303</v>
       </c>
-      <c r="AA39" t="s">
-        <v>116</v>
+      <c r="T39" t="s">
+        <v>751</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>640</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
         <v>63</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>257</v>
       </c>
-      <c r="AA40" t="s">
-        <v>206</v>
+      <c r="T40" t="s">
+        <v>752</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>641</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
         <v>64</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>304</v>
       </c>
-      <c r="AA41" t="s">
-        <v>117</v>
+      <c r="T41" t="s">
+        <v>753</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>765</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
         <v>65</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>263</v>
       </c>
-      <c r="AA42" t="s">
-        <v>334</v>
+      <c r="T42" t="s">
+        <v>754</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>766</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
         <v>66</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>668</v>
       </c>
-      <c r="AA43" t="s">
-        <v>430</v>
+      <c r="T43" t="s">
+        <v>755</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>767</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
         <v>67</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>76</v>
       </c>
-      <c r="AA44" t="s">
-        <v>565</v>
+      <c r="T44" t="s">
+        <v>756</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>768</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
         <v>68</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>208</v>
       </c>
-      <c r="AA45" t="s">
-        <v>385</v>
+      <c r="T45" t="s">
+        <v>757</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="46">
       <c r="F46" t="s">
         <v>69</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>528</v>
       </c>
-      <c r="AA46" t="s">
-        <v>118</v>
+      <c r="T46" t="s">
+        <v>758</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="47">
       <c r="F47" t="s">
         <v>602</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>285</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="T47" t="s">
+        <v>759</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="I48" t="s">
+        <v>296</v>
+      </c>
+      <c r="T48" t="s">
+        <v>760</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="I49" t="s">
+        <v>297</v>
+      </c>
+      <c r="T49" t="s">
+        <v>761</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="I50" t="s">
+        <v>339</v>
+      </c>
+      <c r="T50" t="s">
+        <v>645</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="I51" t="s">
+        <v>338</v>
+      </c>
+      <c r="T51" t="s">
+        <v>762</v>
+      </c>
+      <c r="AE51" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="48">
-      <c r="H48" t="s">
-        <v>296</v>
-      </c>
-      <c r="AA48" t="s">
+    <row r="52">
+      <c r="I52" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE52" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="49">
-      <c r="H49" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA49" t="s">
+    <row r="53">
+      <c r="I53" t="s">
+        <v>316</v>
+      </c>
+      <c r="AE53" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="50">
-      <c r="H50" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA50" t="s">
+    <row r="54">
+      <c r="I54" t="s">
+        <v>669</v>
+      </c>
+      <c r="AE54" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="51">
-      <c r="H51" t="s">
-        <v>338</v>
-      </c>
-      <c r="AA51" t="s">
+    <row r="55">
+      <c r="I55" t="s">
+        <v>670</v>
+      </c>
+      <c r="AE55" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52">
-      <c r="H52" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA52" t="s">
+    <row r="56">
+      <c r="I56" t="s">
+        <v>671</v>
+      </c>
+      <c r="AE56" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="53">
-      <c r="H53" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA53" t="s">
+    <row r="57">
+      <c r="I57" t="s">
+        <v>672</v>
+      </c>
+      <c r="AE57" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="54">
-      <c r="H54" t="s">
-        <v>669</v>
-      </c>
-      <c r="AA54" t="s">
+    <row r="58">
+      <c r="I58" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE58" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55">
-      <c r="H55" t="s">
-        <v>670</v>
-      </c>
-      <c r="AA55" t="s">
+    <row r="59">
+      <c r="I59" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE59" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="56">
-      <c r="H56" t="s">
-        <v>671</v>
-      </c>
-      <c r="AA56" t="s">
+    <row r="60">
+      <c r="I60" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE60" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="57">
-      <c r="H57" t="s">
-        <v>672</v>
-      </c>
-      <c r="AA57" t="s">
+    <row r="61">
+      <c r="I61" t="s">
+        <v>708</v>
+      </c>
+      <c r="AE61" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="58">
-      <c r="H58" t="s">
-        <v>335</v>
-      </c>
-      <c r="AA58" t="s">
+    <row r="62">
+      <c r="I62" t="s">
+        <v>709</v>
+      </c>
+      <c r="AE62" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="59">
-      <c r="H59" t="s">
-        <v>361</v>
-      </c>
-      <c r="AA59" t="s">
+    <row r="63">
+      <c r="I63" t="s">
+        <v>327</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="I64" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE64" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="60">
-      <c r="H60" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA60" t="s">
+    <row r="65">
+      <c r="I65" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE65" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="61">
-      <c r="H61" t="s">
-        <v>327</v>
-      </c>
-      <c r="AA61" t="s">
+    <row r="66">
+      <c r="I66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE66" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="62">
-      <c r="H62" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA62" t="s">
+    <row r="67">
+      <c r="I67" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE67" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="63">
-      <c r="H63" t="s">
-        <v>288</v>
-      </c>
-      <c r="AA63" t="s">
+    <row r="68">
+      <c r="I68" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE68" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="64">
-      <c r="H64" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA64" t="s">
+    <row r="69">
+      <c r="I69" t="s">
+        <v>673</v>
+      </c>
+      <c r="AE69" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="65">
-      <c r="H65" t="s">
-        <v>529</v>
-      </c>
-      <c r="AA65" t="s">
+    <row r="70">
+      <c r="I70" t="s">
+        <v>674</v>
+      </c>
+      <c r="AE70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66">
-      <c r="H66" t="s">
-        <v>290</v>
-      </c>
-      <c r="AA66" t="s">
+    <row r="71">
+      <c r="I71" t="s">
+        <v>675</v>
+      </c>
+      <c r="AE71" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="67">
-      <c r="H67" t="s">
-        <v>673</v>
-      </c>
-      <c r="AA67" t="s">
+    <row r="72">
+      <c r="I72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AE72" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="68">
-      <c r="H68" t="s">
-        <v>674</v>
-      </c>
-      <c r="AA68" t="s">
+    <row r="73">
+      <c r="I73" t="s">
+        <v>676</v>
+      </c>
+      <c r="AE73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="69">
-      <c r="H69" t="s">
-        <v>675</v>
-      </c>
-      <c r="AA69" t="s">
+    <row r="74">
+      <c r="I74" t="s">
+        <v>677</v>
+      </c>
+      <c r="AE74" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="70">
-      <c r="H70" t="s">
-        <v>308</v>
-      </c>
-      <c r="AA70" t="s">
+    <row r="75">
+      <c r="I75" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE75" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="71">
-      <c r="H71" t="s">
-        <v>676</v>
-      </c>
-      <c r="AA71" t="s">
+    <row r="76">
+      <c r="I76" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE76" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="72">
-      <c r="H72" t="s">
-        <v>677</v>
-      </c>
-      <c r="AA72" t="s">
+    <row r="77">
+      <c r="I77" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE77" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="73">
-      <c r="H73" t="s">
-        <v>333</v>
-      </c>
-      <c r="AA73" t="s">
+    <row r="78">
+      <c r="I78" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE78" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="74">
-      <c r="H74" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA74" t="s">
+    <row r="79">
+      <c r="I79" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE79" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="75">
-      <c r="H75" t="s">
-        <v>306</v>
-      </c>
-      <c r="AA75" t="s">
+    <row r="80">
+      <c r="I80" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE80" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="76">
-      <c r="H76" t="s">
-        <v>362</v>
-      </c>
-      <c r="AA76" t="s">
+    <row r="81">
+      <c r="I81" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE81" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="77">
-      <c r="H77" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA77" t="s">
+    <row r="82">
+      <c r="I82" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE82" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78">
-      <c r="H78" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA78" t="s">
+    <row r="83">
+      <c r="I83" t="s">
+        <v>515</v>
+      </c>
+      <c r="AE83" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="79">
-      <c r="H79" t="s">
-        <v>309</v>
-      </c>
-      <c r="AA79" t="s">
+    <row r="84">
+      <c r="I84" t="s">
+        <v>310</v>
+      </c>
+      <c r="AE84" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="80">
-      <c r="H80" t="s">
-        <v>265</v>
-      </c>
-      <c r="AA80" t="s">
+    <row r="85">
+      <c r="I85" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE85" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="81">
-      <c r="H81" t="s">
-        <v>515</v>
-      </c>
-      <c r="AA81" t="s">
+    <row r="86">
+      <c r="I86" t="s">
+        <v>678</v>
+      </c>
+      <c r="AE86" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="82">
-      <c r="H82" t="s">
-        <v>310</v>
-      </c>
-      <c r="AA82" t="s">
+    <row r="87">
+      <c r="I87" t="s">
+        <v>679</v>
+      </c>
+      <c r="AE87" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="83">
-      <c r="H83" t="s">
-        <v>402</v>
-      </c>
-      <c r="AA83" t="s">
+    <row r="88">
+      <c r="I88" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE88" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="84">
-      <c r="H84" t="s">
-        <v>678</v>
-      </c>
-      <c r="AA84" t="s">
+    <row r="89">
+      <c r="I89" t="s">
+        <v>500</v>
+      </c>
+      <c r="AE89" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="85">
-      <c r="H85" t="s">
-        <v>679</v>
-      </c>
-      <c r="AA85" t="s">
+    <row r="90">
+      <c r="I90" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE90" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="86">
-      <c r="H86" t="s">
-        <v>258</v>
-      </c>
-      <c r="AA86" t="s">
+    <row r="91">
+      <c r="I91" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE91" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="87">
-      <c r="H87" t="s">
-        <v>500</v>
-      </c>
-      <c r="AA87" t="s">
+    <row r="92">
+      <c r="I92" t="s">
+        <v>680</v>
+      </c>
+      <c r="AE92" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="88">
-      <c r="H88" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA88" t="s">
+    <row r="93">
+      <c r="I93" t="s">
+        <v>681</v>
+      </c>
+      <c r="AE93" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="89">
-      <c r="H89" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA89" t="s">
+    <row r="94">
+      <c r="I94" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE94" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="90">
-      <c r="H90" t="s">
-        <v>680</v>
-      </c>
-      <c r="AA90" t="s">
+    <row r="95">
+      <c r="I95" t="s">
+        <v>421</v>
+      </c>
+      <c r="AE95" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="91">
-      <c r="H91" t="s">
-        <v>681</v>
-      </c>
-      <c r="AA91" t="s">
+    <row r="96">
+      <c r="I96" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE96" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="92">
-      <c r="H92" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA92" t="s">
+    <row r="97">
+      <c r="I97" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE97" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="93">
-      <c r="H93" t="s">
-        <v>421</v>
-      </c>
-      <c r="AA93" t="s">
+    <row r="98">
+      <c r="I98" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE98" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="94">
-      <c r="H94" t="s">
-        <v>328</v>
-      </c>
-      <c r="AA94" t="s">
+    <row r="99">
+      <c r="I99" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE99" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="95">
-      <c r="H95" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA95" t="s">
+    <row r="100">
+      <c r="I100" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE100" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="96">
-      <c r="H96" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA96" t="s">
+    <row r="101">
+      <c r="I101" t="s">
+        <v>517</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="I102" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE102" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="97">
-      <c r="H97" t="s">
-        <v>283</v>
-      </c>
-      <c r="AA97" t="s">
+    <row r="103">
+      <c r="I103" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE103" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="98">
-      <c r="H98" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA98" t="s">
+    <row r="104">
+      <c r="I104" t="s">
+        <v>682</v>
+      </c>
+      <c r="AE104" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="99">
-      <c r="H99" t="s">
-        <v>517</v>
-      </c>
-      <c r="AA99" t="s">
+    <row r="105">
+      <c r="I105" t="s">
+        <v>683</v>
+      </c>
+      <c r="AE105" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="100">
-      <c r="H100" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA100" t="s">
+    <row r="106">
+      <c r="I106" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE106" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="101">
-      <c r="H101" t="s">
-        <v>284</v>
-      </c>
-      <c r="AA101" t="s">
+    <row r="107">
+      <c r="I107" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE107" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="102">
-      <c r="H102" t="s">
-        <v>682</v>
-      </c>
-      <c r="AA102" t="s">
+    <row r="108">
+      <c r="I108" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE108" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="103">
-      <c r="H103" t="s">
-        <v>683</v>
-      </c>
-      <c r="AA103" t="s">
+    <row r="109">
+      <c r="I109" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE109" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="104">
-      <c r="H104" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA104" t="s">
+    <row r="110">
+      <c r="I110" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE110" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="105">
-      <c r="H105" t="s">
-        <v>269</v>
-      </c>
-      <c r="AA105" t="s">
+    <row r="111">
+      <c r="I111" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE111" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="106">
-      <c r="H106" t="s">
-        <v>301</v>
-      </c>
-      <c r="AA106" t="s">
+    <row r="112">
+      <c r="I112" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE112" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="107">
-      <c r="H107" t="s">
-        <v>307</v>
-      </c>
-      <c r="AA107" t="s">
+    <row r="113">
+      <c r="I113" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE113" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="108">
-      <c r="H108" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA108" t="s">
+    <row r="114">
+      <c r="AE114" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="109">
-      <c r="H109" t="s">
-        <v>336</v>
-      </c>
-      <c r="AA109" t="s">
+    <row r="115">
+      <c r="AE115" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="110">
-      <c r="H110" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA110" t="s">
+    <row r="116">
+      <c r="AE116" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="111">
-      <c r="H111" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA111" t="s">
+    <row r="117">
+      <c r="AE117" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="112">
-      <c r="AA112" t="s">
+    <row r="118">
+      <c r="AE118" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="113">
-      <c r="AA113" t="s">
+    <row r="119">
+      <c r="AE119" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="114">
-      <c r="AA114" t="s">
+    <row r="120">
+      <c r="AE120" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="115">
-      <c r="AA115" t="s">
+    <row r="121">
+      <c r="AE121" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="116">
-      <c r="AA116" t="s">
+    <row r="122">
+      <c r="AE122" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="117">
-      <c r="AA117" t="s">
+    <row r="123">
+      <c r="AE123" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="118">
-      <c r="AA118" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="AA119" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="AA120" t="s">
+    <row r="124">
+      <c r="AE124" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="121">
-      <c r="AA121" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="AA122" t="s">
+    <row r="125">
+      <c r="AE125" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="123">
-      <c r="AA123" t="s">
+    <row r="126">
+      <c r="AE126" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="124">
-      <c r="AA124" t="s">
+    <row r="127">
+      <c r="AE127" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="125">
-      <c r="AA125" t="s">
+    <row r="128">
+      <c r="AE128" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="AE129" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="126">
-      <c r="AA126" t="s">
+    <row r="130">
+      <c r="AE130" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="127">
-      <c r="AA127" t="s">
+    <row r="131">
+      <c r="AE131" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="128">
-      <c r="AA128" t="s">
+    <row r="132">
+      <c r="AE132" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="129">
-      <c r="AA129" t="s">
+    <row r="133">
+      <c r="AE133" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="130">
-      <c r="AA130" t="s">
+    <row r="134">
+      <c r="AE134" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="131">
-      <c r="AA131" t="s">
+    <row r="135">
+      <c r="AE135" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="132">
-      <c r="AA132" t="s">
+    <row r="136">
+      <c r="AE136" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="133">
-      <c r="AA133" t="s">
+    <row r="137">
+      <c r="AE137" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="134">
-      <c r="AA134" t="s">
+    <row r="138">
+      <c r="AE138" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="135">
-      <c r="AA135" t="s">
+    <row r="139">
+      <c r="AE139" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="AE140" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="136">
-      <c r="AA136" t="s">
+    <row r="141">
+      <c r="AE141" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="137">
-      <c r="AA137" t="s">
+    <row r="142">
+      <c r="AE142" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="138">
-      <c r="AA138" t="s">
+    <row r="143">
+      <c r="AE143" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="139">
-      <c r="AA139" t="s">
+    <row r="144">
+      <c r="AE144" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="140">
-      <c r="AA140" t="s">
+    <row r="145">
+      <c r="AE145" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="141">
-      <c r="AA141" t="s">
+    <row r="146">
+      <c r="AE146" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="142">
-      <c r="AA142" t="s">
+    <row r="147">
+      <c r="AE147" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="143">
-      <c r="AA143" t="s">
+    <row r="148">
+      <c r="AE148" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="144">
-      <c r="AA144" t="s">
+    <row r="149">
+      <c r="AE149" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="145">
-      <c r="AA145" t="s">
+    <row r="150">
+      <c r="AE150" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="146">
-      <c r="AA146" t="s">
+    <row r="151">
+      <c r="AE151" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AE152" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="147">
-      <c r="AA147" t="s">
+    <row r="153">
+      <c r="AE153" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="148">
-      <c r="AA148" t="s">
+    <row r="154">
+      <c r="AE154" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="149">
-      <c r="AA149" t="s">
+    <row r="155">
+      <c r="AE155" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="150">
-      <c r="AA150" t="s">
+    <row r="156">
+      <c r="AE156" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="151">
-      <c r="AA151" t="s">
+    <row r="157">
+      <c r="AE157" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="152">
-      <c r="AA152" t="s">
+    <row r="158">
+      <c r="AE158" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="153">
-      <c r="AA153" t="s">
+    <row r="159">
+      <c r="AE159" t="s">
         <v>649</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="AE160" t="s">
+        <v>779</v>
       </c>
     </row>
   </sheetData>
